--- a/Employee_Chat_Analysis_Report_2025-07-06.xlsx
+++ b/Employee_Chat_Analysis_Report_2025-07-06.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,37 +432,43 @@
         <v>Employee ID (Internal)</v>
       </c>
       <c r="D1" t="str">
+        <v>Zoho ID</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Employee Name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Department</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Business Unit</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Client/Security</v>
+      </c>
+      <c r="I1" t="str">
         <v>Employee Reference</v>
       </c>
-      <c r="E1" t="str">
-        <v>Zoho ID</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Employee Name</v>
-      </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>Chat Entered By</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>Chat Entered By (Short)</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>Chat Content</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>Content Length</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>Chat Entered Date/Time</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>Chat Date</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>Status</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Notes</v>
       </c>
     </row>
     <row r="2">
@@ -470,43 +476,49 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I2" t="str">
         <v>Employee_1</v>
       </c>
-      <c r="E2" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F2" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I2" t="str">
-        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
-      </c>
-      <c r="J2">
-        <v>47</v>
+      <c r="J2" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K2" t="str">
-        <v>2025-06-25 09:30:00</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L2" t="str">
+        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
+      </c>
+      <c r="M2">
+        <v>84</v>
       </c>
       <c r="N2" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:28:30</v>
+      </c>
+      <c r="O2" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="3">
@@ -514,43 +526,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>382</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>Employee_2</v>
+        <v>N/A</v>
       </c>
       <c r="E3" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F3" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G3" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H3" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I3" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
-      </c>
-      <c r="J3">
-        <v>91</v>
+        <v>Employee_1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="K3" t="str">
-        <v>2025-06-25 10:15:00</v>
-      </c>
-      <c r="L3" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Active</v>
+        <v>Muhammad Rehman S.</v>
+      </c>
+      <c r="L3" t="str">
+        <v>This is test comments by Rehman on 6th July at 10:07 AM PK Time</v>
+      </c>
+      <c r="M3">
+        <v>63</v>
       </c>
       <c r="N3" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-06 05:08:01</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45844</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="4">
@@ -558,43 +576,49 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I4" t="str">
         <v>Employee_2</v>
       </c>
-      <c r="E4" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F4" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Training on new technologies - backup resource</v>
-      </c>
-      <c r="J4">
-        <v>46</v>
+      <c r="J4" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K4" t="str">
-        <v>2025-06-26 11:20:00</v>
-      </c>
-      <c r="L4" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M4" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L4" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M4">
+        <v>109</v>
       </c>
       <c r="N4" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:45:04</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="5">
@@ -602,43 +626,49 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
-        <v>Employee_4</v>
+        <v>N/A</v>
       </c>
       <c r="E5" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F5" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G5" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H5" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I5" t="str">
-        <v>Ignore the above comment - 25% Billable in Augusta</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
+        <v>Employee_2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K5" t="str">
-        <v>2025-06-25 14:45:00</v>
-      </c>
-      <c r="L5" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L5" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M5">
+        <v>109</v>
+      </c>
+      <c r="N5" t="str">
+        <v>2025-06-25 19:45:04</v>
+      </c>
+      <c r="O5" s="1">
         <v>45833</v>
       </c>
-      <c r="M5" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N5" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P5" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="6">
@@ -646,43 +676,49 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I6" t="str">
         <v>Employee_4</v>
       </c>
-      <c r="E6" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F6" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I6" t="str">
-        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
-      </c>
-      <c r="J6">
-        <v>47</v>
+      <c r="J6" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K6" t="str">
-        <v>2025-06-26 09:30:00</v>
-      </c>
-      <c r="L6" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M6" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L6" t="str">
+        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
+      </c>
+      <c r="M6">
+        <v>84</v>
       </c>
       <c r="N6" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:07:00</v>
+      </c>
+      <c r="O6" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="7">
@@ -690,43 +726,49 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I7" t="str">
         <v>Employee_4</v>
       </c>
-      <c r="E7" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F7" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Augusta project planning phase</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
+      <c r="J7" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K7" t="str">
-        <v>2025-06-27 13:15:00</v>
-      </c>
-      <c r="L7" s="1">
-        <v>45835</v>
-      </c>
-      <c r="M7" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L7" t="str">
+        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
+      </c>
+      <c r="M7">
+        <v>84</v>
       </c>
       <c r="N7" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:07:00</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="8">
@@ -734,43 +776,49 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="str">
-        <v>Employee_10</v>
+        <v>N/A</v>
       </c>
       <c r="E8" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F8" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G8" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H8" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I8" t="str">
-        <v>PM for Y design &amp; True religion, From August will be 100% Billable in Augusta</v>
-      </c>
-      <c r="J8">
-        <v>77</v>
+        <v>Employee_4</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K8" t="str">
-        <v>2025-06-25 16:30:00</v>
-      </c>
-      <c r="L8" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M8" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L8" t="str">
+        <v xml:space="preserve">Ignore the above comment - 25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
+      </c>
+      <c r="M8">
+        <v>102</v>
       </c>
       <c r="N8" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:25:06</v>
+      </c>
+      <c r="O8" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="9">
@@ -778,43 +826,49 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I9" t="str">
         <v>Employee_10</v>
       </c>
-      <c r="E9" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F9" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Y design project coordination</v>
-      </c>
-      <c r="J9">
-        <v>29</v>
+      <c r="J9" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K9" t="str">
-        <v>2025-06-26 14:20:00</v>
-      </c>
-      <c r="L9" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M9" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L9" t="str">
+        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
+      </c>
+      <c r="M9">
+        <v>94</v>
       </c>
       <c r="N9" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:02:51</v>
+      </c>
+      <c r="O9" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="10">
@@ -822,43 +876,49 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="str">
-        <v>Employee_14</v>
+        <v>N/A</v>
       </c>
       <c r="E10" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F10" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G10" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H10" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I10" t="str">
-        <v>Was on leave entire last week</v>
-      </c>
-      <c r="J10">
-        <v>29</v>
+        <v>Employee_10</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K10" t="str">
-        <v>2025-06-24 10:00:00</v>
-      </c>
-      <c r="L10" s="1">
-        <v>45832</v>
-      </c>
-      <c r="M10" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L10" t="str">
+        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
+      </c>
+      <c r="M10">
+        <v>94</v>
       </c>
       <c r="N10" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:02:51</v>
+      </c>
+      <c r="O10" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="11">
@@ -866,43 +926,49 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="str">
-        <v>Employee_16</v>
+        <v>N/A</v>
       </c>
       <c r="E11" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F11" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G11" t="str">
-        <v>Farhan Ahmed</v>
+        <v>N/A</v>
       </c>
       <c r="H11" t="str">
-        <v>Farhan A.</v>
+        <v>N/A</v>
       </c>
       <c r="I11" t="str">
-        <v>He is a Non-Billable PM at Richardson Sports</v>
-      </c>
-      <c r="J11">
-        <v>44</v>
+        <v>Employee_14</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K11" t="str">
-        <v>2025-06-25 11:45:00</v>
-      </c>
-      <c r="L11" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M11" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Was on leave entire last week</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
       </c>
       <c r="N11" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-27 17:17:32</v>
+      </c>
+      <c r="O11" s="1">
+        <v>45835</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="12">
@@ -910,43 +976,49 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I12" t="str">
         <v>Employee_16</v>
       </c>
-      <c r="E12" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F12" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="J12" t="str">
         <v>Farhan Ahmed</v>
       </c>
-      <c r="H12" t="str">
+      <c r="K12" t="str">
         <v>Farhan A.</v>
       </c>
-      <c r="I12" t="str">
-        <v>Richardson Sports project management role</v>
-      </c>
-      <c r="J12">
-        <v>41</v>
-      </c>
-      <c r="K12" t="str">
-        <v>2025-06-26 15:30:00</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12" t="str">
+        <v>He is a Non-Billable PM at Richardson Sport</v>
+      </c>
+      <c r="M12">
+        <v>43</v>
+      </c>
+      <c r="N12" t="str">
+        <v>2025-06-26 15:45:02</v>
+      </c>
+      <c r="O12" s="1">
         <v>45834</v>
       </c>
-      <c r="M12" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N12" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P12" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="13">
@@ -954,43 +1026,49 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="str">
-        <v>Employee_17</v>
+        <v>N/A</v>
       </c>
       <c r="E13" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F13" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G13" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H13" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I13" t="str">
-        <v>Billable under JE Dune, Richardson</v>
-      </c>
-      <c r="J13">
-        <v>34</v>
+        <v>Employee_16</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Farhan Ahmed</v>
       </c>
       <c r="K13" t="str">
-        <v>2025-06-25 12:30:00</v>
-      </c>
-      <c r="L13" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M13" t="str">
-        <v>Active</v>
+        <v>Farhan A.</v>
+      </c>
+      <c r="L13" t="str">
+        <v>He is a Non-Billable PM at Richardson Sport</v>
+      </c>
+      <c r="M13">
+        <v>43</v>
       </c>
       <c r="N13" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:45:03</v>
+      </c>
+      <c r="O13" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="14">
@@ -998,43 +1076,49 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I14" t="str">
         <v>Employee_17</v>
       </c>
-      <c r="E14" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F14" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I14" t="str">
-        <v>JE Dune project ongoing</v>
-      </c>
-      <c r="J14">
-        <v>23</v>
+      <c r="J14" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K14" t="str">
-        <v>2025-06-26 16:45:00</v>
-      </c>
-      <c r="L14" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M14" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L14" t="str">
+        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
+      </c>
+      <c r="M14">
+        <v>36</v>
       </c>
       <c r="N14" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:51:11</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="15">
@@ -1042,43 +1126,49 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="str">
-        <v>Employee_18</v>
+        <v>N/A</v>
       </c>
       <c r="E15" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F15" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G15" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H15" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I15" t="str">
-        <v>Billable under JE Dune, Richardson</v>
-      </c>
-      <c r="J15">
-        <v>34</v>
+        <v>Employee_17</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K15" t="str">
-        <v>2025-06-25 13:15:00</v>
-      </c>
-      <c r="L15" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L15" t="str">
+        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
+      </c>
+      <c r="M15">
+        <v>36</v>
+      </c>
+      <c r="N15" t="str">
+        <v>2025-06-25 19:51:11</v>
+      </c>
+      <c r="O15" s="1">
         <v>45833</v>
       </c>
-      <c r="M15" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N15" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P15" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="16">
@@ -1086,43 +1176,49 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="C16">
         <v>18</v>
       </c>
       <c r="D16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I16" t="str">
         <v>Employee_18</v>
       </c>
-      <c r="E16" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F16" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G16" t="str">
+      <c r="J16" t="str">
         <v>Muhammad Rehman Shahid</v>
       </c>
-      <c r="H16" t="str">
+      <c r="K16" t="str">
         <v>Muhammad Rehman S.</v>
       </c>
-      <c r="I16" t="str">
-        <v>This employee is not filling the time sheet properly</v>
-      </c>
-      <c r="J16">
-        <v>52</v>
-      </c>
-      <c r="K16" t="str">
-        <v>2025-06-26 10:30:00</v>
-      </c>
-      <c r="L16" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M16" t="str">
-        <v>Active</v>
+      <c r="L16" t="str">
+        <v xml:space="preserve">This employee is not filling the time sheet. </v>
+      </c>
+      <c r="M16">
+        <v>45</v>
       </c>
       <c r="N16" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-04 20:59:11</v>
+      </c>
+      <c r="O16" s="1">
+        <v>45812</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="17">
@@ -1130,43 +1226,49 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" t="str">
-        <v>Employee_20</v>
+        <v>N/A</v>
       </c>
       <c r="E17" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F17" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G17" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H17" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I17" t="str">
-        <v>Resigned and LWD is 3rd July</v>
-      </c>
-      <c r="J17">
-        <v>28</v>
+        <v>Employee_18</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K17" t="str">
-        <v>2025-07-03 09:00:00</v>
-      </c>
-      <c r="L17" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M17" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L17" t="str">
+        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
+      </c>
+      <c r="M17">
+        <v>36</v>
       </c>
       <c r="N17" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 19:55:17</v>
+      </c>
+      <c r="O17" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="18">
@@ -1174,43 +1276,49 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="str">
-        <v>Employee_21</v>
+        <v>N/A</v>
       </c>
       <c r="E18" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F18" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G18" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H18" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I18" t="str">
-        <v>Abdullah is Non Billable.</v>
-      </c>
-      <c r="J18">
-        <v>25</v>
+        <v>Employee_20</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K18" t="str">
-        <v>2025-06-25 10:00:00</v>
-      </c>
-      <c r="L18" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M18" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Resigned and LWD is 3rd July</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
       </c>
       <c r="N18" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:36:18</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="19">
@@ -1218,87 +1326,100 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="C19">
         <v>21</v>
       </c>
       <c r="D19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I19" t="str">
         <v>Employee_21</v>
       </c>
-      <c r="E19" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F19" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H19" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
+        <v>Muhammad Rehman Shahid</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Muhammad Rehman S.</v>
+      </c>
+      <c r="L19" t="str">
         <v>Abdullah is Non Billable.</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>25</v>
       </c>
-      <c r="K19" t="str">
-        <v>2025-06-25 10:01:00</v>
-      </c>
-      <c r="L19" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M19" t="str">
-        <v>Active</v>
-      </c>
       <c r="N19" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2025-06-26 15:54:12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I20" t="str">
         <v>Employee_21</v>
       </c>
-      <c r="E20" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F20" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="J20" t="str">
         <v>Muhammad Rehman Shahid</v>
       </c>
-      <c r="H20" t="str">
+      <c r="K20" t="str">
         <v>Muhammad Rehman S.</v>
       </c>
-      <c r="I20" t="str">
-        <v>under the FMLA to take up to 26 weeks of leave</v>
-      </c>
-      <c r="J20">
-        <v>46</v>
-      </c>
-      <c r="K20" t="str">
-        <v>2025-06-26 14:30:00</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="L20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Abdullah is Non Billable._x000d_
+</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20" t="str">
+        <v>2025-06-26 17:31:48</v>
+      </c>
+      <c r="O20" s="1">
         <v>45834</v>
       </c>
-      <c r="M20" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N20" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P20" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="21">
@@ -1306,43 +1427,49 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="str">
-        <v>Employee_22</v>
+        <v>N/A</v>
       </c>
       <c r="E21" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F21" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G21" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H21" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I21" t="str">
-        <v>FMLA - it started from June 2nd for 12 weeks</v>
-      </c>
-      <c r="J21">
-        <v>44</v>
+        <v>Employee_21</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K21" t="str">
-        <v>2025-06-02 09:00:00</v>
-      </c>
-      <c r="L21" s="1">
-        <v>45810</v>
-      </c>
-      <c r="M21" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L21" t="str">
+        <v>under the FMLA to take up to 26 weeks of unpaid, job-protected FMLA leave in a single 12-month period</v>
+      </c>
+      <c r="M21">
+        <v>101</v>
       </c>
       <c r="N21" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-27 17:21:45</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45835</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="22">
@@ -1350,43 +1477,49 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="str">
-        <v>Employee_22</v>
+        <v>N/A</v>
       </c>
       <c r="E22" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F22" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G22" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>N/A</v>
       </c>
       <c r="H22" t="str">
-        <v>Muhammad Rehman S.</v>
+        <v>N/A</v>
       </c>
       <c r="I22" t="str">
-        <v>FMLA documentation in progress</v>
-      </c>
-      <c r="J22">
-        <v>30</v>
+        <v>Employee_21</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K22" t="str">
-        <v>2025-06-03 14:20:00</v>
-      </c>
-      <c r="L22" s="1">
-        <v>45811</v>
-      </c>
-      <c r="M22" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L22" t="str">
+        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
+      </c>
+      <c r="M22">
+        <v>107</v>
       </c>
       <c r="N22" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:56:44</v>
+      </c>
+      <c r="O22" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P22" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="23">
@@ -1394,43 +1527,49 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" t="str">
-        <v>Employee_24</v>
+        <v>N/A</v>
       </c>
       <c r="E23" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F23" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G23" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H23" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I23" t="str">
-        <v>Was billable in Dimond Roofing - Fletcher Building</v>
-      </c>
-      <c r="J23">
-        <v>50</v>
+        <v>Employee_22</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K23" t="str">
-        <v>2025-06-25 10:45:00</v>
-      </c>
-      <c r="L23" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M23" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L23" t="str">
+        <v>FMLA - it started from June 2nd for 12 weeks</v>
+      </c>
+      <c r="M23">
+        <v>44</v>
       </c>
       <c r="N23" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 18:52:26</v>
+      </c>
+      <c r="O23" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P23" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="24">
@@ -1438,43 +1577,49 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" t="str">
-        <v>Employee_25</v>
+        <v>N/A</v>
       </c>
       <c r="E24" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F24" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G24" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H24" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I24" t="str">
-        <v>T&amp;M work starting in Dimond+/Laminex NZ from 1st July</v>
-      </c>
-      <c r="J24">
-        <v>53</v>
+        <v>Employee_22</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K24" t="str">
-        <v>2025-06-30 16:30:00</v>
-      </c>
-      <c r="L24" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M24" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L24" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M24">
+        <v>109</v>
       </c>
       <c r="N24" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 19:58:21</v>
+      </c>
+      <c r="O24" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P24" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="25">
@@ -1482,43 +1627,49 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="str">
-        <v>Employee_25</v>
+        <v>N/A</v>
       </c>
       <c r="E25" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F25" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G25" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H25" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I25" t="str">
-        <v>Will be released from RAC by End of July</v>
-      </c>
-      <c r="J25">
-        <v>40</v>
+        <v>Employee_24</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K25" t="str">
-        <v>2025-07-01 11:15:00</v>
-      </c>
-      <c r="L25" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M25" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Was billable in Dimond Roofing - Fletcher Builder. Moved to bench from 23rd June</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
       </c>
       <c r="N25" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-27 17:24:09</v>
+      </c>
+      <c r="O25" s="1">
+        <v>45835</v>
+      </c>
+      <c r="P25" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="26">
@@ -1526,43 +1677,49 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" t="str">
-        <v>Employee_27</v>
+        <v>N/A</v>
       </c>
       <c r="E26" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F26" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G26" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H26" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I26" t="str">
-        <v>Will be released from RAC by End of July</v>
-      </c>
-      <c r="J26">
-        <v>40</v>
+        <v>Employee_25</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K26" t="str">
-        <v>2025-07-01 12:00:00</v>
-      </c>
-      <c r="L26" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M26" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L26" t="str">
+        <v>T&amp;M work starting in Dimond+/Laminex NZ project starting from July 14th for 2 months</v>
+      </c>
+      <c r="M26">
+        <v>84</v>
       </c>
       <c r="N26" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 17:55:18</v>
+      </c>
+      <c r="O26" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P26" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="27">
@@ -1570,43 +1727,49 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" t="str">
-        <v>Employee_27</v>
+        <v>N/A</v>
       </c>
       <c r="E27" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F27" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G27" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H27" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I27" t="str">
-        <v>Will be released from RAC by End of July - backup planning</v>
-      </c>
-      <c r="J27">
-        <v>58</v>
+        <v>Employee_25</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K27" t="str">
-        <v>2025-07-01 12:01:00</v>
-      </c>
-      <c r="L27" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M27" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Will be released from RAC by End of June. Nandha &amp;. Rama  will come back to us on or before 4th July</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
       </c>
       <c r="N27" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:41:25</v>
+      </c>
+      <c r="O27" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P27" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="28">
@@ -1614,43 +1777,49 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="str">
-        <v>Employee_28</v>
+        <v>N/A</v>
       </c>
       <c r="E28" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F28" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G28" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H28" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I28" t="str">
-        <v>Non billable from 23rd June</v>
-      </c>
-      <c r="J28">
-        <v>27</v>
+        <v>Employee_27</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K28" t="str">
-        <v>2025-06-23 10:00:00</v>
-      </c>
-      <c r="L28" s="1">
-        <v>45831</v>
-      </c>
-      <c r="M28" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Will be released from RAC by End of June.</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
       </c>
       <c r="N28" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:10:45</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P28" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="29">
@@ -1658,43 +1827,49 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="str">
-        <v>Employee_28</v>
+        <v>N/A</v>
       </c>
       <c r="E29" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F29" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G29" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H29" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I29" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="J29">
-        <v>53</v>
+        <v>Employee_27</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K29" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="L29" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M29" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Will be released from RAC by End of June.</v>
+      </c>
+      <c r="M29">
+        <v>41</v>
       </c>
       <c r="N29" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:10:45</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P29" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="30">
@@ -1702,43 +1877,49 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="str">
-        <v>Employee_31</v>
+        <v>N/A</v>
       </c>
       <c r="E30" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F30" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Employee_28</v>
+      </c>
+      <c r="J30" t="str">
         <v>Karthik Venkittu</v>
       </c>
-      <c r="H30" t="str">
+      <c r="K30" t="str">
         <v>Karthik V.</v>
       </c>
-      <c r="I30" t="str">
-        <v>She will be made billable from 1st August</v>
-      </c>
-      <c r="J30">
-        <v>41</v>
-      </c>
-      <c r="K30" t="str">
-        <v>2025-07-25 14:30:00</v>
-      </c>
-      <c r="L30" s="1">
-        <v>45863</v>
-      </c>
-      <c r="M30" t="str">
-        <v>Active</v>
+      <c r="L30" t="str">
+        <v>Non billable from 23rd June</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
       </c>
       <c r="N30" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:57:37</v>
+      </c>
+      <c r="O30" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P30" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="31">
@@ -1746,43 +1927,49 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" t="str">
-        <v>Employee_33</v>
+        <v>N/A</v>
       </c>
       <c r="E31" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F31" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G31" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H31" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I31" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="J31">
-        <v>53</v>
+        <v>Employee_28</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K31" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="L31" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M31" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L31" t="str">
+        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
+      </c>
+      <c r="M31">
+        <v>54</v>
       </c>
       <c r="N31" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:23:03</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P31" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="32">
@@ -1790,43 +1977,49 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" t="str">
-        <v>Employee_34</v>
+        <v>N/A</v>
       </c>
       <c r="E32" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F32" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G32" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H32" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I32" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="J32">
-        <v>53</v>
+        <v>Employee_31</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K32" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="L32" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M32" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L32" t="str">
+        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
+      </c>
+      <c r="M32">
+        <v>107</v>
       </c>
       <c r="N32" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:56:14</v>
+      </c>
+      <c r="O32" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P32" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="33">
@@ -1834,43 +2027,49 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="str">
-        <v>Employee_34</v>
+        <v>N/A</v>
       </c>
       <c r="E33" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F33" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G33" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H33" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I33" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="J33">
-        <v>53</v>
+        <v>Employee_33</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K33" t="str">
-        <v>2025-07-02 20:17:20</v>
-      </c>
-      <c r="L33" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L33" t="str">
+        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
+      </c>
+      <c r="M33">
+        <v>54</v>
+      </c>
+      <c r="N33" t="str">
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="O33" s="1">
         <v>45840</v>
       </c>
-      <c r="M33" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N33" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P33" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="34">
@@ -1878,43 +2077,49 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" t="str">
-        <v>Employee_36</v>
+        <v>N/A</v>
       </c>
       <c r="E34" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F34" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G34" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H34" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I34" t="str">
-        <v>Last working day - 30th June.</v>
-      </c>
-      <c r="J34">
-        <v>29</v>
+        <v>Employee_34</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K34" t="str">
-        <v>2025-06-30 17:00:00</v>
-      </c>
-      <c r="L34" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M34" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L34" t="str">
+        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="M34">
+        <v>54</v>
       </c>
       <c r="N34" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:52:38</v>
+      </c>
+      <c r="O34" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P34" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="35">
@@ -1922,43 +2127,49 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" t="str">
-        <v>Employee_39</v>
+        <v>N/A</v>
       </c>
       <c r="E35" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F35" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G35" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H35" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I35" t="str">
-        <v>Keico (projection) - (two and half months)</v>
-      </c>
-      <c r="J35">
-        <v>42</v>
+        <v>Employee_34</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K35" t="str">
-        <v>2025-06-25 15:45:00</v>
-      </c>
-      <c r="L35" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L35" t="str">
+        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="M35">
+        <v>54</v>
+      </c>
+      <c r="N35" t="str">
+        <v>2025-06-25 19:52:38</v>
+      </c>
+      <c r="O35" s="1">
         <v>45833</v>
       </c>
-      <c r="M35" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N35" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P35" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="36">
@@ -1966,43 +2177,49 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" t="str">
-        <v>Employee_39</v>
+        <v>N/A</v>
       </c>
       <c r="E36" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F36" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G36" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H36" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I36" t="str">
-        <v>Keico projection planning</v>
-      </c>
-      <c r="J36">
-        <v>25</v>
+        <v>Employee_36</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K36" t="str">
-        <v>2025-06-26 11:30:00</v>
-      </c>
-      <c r="L36" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M36" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L36" t="str">
+        <v xml:space="preserve">Last working day - 30th June. </v>
+      </c>
+      <c r="M36">
+        <v>30</v>
       </c>
       <c r="N36" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 17:07:34</v>
+      </c>
+      <c r="O36" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P36" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="37">
@@ -2010,43 +2227,49 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="str">
-        <v>Employee_40</v>
+        <v>N/A</v>
       </c>
       <c r="E37" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F37" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G37" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H37" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I37" t="str">
-        <v>Resigned. Will be supporting for 2 weeks during transition</v>
-      </c>
-      <c r="J37">
-        <v>58</v>
+        <v>Employee_39</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K37" t="str">
-        <v>2025-06-30 16:00:00</v>
-      </c>
-      <c r="L37" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M37" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Keico (projection) -  (two and half month’s bench)</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
       </c>
       <c r="N37" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:07:32</v>
+      </c>
+      <c r="O37" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P37" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="38">
@@ -2054,43 +2277,49 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" t="str">
-        <v>Employee_41</v>
+        <v>N/A</v>
       </c>
       <c r="E38" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F38" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G38" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>N/A</v>
       </c>
       <c r="H38" t="str">
-        <v>Mahaveer A.</v>
+        <v>N/A</v>
       </c>
       <c r="I38" t="str">
-        <v>Practice .. just release from MARS</v>
-      </c>
-      <c r="J38">
-        <v>34</v>
+        <v>Employee_39</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K38" t="str">
-        <v>2025-06-29 14:20:00</v>
-      </c>
-      <c r="L38" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M38" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Keico (projection) -  (two and half month’s bench)</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
       </c>
       <c r="N38" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:07:33</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P38" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="39">
@@ -2098,43 +2327,49 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H39" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Employee_39</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Managing - Work Wear, Gallagher, Pet Barn</v>
+      </c>
+      <c r="M39">
         <v>41</v>
       </c>
-      <c r="D39" t="str">
-        <v>Employee_41</v>
-      </c>
-      <c r="E39" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F39" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G39" t="str">
-        <v>Karthik Venkittu</v>
-      </c>
-      <c r="H39" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="I39" t="str">
-        <v>Offboarded on 30th June</v>
-      </c>
-      <c r="J39">
-        <v>23</v>
-      </c>
-      <c r="K39" t="str">
-        <v>2025-06-30 16:30:00</v>
-      </c>
-      <c r="L39" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M39" t="str">
-        <v>Active</v>
-      </c>
       <c r="N39" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:17:44</v>
+      </c>
+      <c r="O39" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P39" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="40">
@@ -2142,43 +2377,49 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="str">
-        <v>Employee_41</v>
+        <v>N/A</v>
       </c>
       <c r="E40" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F40" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Employee_40</v>
+      </c>
+      <c r="J40" t="str">
         <v>Karthik Venkittu</v>
       </c>
-      <c r="H40" t="str">
+      <c r="K40" t="str">
         <v>Karthik V.</v>
       </c>
-      <c r="I40" t="str">
-        <v>Final documentation handover</v>
-      </c>
-      <c r="J40">
-        <v>28</v>
-      </c>
-      <c r="K40" t="str">
-        <v>2025-06-30 16:45:00</v>
-      </c>
-      <c r="L40" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M40" t="str">
-        <v>Active</v>
+      <c r="L40" t="str">
+        <v>Resigned. Will be supporting for Sourav or VPG client while serving her notice period of 2 months. Date of Resignation is 25-Jun.</v>
+      </c>
+      <c r="M40">
+        <v>129</v>
       </c>
       <c r="N40" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:35:48</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P40" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="41">
@@ -2186,43 +2427,49 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="str">
-        <v>Employee_42</v>
+        <v>N/A</v>
       </c>
       <c r="E41" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F41" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G41" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H41" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I41" t="str">
-        <v>Managing - Work Wear, Gallagher, Pet Barn - Cost covered in the Margin</v>
-      </c>
-      <c r="J41">
-        <v>70</v>
+        <v>Employee_41</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K41" t="str">
-        <v>2025-06-25 13:30:00</v>
-      </c>
-      <c r="L41" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M41" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L41" t="str">
+        <v xml:space="preserve">Practice .. just release from MARS... </v>
+      </c>
+      <c r="M41">
+        <v>38</v>
       </c>
       <c r="N41" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:49:38</v>
+      </c>
+      <c r="O41" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P41" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="42">
@@ -2230,43 +2477,49 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="str">
-        <v>Employee_42</v>
+        <v>N/A</v>
       </c>
       <c r="E42" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F42" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G42" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H42" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I42" t="str">
-        <v>One and only React bench resource. (Planning to add 2 more)</v>
-      </c>
-      <c r="J42">
-        <v>59</v>
+        <v>Employee_41</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K42" t="str">
-        <v>2025-06-28 10:15:00</v>
-      </c>
-      <c r="L42" s="1">
-        <v>45836</v>
-      </c>
-      <c r="M42" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L42" t="str">
+        <v xml:space="preserve">Practice .. just release from MARS... </v>
+      </c>
+      <c r="M42">
+        <v>38</v>
       </c>
       <c r="N42" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:49:38</v>
+      </c>
+      <c r="O42" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P42" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="43">
@@ -2274,43 +2527,49 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" t="str">
-        <v>Employee_42</v>
+        <v>N/A</v>
       </c>
       <c r="E43" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F43" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G43" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H43" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I43" t="str">
-        <v>React development leadership role</v>
-      </c>
-      <c r="J43">
-        <v>33</v>
+        <v>Employee_41</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K43" t="str">
-        <v>2025-06-29 12:45:00</v>
-      </c>
-      <c r="L43" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M43" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Offboarded on 30th June</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
       </c>
       <c r="N43" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:43:05</v>
+      </c>
+      <c r="O43" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P43" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="44">
@@ -2318,43 +2577,49 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I44" t="str">
         <v>Employee_42</v>
       </c>
-      <c r="E44" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F44" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G44" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H44" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I44" t="str">
-        <v>Off boarded - 30-Jun-2025</v>
-      </c>
-      <c r="J44">
-        <v>25</v>
+      <c r="J44" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K44" t="str">
-        <v>2025-06-30 17:30:00</v>
-      </c>
-      <c r="L44" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M44" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
+      </c>
+      <c r="M44">
+        <v>41</v>
       </c>
       <c r="N44" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:52:59</v>
+      </c>
+      <c r="O44" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P44" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="45">
@@ -2362,43 +2627,49 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" t="str">
-        <v>Employee_44</v>
+        <v>N/A</v>
       </c>
       <c r="E45" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F45" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G45" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H45" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I45" t="str">
-        <v>One and only React bench resource. (Planning to add 2 more)</v>
-      </c>
-      <c r="J45">
-        <v>59</v>
+        <v>Employee_42</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K45" t="str">
-        <v>2025-06-28 11:30:00</v>
-      </c>
-      <c r="L45" s="1">
-        <v>45836</v>
-      </c>
-      <c r="M45" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
+      </c>
+      <c r="M45">
+        <v>41</v>
       </c>
       <c r="N45" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:52:59</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P45" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="46">
@@ -2406,43 +2677,49 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46" t="str">
-        <v>Employee_44</v>
+        <v>N/A</v>
       </c>
       <c r="E46" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F46" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G46" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H46" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I46" t="str">
-        <v>React specialist - team expansion planning</v>
-      </c>
-      <c r="J46">
-        <v>42</v>
+        <v>Employee_42</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K46" t="str">
-        <v>2025-06-29 13:20:00</v>
-      </c>
-      <c r="L46" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M46" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L46" t="str">
+        <v>One and only React bench resource. (Plan for Training)</v>
+      </c>
+      <c r="M46">
+        <v>54</v>
       </c>
       <c r="N46" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 17:54:43</v>
+      </c>
+      <c r="O46" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P46" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="47">
@@ -2450,43 +2727,49 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" t="str">
-        <v>Employee_45</v>
+        <v>N/A</v>
       </c>
       <c r="E47" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F47" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G47" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H47" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I47" t="str">
-        <v>Working on AI solutions and will be mapped to AI Training</v>
-      </c>
-      <c r="J47">
-        <v>57</v>
+        <v>Employee_42</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K47" t="str">
-        <v>2025-06-25 14:20:00</v>
-      </c>
-      <c r="L47" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M47" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Off boarded - 30-Jun-2025</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
       </c>
       <c r="N47" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:51:20</v>
+      </c>
+      <c r="O47" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P47" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="48">
@@ -2494,43 +2777,49 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" t="str">
-        <v>Employee_46</v>
+        <v>N/A</v>
       </c>
       <c r="E48" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F48" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G48" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H48" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I48" t="str">
-        <v>Last working day - 30th June.</v>
-      </c>
-      <c r="J48">
-        <v>29</v>
+        <v>Employee_43</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K48" t="str">
-        <v>2025-06-30 17:15:00</v>
-      </c>
-      <c r="L48" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M48" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="M48">
+        <v>69</v>
       </c>
       <c r="N48" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:24:11</v>
+      </c>
+      <c r="O48" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P48" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="49">
@@ -2538,43 +2827,49 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D49" t="str">
-        <v>Employee_47</v>
+        <v>N/A</v>
       </c>
       <c r="E49" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F49" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G49" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H49" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I49" t="str">
-        <v>one and only React bench resource. Will be 100% billable from JULY in Augusta</v>
-      </c>
-      <c r="J49">
-        <v>77</v>
+        <v>Employee_44</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K49" t="str">
-        <v>2025-06-25 16:45:00</v>
-      </c>
-      <c r="L49" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L49" t="str">
+        <v>One and only React bench resource. (Plan for Training)</v>
+      </c>
+      <c r="M49">
+        <v>54</v>
+      </c>
+      <c r="N49" t="str">
+        <v>2025-06-25 20:07:56</v>
+      </c>
+      <c r="O49" s="1">
         <v>45833</v>
       </c>
-      <c r="M49" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N49" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P49" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="50">
@@ -2582,43 +2877,49 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D50" t="str">
-        <v>Employee_48</v>
+        <v>N/A</v>
       </c>
       <c r="E50" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F50" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G50" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H50" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I50" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="J50">
-        <v>68</v>
+        <v>Employee_44</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K50" t="str">
-        <v>2025-06-25 19:56:10</v>
-      </c>
-      <c r="L50" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L50" t="str">
+        <v>One and only React bench resource. (Plan for Training)</v>
+      </c>
+      <c r="M50">
+        <v>54</v>
+      </c>
+      <c r="N50" t="str">
+        <v>2025-06-25 20:07:57</v>
+      </c>
+      <c r="O50" s="1">
         <v>45833</v>
       </c>
-      <c r="M50" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N50" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P50" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="51">
@@ -2626,43 +2927,49 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D51" t="str">
-        <v>Employee_48</v>
+        <v>N/A</v>
       </c>
       <c r="E51" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F51" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G51" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H51" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I51" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="J51">
-        <v>68</v>
+        <v>Employee_45</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K51" t="str">
-        <v>2025-07-02 20:22:55</v>
-      </c>
-      <c r="L51" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M51" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Working on AI solutions and will be mapped in MARS during 1st week of September</v>
+      </c>
+      <c r="M51">
+        <v>79</v>
       </c>
       <c r="N51" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:04:13</v>
+      </c>
+      <c r="O51" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P51" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="52">
@@ -2670,43 +2977,49 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="C52">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D52" t="str">
-        <v>Employee_48</v>
+        <v>N/A</v>
       </c>
       <c r="E52" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F52" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G52" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H52" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I52" t="str">
-        <v>She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process.</v>
-      </c>
-      <c r="J52">
-        <v>106</v>
+        <v>Employee_46</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K52" t="str">
-        <v>2025-07-03 12:56:23</v>
-      </c>
-      <c r="L52" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M52" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L52" t="str">
+        <v xml:space="preserve">Last working day - 30th June. </v>
+      </c>
+      <c r="M52">
+        <v>30</v>
       </c>
       <c r="N52" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 17:07:20</v>
+      </c>
+      <c r="O52" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P52" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="53">
@@ -2714,43 +3027,49 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="C53">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D53" t="str">
-        <v>Employee_49</v>
+        <v>N/A</v>
       </c>
       <c r="E53" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F53" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G53" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H53" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I53" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
-      </c>
-      <c r="J53">
-        <v>91</v>
+        <v>Employee_47</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K53" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="L53" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L53" t="str">
+        <v xml:space="preserve">one and only React bench resource. Will Train the internal team in React </v>
+      </c>
+      <c r="M53">
+        <v>73</v>
+      </c>
+      <c r="N53" t="str">
+        <v>2025-07-02 20:39:11</v>
+      </c>
+      <c r="O53" s="1">
         <v>45840</v>
       </c>
-      <c r="M53" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N53" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P53" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="54">
@@ -2758,43 +3077,49 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" t="str">
-        <v>Employee_49</v>
+        <v>N/A</v>
       </c>
       <c r="E54" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F54" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G54" t="str">
-        <v>Farhan Ahmed</v>
+        <v>N/A</v>
       </c>
       <c r="H54" t="str">
-        <v>Farhan A.</v>
+        <v>N/A</v>
       </c>
       <c r="I54" t="str">
-        <v>Test Comment</v>
-      </c>
-      <c r="J54">
-        <v>12</v>
+        <v>Employee_48</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K54" t="str">
-        <v>2025-07-03 10:30:00</v>
-      </c>
-      <c r="L54" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M54" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="M54">
+        <v>69</v>
       </c>
       <c r="N54" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:56:10</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P54" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="55">
@@ -2802,43 +3127,49 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C55">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" t="str">
-        <v>Employee_49</v>
+        <v>N/A</v>
       </c>
       <c r="E55" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F55" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G55" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H55" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I55" t="str">
-        <v>Test comment 2</v>
-      </c>
-      <c r="J55">
-        <v>14</v>
+        <v>Employee_48</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K55" t="str">
-        <v>2025-07-03 10:31:00</v>
-      </c>
-      <c r="L55" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M55" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="M55">
+        <v>69</v>
       </c>
       <c r="N55" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:56:10</v>
+      </c>
+      <c r="O55" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P55" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="56">
@@ -2846,43 +3177,49 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="C56">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" t="str">
-        <v>Employee_49</v>
+        <v>N/A</v>
       </c>
       <c r="E56" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F56" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G56" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>N/A</v>
       </c>
       <c r="H56" t="str">
-        <v>Muhammad Rehman S.</v>
+        <v>N/A</v>
       </c>
       <c r="I56" t="str">
-        <v>This is 3rd test comments added by Rehman</v>
-      </c>
-      <c r="J56">
-        <v>41</v>
+        <v>Employee_48</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K56" t="str">
-        <v>2025-07-03 10:32:00</v>
-      </c>
-      <c r="L56" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M56" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="M56">
+        <v>69</v>
       </c>
       <c r="N56" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:22:55</v>
+      </c>
+      <c r="O56" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P56" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="57">
@@ -2890,43 +3227,49 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>146</v>
+        <v>314</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" t="str">
-        <v>Employee_49</v>
+        <v>N/A</v>
       </c>
       <c r="E57" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F57" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G57" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>N/A</v>
       </c>
       <c r="H57" t="str">
-        <v>Muhammad Rehman S.</v>
+        <v>N/A</v>
       </c>
       <c r="I57" t="str">
-        <v>This is 4th test comments added by Rehman</v>
-      </c>
-      <c r="J57">
-        <v>41</v>
+        <v>Employee_48</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K57" t="str">
-        <v>2025-07-03 10:33:00</v>
-      </c>
-      <c r="L57" s="1">
+        <v>Karthik V.</v>
+      </c>
+      <c r="L57" t="str">
+        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
+      </c>
+      <c r="M57">
+        <v>107</v>
+      </c>
+      <c r="N57" t="str">
+        <v>2025-07-03 12:56:23</v>
+      </c>
+      <c r="O57" s="1">
         <v>45841</v>
       </c>
-      <c r="M57" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N57" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P57" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="58">
@@ -2934,43 +3277,49 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="C58">
         <v>49</v>
       </c>
       <c r="D58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H58" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I58" t="str">
         <v>Employee_49</v>
       </c>
-      <c r="E58" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F58" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G58" t="str">
-        <v>Muhammad Rehman Shahid</v>
-      </c>
-      <c r="H58" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="I58" t="str">
-        <v>This is 5th test comments added by Rehman</v>
-      </c>
-      <c r="J58">
-        <v>41</v>
+      <c r="J58" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K58" t="str">
-        <v>2025-07-03 10:34:00</v>
-      </c>
-      <c r="L58" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M58" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L58" t="str">
+        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
+      </c>
+      <c r="M58">
+        <v>93</v>
       </c>
       <c r="N58" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:42:31</v>
+      </c>
+      <c r="O58" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P58" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="59">
@@ -2978,43 +3327,49 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="C59">
         <v>49</v>
       </c>
       <c r="D59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H59" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I59" t="str">
         <v>Employee_49</v>
       </c>
-      <c r="E59" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F59" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G59" t="str">
-        <v>Muhammad Rehman Shahid</v>
-      </c>
-      <c r="H59" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="I59" t="str">
-        <v>This is 6th test comments added by Rehman</v>
-      </c>
-      <c r="J59">
-        <v>41</v>
+      <c r="J59" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K59" t="str">
-        <v>2025-07-03 10:35:00</v>
-      </c>
-      <c r="L59" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M59" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L59" t="str">
+        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
+      </c>
+      <c r="M59">
+        <v>93</v>
       </c>
       <c r="N59" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:42:31</v>
+      </c>
+      <c r="O59" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P59" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="60">
@@ -3022,43 +3377,49 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="C60">
         <v>49</v>
       </c>
       <c r="D60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I60" t="str">
         <v>Employee_49</v>
       </c>
-      <c r="E60" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F60" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G60" t="str">
-        <v>Muhammad Rehman Shahid</v>
-      </c>
-      <c r="H60" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="I60" t="str">
-        <v>This is 7th test comments added by Rehman</v>
-      </c>
-      <c r="J60">
-        <v>41</v>
+      <c r="J60" t="str">
+        <v>Farhan Ahmed</v>
       </c>
       <c r="K60" t="str">
-        <v>2025-07-03 10:36:00</v>
-      </c>
-      <c r="L60" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M60" t="str">
-        <v>Active</v>
+        <v>Farhan A.</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Test Comment</v>
+      </c>
+      <c r="M60">
+        <v>12</v>
       </c>
       <c r="N60" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:36:48</v>
+      </c>
+      <c r="O60" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P60" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="61">
@@ -3066,43 +3427,49 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="str">
-        <v>Employee_50</v>
+        <v>N/A</v>
       </c>
       <c r="E61" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F61" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G61" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H61" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I61" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="J61">
-        <v>78</v>
+        <v>Employee_49</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Farhan Ahmed</v>
       </c>
       <c r="K61" t="str">
-        <v>2025-07-03 13:24:52</v>
-      </c>
-      <c r="L61" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M61" t="str">
-        <v>Active</v>
+        <v>Farhan A.</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Test Comment</v>
+      </c>
+      <c r="M61">
+        <v>12</v>
       </c>
       <c r="N61" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:36:49</v>
+      </c>
+      <c r="O61" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P61" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="62">
@@ -3110,43 +3477,49 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="C62">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D62" t="str">
-        <v>Employee_52</v>
+        <v>N/A</v>
       </c>
       <c r="E62" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F62" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G62" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H62" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I62" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
-      </c>
-      <c r="J62">
-        <v>51</v>
+        <v>Employee_49</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Farhan Ahmed</v>
       </c>
       <c r="K62" t="str">
-        <v>2025-07-03 09:30:00</v>
-      </c>
-      <c r="L62" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M62" t="str">
-        <v>Active</v>
+        <v>Farhan A.</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Test comment 2</v>
+      </c>
+      <c r="M62">
+        <v>14</v>
       </c>
       <c r="N62" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:37:05</v>
+      </c>
+      <c r="O62" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P62" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="63">
@@ -3154,43 +3527,49 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="C63">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D63" t="str">
-        <v>Employee_52</v>
+        <v>N/A</v>
       </c>
       <c r="E63" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F63" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G63" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H63" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I63" t="str">
-        <v>JE Dunn ongoing maintenance support</v>
-      </c>
-      <c r="J63">
-        <v>35</v>
+        <v>Employee_49</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Farhan Ahmed</v>
       </c>
       <c r="K63" t="str">
-        <v>2025-07-04 10:15:00</v>
-      </c>
-      <c r="L63" s="1">
-        <v>45842</v>
-      </c>
-      <c r="M63" t="str">
-        <v>Active</v>
+        <v>Farhan A.</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Test comment 2</v>
+      </c>
+      <c r="M63">
+        <v>14</v>
       </c>
       <c r="N63" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:37:06</v>
+      </c>
+      <c r="O63" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P63" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="64">
@@ -3198,43 +3577,49 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D64" t="str">
-        <v>Employee_53</v>
+        <v>N/A</v>
       </c>
       <c r="E64" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F64" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G64" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H64" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I64" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
-      </c>
-      <c r="J64">
-        <v>51</v>
+        <v>Employee_49</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="K64" t="str">
-        <v>2025-07-03 09:45:00</v>
-      </c>
-      <c r="L64" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M64" t="str">
-        <v>Active</v>
+        <v>Muhammad Rehman S.</v>
+      </c>
+      <c r="L64" t="str">
+        <v>This is 3rd test comments added by Rehman</v>
+      </c>
+      <c r="M64">
+        <v>41</v>
       </c>
       <c r="N64" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:38:39</v>
+      </c>
+      <c r="O64" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P64" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="65">
@@ -3242,43 +3627,49 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D65" t="str">
-        <v>Employee_55</v>
+        <v>N/A</v>
       </c>
       <c r="E65" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F65" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G65" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>N/A</v>
       </c>
       <c r="H65" t="str">
-        <v>Mahaveer A.</v>
+        <v>N/A</v>
       </c>
       <c r="I65" t="str">
-        <v>Kids delivery</v>
-      </c>
-      <c r="J65">
-        <v>13</v>
+        <v>Employee_49</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="K65" t="str">
-        <v>2025-07-02 14:30:00</v>
-      </c>
-      <c r="L65" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M65" t="str">
-        <v>Active</v>
+        <v>Muhammad Rehman S.</v>
+      </c>
+      <c r="L65" t="str">
+        <v>This is 3rd test comments added by Rehman</v>
+      </c>
+      <c r="M65">
+        <v>41</v>
       </c>
       <c r="N65" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-26 15:38:40</v>
+      </c>
+      <c r="O65" s="1">
+        <v>45834</v>
+      </c>
+      <c r="P65" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="66">
@@ -3286,43 +3677,49 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D66" t="str">
-        <v>Employee_55</v>
+        <v>N/A</v>
       </c>
       <c r="E66" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F66" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G66" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>N/A</v>
       </c>
       <c r="H66" t="str">
-        <v>Mahaveer A.</v>
+        <v>N/A</v>
       </c>
       <c r="I66" t="str">
-        <v>Kids delivery - ongoing project</v>
-      </c>
-      <c r="J66">
-        <v>31</v>
+        <v>Employee_50</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K66" t="str">
-        <v>2025-07-02 14:31:00</v>
-      </c>
-      <c r="L66" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M66" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="M66">
+        <v>79</v>
       </c>
       <c r="N66" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:24:52</v>
+      </c>
+      <c r="O66" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P66" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="67">
@@ -3330,43 +3727,49 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="C67">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D67" t="str">
-        <v>Employee_57</v>
+        <v>N/A</v>
       </c>
       <c r="E67" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F67" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G67" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H67" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I67" t="str">
-        <v>He is currently working in maintenance and support - From 3rd July</v>
-      </c>
-      <c r="J67">
-        <v>66</v>
+        <v>Employee_52</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K67" t="str">
-        <v>2025-07-03 10:30:00</v>
-      </c>
-      <c r="L67" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M67" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L67" t="str">
+        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
+      </c>
+      <c r="M67">
+        <v>52</v>
       </c>
       <c r="N67" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:08:16</v>
+      </c>
+      <c r="O67" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P67" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="68">
@@ -3374,43 +3777,49 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="C68">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D68" t="str">
-        <v>Employee_57</v>
+        <v>N/A</v>
       </c>
       <c r="E68" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F68" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G68" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H68" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I68" t="str">
-        <v>Maintenance support role continuation</v>
-      </c>
-      <c r="J68">
-        <v>37</v>
+        <v>Employee_52</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K68" t="str">
-        <v>2025-07-04 11:20:00</v>
-      </c>
-      <c r="L68" s="1">
-        <v>45842</v>
-      </c>
-      <c r="M68" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L68" t="str">
+        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
+      </c>
+      <c r="M68">
+        <v>52</v>
       </c>
       <c r="N68" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:08:16</v>
+      </c>
+      <c r="O68" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P68" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="69">
@@ -3418,43 +3827,49 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="C69">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D69" t="str">
-        <v>Employee_58</v>
+        <v>N/A</v>
       </c>
       <c r="E69" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F69" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G69" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H69" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I69" t="str">
-        <v>He is working in maintenance - From 3rd July</v>
-      </c>
-      <c r="J69">
-        <v>44</v>
+        <v>Employee_53</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K69" t="str">
-        <v>2025-07-03 11:00:00</v>
-      </c>
-      <c r="L69" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M69" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L69" t="str">
+        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
+      </c>
+      <c r="M69">
+        <v>52</v>
       </c>
       <c r="N69" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:39:36</v>
+      </c>
+      <c r="O69" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P69" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="70">
@@ -3462,43 +3877,49 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="C70">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D70" t="str">
-        <v>Employee_60</v>
+        <v>N/A</v>
       </c>
       <c r="E70" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F70" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G70" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H70" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I70" t="str">
-        <v>Moved to Agriserv project effective from 1st July</v>
-      </c>
-      <c r="J70">
-        <v>49</v>
+        <v>Employee_55</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K70" t="str">
-        <v>2025-07-01 14:30:00</v>
-      </c>
-      <c r="L70" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M70" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Kids delivery</v>
+      </c>
+      <c r="M70">
+        <v>13</v>
       </c>
       <c r="N70" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:47:45</v>
+      </c>
+      <c r="O70" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P70" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="71">
@@ -3506,43 +3927,49 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>233</v>
+        <v>328</v>
       </c>
       <c r="C71">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D71" t="str">
-        <v>Employee_61</v>
+        <v>N/A</v>
       </c>
       <c r="E71" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F71" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G71" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H71" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I71" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
-      </c>
-      <c r="J71">
-        <v>52</v>
+        <v>Employee_55</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K71" t="str">
-        <v>2025-07-01 15:45:00</v>
-      </c>
-      <c r="L71" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M71" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Kids delivery</v>
+      </c>
+      <c r="M71">
+        <v>13</v>
       </c>
       <c r="N71" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:47:45</v>
+      </c>
+      <c r="O71" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P71" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="72">
@@ -3550,43 +3977,49 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D72" t="str">
-        <v>Employee_61</v>
+        <v>N/A</v>
       </c>
       <c r="E72" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F72" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G72" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H72" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I72" t="str">
-        <v>KO Requirements analysis ongoing</v>
-      </c>
-      <c r="J72">
-        <v>32</v>
+        <v>Employee_57</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K72" t="str">
-        <v>2025-07-02 16:20:00</v>
-      </c>
-      <c r="L72" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M72" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L72" t="str">
+        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
+      </c>
+      <c r="M72">
+        <v>86</v>
       </c>
       <c r="N72" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:03:58</v>
+      </c>
+      <c r="O72" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P72" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="73">
@@ -3594,43 +4027,49 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="C73">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D73" t="str">
-        <v>Employee_63</v>
+        <v>N/A</v>
       </c>
       <c r="E73" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F73" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G73" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H73" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I73" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
-      </c>
-      <c r="J73">
-        <v>52</v>
+        <v>Employee_57</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K73" t="str">
-        <v>2025-07-01 16:00:00</v>
-      </c>
-      <c r="L73" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M73" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L73" t="str">
+        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
+      </c>
+      <c r="M73">
+        <v>86</v>
       </c>
       <c r="N73" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:03:59</v>
+      </c>
+      <c r="O73" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P73" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="74">
@@ -3638,43 +4077,49 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="C74">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D74" t="str">
-        <v>Employee_68</v>
+        <v>N/A</v>
       </c>
       <c r="E74" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F74" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G74" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H74" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I74" t="str">
-        <v>He handles Proposal Management for entire DC BU</v>
-      </c>
-      <c r="J74">
-        <v>47</v>
+        <v>Employee_58</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K74" t="str">
-        <v>2025-06-25 17:30:00</v>
-      </c>
-      <c r="L74" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M74" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L74" t="str">
+        <v xml:space="preserve">He is working in maintance - From 3rd July he will be billable </v>
+      </c>
+      <c r="M74">
+        <v>63</v>
       </c>
       <c r="N74" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:27:11</v>
+      </c>
+      <c r="O74" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P74" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="75">
@@ -3682,43 +4127,49 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D75" t="str">
-        <v>Employee_70</v>
+        <v>N/A</v>
       </c>
       <c r="E75" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F75" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G75" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H75" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I75" t="str">
-        <v>Managing MENA Bev and JBS accounts, actively involved in operational coordination</v>
-      </c>
-      <c r="J75">
-        <v>81</v>
+        <v>Employee_60</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K75" t="str">
-        <v>2025-06-25 12:30:00</v>
-      </c>
-      <c r="L75" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M75" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Moved to Agriserv project effective from 3rd July</v>
+      </c>
+      <c r="M75">
+        <v>49</v>
       </c>
       <c r="N75" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:39:31</v>
+      </c>
+      <c r="O75" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P75" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="76">
@@ -3726,43 +4177,49 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="C76">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D76" t="str">
-        <v>Employee_70</v>
+        <v>N/A</v>
       </c>
       <c r="E76" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F76" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G76" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H76" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I76" t="str">
-        <v>JBS Pakistan operations management - ongoing project coordination</v>
-      </c>
-      <c r="J76">
-        <v>65</v>
+        <v>Employee_61</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K76" t="str">
-        <v>2025-06-26 14:45:00</v>
-      </c>
-      <c r="L76" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M76" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
+      </c>
+      <c r="M76">
+        <v>83</v>
       </c>
       <c r="N76" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:08:38</v>
+      </c>
+      <c r="O76" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P76" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="77">
@@ -3770,43 +4227,49 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="C77">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D77" t="str">
-        <v>Employee_71</v>
+        <v>N/A</v>
       </c>
       <c r="E77" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F77" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G77" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H77" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I77" t="str">
-        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
-      </c>
-      <c r="J77">
-        <v>73</v>
+        <v>Employee_61</v>
+      </c>
+      <c r="J77" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K77" t="str">
-        <v>2025-06-25 18:30:00</v>
-      </c>
-      <c r="L77" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
+      </c>
+      <c r="M77">
+        <v>83</v>
+      </c>
+      <c r="N77" t="str">
+        <v>2025-06-25 20:08:38</v>
+      </c>
+      <c r="O77" s="1">
         <v>45833</v>
       </c>
-      <c r="M77" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N77" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P77" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="78">
@@ -3814,43 +4277,49 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="C78">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D78" t="str">
-        <v>Employee_71</v>
+        <v>N/A</v>
       </c>
       <c r="E78" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F78" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G78" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H78" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I78" t="str">
-        <v>Transition planning for Arcelik projects</v>
-      </c>
-      <c r="J78">
-        <v>40</v>
+        <v>Employee_63</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K78" t="str">
-        <v>2025-06-29 16:45:00</v>
-      </c>
-      <c r="L78" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M78" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
+      </c>
+      <c r="M78">
+        <v>83</v>
       </c>
       <c r="N78" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:40:00</v>
+      </c>
+      <c r="O78" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P78" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="79">
@@ -3858,43 +4327,49 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="C79">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D79" t="str">
-        <v>Employee_71</v>
+        <v>N/A</v>
       </c>
       <c r="E79" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F79" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G79" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H79" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I79" t="str">
-        <v>Last working day - 30th June.</v>
-      </c>
-      <c r="J79">
-        <v>29</v>
+        <v>Employee_68</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K79" t="str">
-        <v>2025-06-30 18:00:00</v>
-      </c>
-      <c r="L79" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M79" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L79" t="str">
+        <v xml:space="preserve">He handles Proposal Management for entire BU and will be a non billable resource.  </v>
+      </c>
+      <c r="M79">
+        <v>83</v>
       </c>
       <c r="N79" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:33:37</v>
+      </c>
+      <c r="O79" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P79" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="80">
@@ -3902,43 +4377,49 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="C80">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D80" t="str">
-        <v>Employee_73</v>
+        <v>N/A</v>
       </c>
       <c r="E80" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F80" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G80" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>N/A</v>
       </c>
       <c r="H80" t="str">
-        <v>Mahaveer A.</v>
+        <v>N/A</v>
       </c>
       <c r="I80" t="str">
-        <v>from June mapped into August Shopify Plus</v>
-      </c>
-      <c r="J80">
-        <v>41</v>
+        <v>Employee_70</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K80" t="str">
-        <v>2025-06-30 17:45:00</v>
-      </c>
-      <c r="L80" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M80" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—currently covered under MENA Bev.</v>
+      </c>
+      <c r="M80">
+        <v>132</v>
       </c>
       <c r="N80" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:58:06</v>
+      </c>
+      <c r="O80" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P80" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="81">
@@ -3946,43 +4427,49 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="C81">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D81" t="str">
-        <v>Employee_73</v>
+        <v>N/A</v>
       </c>
       <c r="E81" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F81" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G81" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H81" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I81" t="str">
-        <v>Shopify Plus migration planning</v>
-      </c>
-      <c r="J81">
-        <v>31</v>
+        <v>Employee_70</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K81" t="str">
-        <v>2025-07-01 14:20:00</v>
-      </c>
-      <c r="L81" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M81" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L81" t="str">
+        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—currently covered under MENA Bev.</v>
+      </c>
+      <c r="M81">
+        <v>132</v>
       </c>
       <c r="N81" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:58:06</v>
+      </c>
+      <c r="O81" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P81" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="82">
@@ -3990,43 +4477,49 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="C82">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D82" t="str">
-        <v>Employee_73</v>
+        <v>N/A</v>
       </c>
       <c r="E82" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F82" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G82" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H82" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I82" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
-      </c>
-      <c r="J82">
-        <v>69</v>
+        <v>Employee_71</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K82" t="str">
-        <v>2025-07-25 16:30:00</v>
-      </c>
-      <c r="L82" s="1">
-        <v>45863</v>
-      </c>
-      <c r="M82" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L82" t="str">
+        <v xml:space="preserve">Last working day - 30th June. </v>
+      </c>
+      <c r="M82">
+        <v>30</v>
       </c>
       <c r="N82" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-30 17:07:52</v>
+      </c>
+      <c r="O82" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P82" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="83">
@@ -4034,43 +4527,49 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D83" t="str">
-        <v>Employee_74</v>
+        <v>N/A</v>
       </c>
       <c r="E83" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F83" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G83" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H83" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I83" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
-      </c>
-      <c r="J83">
-        <v>91</v>
+        <v>Employee_71</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K83" t="str">
-        <v>2025-07-02 19:30:00</v>
-      </c>
-      <c r="L83" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L83" t="str">
+        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
+      </c>
+      <c r="M83">
+        <v>75</v>
+      </c>
+      <c r="N83" t="str">
+        <v>2025-07-02 20:23:53</v>
+      </c>
+      <c r="O83" s="1">
         <v>45840</v>
       </c>
-      <c r="M83" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N83" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P83" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="84">
@@ -4078,43 +4577,49 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c r="C84">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D84" t="str">
-        <v>Employee_74</v>
+        <v>N/A</v>
       </c>
       <c r="E84" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F84" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G84" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H84" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I84" t="str">
-        <v>Optimizely training preparation</v>
-      </c>
-      <c r="J84">
-        <v>31</v>
+        <v>Employee_71</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K84" t="str">
-        <v>2025-07-03 10:45:00</v>
-      </c>
-      <c r="L84" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L84" t="str">
+        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
+      </c>
+      <c r="M84">
+        <v>75</v>
+      </c>
+      <c r="N84" t="str">
+        <v>2025-07-03 13:26:09</v>
+      </c>
+      <c r="O84" s="1">
         <v>45841</v>
       </c>
-      <c r="M84" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N84" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P84" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="85">
@@ -4122,43 +4627,49 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="C85">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D85" t="str">
-        <v>Employee_75</v>
+        <v>N/A</v>
       </c>
       <c r="E85" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F85" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G85" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H85" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I85" t="str">
-        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
-      </c>
-      <c r="J85">
-        <v>73</v>
+        <v>Employee_73</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K85" t="str">
-        <v>2025-06-25 19:56:10</v>
-      </c>
-      <c r="L85" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M85" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L85" t="str">
+        <v>from June mapped into August Shopify Plugin</v>
+      </c>
+      <c r="M85">
+        <v>43</v>
       </c>
       <c r="N85" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:49:00</v>
+      </c>
+      <c r="O85" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P85" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="86">
@@ -4166,43 +4677,49 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="C86">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D86" t="str">
-        <v>Employee_75</v>
+        <v>N/A</v>
       </c>
       <c r="E86" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F86" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G86" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H86" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I86" t="str">
-        <v>Arcelik project cost margin coverage analysis</v>
-      </c>
-      <c r="J86">
-        <v>45</v>
+        <v>Employee_73</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K86" t="str">
-        <v>2025-06-28 11:30:00</v>
-      </c>
-      <c r="L86" s="1">
-        <v>45836</v>
-      </c>
-      <c r="M86" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L86" t="str">
+        <v>from June mapped into August Shopify Plugin</v>
+      </c>
+      <c r="M86">
+        <v>43</v>
       </c>
       <c r="N86" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:49:00</v>
+      </c>
+      <c r="O86" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P86" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="87">
@@ -4210,43 +4727,49 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="C87">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D87" t="str">
-        <v>Employee_75</v>
+        <v>N/A</v>
       </c>
       <c r="E87" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F87" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G87" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H87" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I87" t="str">
-        <v>Dollance integration planning phase</v>
-      </c>
-      <c r="J87">
-        <v>35</v>
+        <v>Employee_73</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K87" t="str">
-        <v>2025-06-29 13:15:00</v>
-      </c>
-      <c r="L87" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M87" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L87" t="str">
+        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
+      </c>
+      <c r="M87">
+        <v>55</v>
       </c>
       <c r="N87" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:28:51</v>
+      </c>
+      <c r="O87" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P87" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="88">
@@ -4254,43 +4777,49 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="C88">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" t="str">
-        <v>Employee_75</v>
+        <v>N/A</v>
       </c>
       <c r="E88" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F88" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G88" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>N/A</v>
       </c>
       <c r="H88" t="str">
-        <v>Mahaveer A.</v>
+        <v>N/A</v>
       </c>
       <c r="I88" t="str">
-        <v>Released from Wildfork and can't find another opportunity for his skills</v>
-      </c>
-      <c r="J88">
-        <v>72</v>
+        <v>Employee_74</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K88" t="str">
-        <v>2025-07-01 16:20:00</v>
-      </c>
-      <c r="L88" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M88" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L88" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case - Wild fork use case</v>
+      </c>
+      <c r="M88">
+        <v>130</v>
       </c>
       <c r="N88" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:44:15</v>
+      </c>
+      <c r="O88" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P88" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="89">
@@ -4298,43 +4827,49 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="C89">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D89" t="str">
-        <v>Employee_76</v>
+        <v>N/A</v>
       </c>
       <c r="E89" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F89" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G89" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H89" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I89" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
-      </c>
-      <c r="J89">
-        <v>69</v>
+        <v>Employee_74</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K89" t="str">
-        <v>2025-07-25 17:00:00</v>
-      </c>
-      <c r="L89" s="1">
-        <v>45863</v>
-      </c>
-      <c r="M89" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L89" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case - Wild fork use case</v>
+      </c>
+      <c r="M89">
+        <v>130</v>
       </c>
       <c r="N89" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:44:15</v>
+      </c>
+      <c r="O89" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P89" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="90">
@@ -4342,43 +4877,49 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="C90">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D90" t="str">
-        <v>Employee_80</v>
+        <v>N/A</v>
       </c>
       <c r="E90" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F90" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G90" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H90" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I90" t="str">
-        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
-      </c>
-      <c r="J90">
-        <v>86</v>
+        <v>Employee_75</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K90" t="str">
-        <v>2025-06-25 15:30:00</v>
-      </c>
-      <c r="L90" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M90" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried one month for AI training but she cant able to pickup.</v>
+      </c>
+      <c r="M90">
+        <v>153</v>
       </c>
       <c r="N90" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:53:03</v>
+      </c>
+      <c r="O90" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P90" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="91">
@@ -4386,43 +4927,49 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="C91">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D91" t="str">
-        <v>Employee_80</v>
+        <v>N/A</v>
       </c>
       <c r="E91" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F91" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G91" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H91" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I91" t="str">
-        <v>Petbarn project management - ongoing training phase</v>
-      </c>
-      <c r="J91">
-        <v>51</v>
+        <v>Employee_75</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="K91" t="str">
-        <v>2025-06-28 14:20:00</v>
-      </c>
-      <c r="L91" s="1">
-        <v>45836</v>
-      </c>
-      <c r="M91" t="str">
-        <v>Active</v>
+        <v>Mahaveer A.</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried one month for AI training but she cant able to pickup.</v>
+      </c>
+      <c r="M91">
+        <v>153</v>
       </c>
       <c r="N91" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-23 18:53:03</v>
+      </c>
+      <c r="O91" s="1">
+        <v>45831</v>
+      </c>
+      <c r="P91" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="92">
@@ -4430,43 +4977,49 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D92" t="str">
-        <v>Employee_80</v>
+        <v>N/A</v>
       </c>
       <c r="E92" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F92" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G92" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H92" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I92" t="str">
-        <v>Shopify integration development in progress</v>
-      </c>
-      <c r="J92">
-        <v>43</v>
+        <v>Employee_75</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K92" t="str">
-        <v>2025-06-30 16:15:00</v>
-      </c>
-      <c r="L92" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M92" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L92" t="str">
+        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
+      </c>
+      <c r="M92">
+        <v>75</v>
       </c>
       <c r="N92" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:58:34</v>
+      </c>
+      <c r="O92" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P92" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="93">
@@ -4474,43 +5027,49 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="C93">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D93" t="str">
-        <v>Employee_80</v>
+        <v>N/A</v>
       </c>
       <c r="E93" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F93" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G93" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H93" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I93" t="str">
-        <v>Barns and Noble project coordination</v>
-      </c>
-      <c r="J93">
-        <v>36</v>
+        <v>Employee_75</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K93" t="str">
-        <v>2025-07-01 10:45:00</v>
-      </c>
-      <c r="L93" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M93" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L93" t="str">
+        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
+      </c>
+      <c r="M93">
+        <v>75</v>
       </c>
       <c r="N93" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:58:34</v>
+      </c>
+      <c r="O93" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P93" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="94">
@@ -4518,43 +5077,49 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="C94">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D94" t="str">
-        <v>Employee_80</v>
+        <v>N/A</v>
       </c>
       <c r="E94" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F94" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G94" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H94" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I94" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="J94">
-        <v>78</v>
+        <v>Employee_76</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K94" t="str">
-        <v>2025-07-03 13:24:52</v>
-      </c>
-      <c r="L94" s="1">
-        <v>45841</v>
-      </c>
-      <c r="M94" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
+      </c>
+      <c r="M94">
+        <v>55</v>
       </c>
       <c r="N94" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:27:34</v>
+      </c>
+      <c r="O94" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P94" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="95">
@@ -4562,43 +5127,49 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="C95">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D95" t="str">
-        <v>Employee_84</v>
+        <v>N/A</v>
       </c>
       <c r="E95" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F95" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G95" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H95" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I95" t="str">
-        <v>Shadow resource as per the SOW - Agreed with Sanjay</v>
-      </c>
-      <c r="J95">
-        <v>51</v>
+        <v>Employee_80</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K95" t="str">
-        <v>2025-06-25 19:15:00</v>
-      </c>
-      <c r="L95" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
+      </c>
+      <c r="M95">
+        <v>86</v>
+      </c>
+      <c r="N95" t="str">
+        <v>2025-06-25 19:39:31</v>
+      </c>
+      <c r="O95" s="1">
         <v>45833</v>
       </c>
-      <c r="M95" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N95" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P95" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="96">
@@ -4606,43 +5177,49 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="C96">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D96" t="str">
-        <v>Employee_84</v>
+        <v>N/A</v>
       </c>
       <c r="E96" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F96" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G96" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H96" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I96" t="str">
-        <v>SOW compliance and shadow resource coordination</v>
-      </c>
-      <c r="J96">
-        <v>47</v>
+        <v>Employee_80</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K96" t="str">
-        <v>2025-06-26 15:45:00</v>
-      </c>
-      <c r="L96" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M96" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
+      </c>
+      <c r="M96">
+        <v>86</v>
       </c>
       <c r="N96" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:39:31</v>
+      </c>
+      <c r="O96" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P96" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="97">
@@ -4650,43 +5227,49 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="C97">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D97" t="str">
-        <v>Employee_94</v>
+        <v>N/A</v>
       </c>
       <c r="E97" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F97" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G97" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H97" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I97" t="str">
-        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support</v>
-      </c>
-      <c r="J97">
-        <v>85</v>
+        <v>Employee_80</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K97" t="str">
-        <v>2025-07-02 19:20:00</v>
-      </c>
-      <c r="L97" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M97" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="M97">
+        <v>79</v>
       </c>
       <c r="N97" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:56:23</v>
+      </c>
+      <c r="O97" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P97" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="98">
@@ -4694,43 +5277,49 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D98" t="str">
-        <v>Employee_97</v>
+        <v>N/A</v>
       </c>
       <c r="E98" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F98" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G98" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H98" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I98" t="str">
-        <v>25% Billable in Augusta, From July we are planning to make him 75% billable</v>
-      </c>
-      <c r="J98">
-        <v>75</v>
+        <v>Employee_80</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K98" t="str">
-        <v>2025-06-25 20:30:00</v>
-      </c>
-      <c r="L98" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="M98">
+        <v>79</v>
+      </c>
+      <c r="N98" t="str">
+        <v>2025-06-25 19:56:23</v>
+      </c>
+      <c r="O98" s="1">
         <v>45833</v>
       </c>
-      <c r="M98" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N98" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P98" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="99">
@@ -4738,43 +5327,49 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D99" t="str">
-        <v>Employee_97</v>
+        <v>N/A</v>
       </c>
       <c r="E99" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F99" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G99" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H99" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I99" t="str">
-        <v>Augusta project billing escalation plan</v>
-      </c>
-      <c r="J99">
-        <v>39</v>
+        <v>Employee_80</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K99" t="str">
-        <v>2025-06-26 16:20:00</v>
-      </c>
-      <c r="L99" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M99" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="M99">
+        <v>79</v>
       </c>
       <c r="N99" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 20:23:15</v>
+      </c>
+      <c r="O99" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P99" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="100">
@@ -4782,43 +5377,49 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="C100">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D100" t="str">
-        <v>Employee_97</v>
+        <v>N/A</v>
       </c>
       <c r="E100" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F100" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G100" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H100" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I100" t="str">
-        <v>Billable percentage optimization strategy</v>
-      </c>
-      <c r="J100">
-        <v>41</v>
+        <v>Employee_84</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K100" t="str">
-        <v>2025-06-27 14:45:00</v>
-      </c>
-      <c r="L100" s="1">
-        <v>45835</v>
-      </c>
-      <c r="M100" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L100" t="str">
+        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
+      </c>
+      <c r="M100">
+        <v>63</v>
       </c>
       <c r="N100" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:11:13</v>
+      </c>
+      <c r="O100" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P100" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="101">
@@ -4826,43 +5427,49 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="C101">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D101" t="str">
-        <v>Employee_98</v>
+        <v>N/A</v>
       </c>
       <c r="E101" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F101" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G101" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H101" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I101" t="str">
-        <v>Training on SAP S4 Hana - Back up Bench resource for SAP S4 Hana</v>
-      </c>
-      <c r="J101">
-        <v>64</v>
+        <v>Employee_84</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K101" t="str">
-        <v>2025-06-25 14:30:00</v>
-      </c>
-      <c r="L101" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L101" t="str">
+        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
+      </c>
+      <c r="M101">
+        <v>63</v>
+      </c>
+      <c r="N101" t="str">
+        <v>2025-06-25 20:11:13</v>
+      </c>
+      <c r="O101" s="1">
         <v>45833</v>
       </c>
-      <c r="M101" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N101" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P101" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="102">
@@ -4870,43 +5477,49 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="C102">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D102" t="str">
-        <v>Employee_98</v>
+        <v>N/A</v>
       </c>
       <c r="E102" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F102" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G102" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H102" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I102" t="str">
-        <v>AI training program - Machine Learning fundamentals</v>
-      </c>
-      <c r="J102">
-        <v>51</v>
+        <v>Employee_94</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Karthik Venkittu</v>
       </c>
       <c r="K102" t="str">
-        <v>2025-06-26 09:15:00</v>
-      </c>
-      <c r="L102" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M102" t="str">
-        <v>Active</v>
+        <v>Karthik V.</v>
+      </c>
+      <c r="L102" t="str">
+        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support. He is part of the signed SOW.</v>
+      </c>
+      <c r="M102">
+        <v>116</v>
       </c>
       <c r="N102" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 12:31:52</v>
+      </c>
+      <c r="O102" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P102" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="103">
@@ -4914,43 +5527,49 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="C103">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" t="str">
-        <v>Employee_98</v>
+        <v>N/A</v>
       </c>
       <c r="E103" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F103" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G103" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H103" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I103" t="str">
-        <v>Python for AI development - ongoing certification</v>
-      </c>
-      <c r="J103">
-        <v>49</v>
+        <v>Employee_97</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K103" t="str">
-        <v>2025-06-27 11:20:00</v>
-      </c>
-      <c r="L103" s="1">
-        <v>45835</v>
-      </c>
-      <c r="M103" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L103" t="str">
+        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
+      </c>
+      <c r="M103">
+        <v>75</v>
       </c>
       <c r="N103" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:01:27</v>
+      </c>
+      <c r="O103" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P103" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="104">
@@ -4958,43 +5577,49 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="C104">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" t="str">
-        <v>Employee_98</v>
+        <v>N/A</v>
       </c>
       <c r="E104" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F104" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G104" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H104" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I104" t="str">
-        <v>Deep Learning frameworks training - TensorFlow</v>
-      </c>
-      <c r="J104">
-        <v>46</v>
+        <v>Employee_97</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K104" t="str">
-        <v>2025-06-28 13:45:00</v>
-      </c>
-      <c r="L104" s="1">
-        <v>45836</v>
-      </c>
-      <c r="M104" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L104" t="str">
+        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
+      </c>
+      <c r="M104">
+        <v>75</v>
       </c>
       <c r="N104" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:01:28</v>
+      </c>
+      <c r="O104" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P104" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="105">
@@ -5002,43 +5627,49 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="C105">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" t="str">
-        <v>Employee_98</v>
+        <v>N/A</v>
       </c>
       <c r="E105" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F105" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G105" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H105" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I105" t="str">
-        <v>Neural Networks and Computer Vision modules</v>
-      </c>
-      <c r="J105">
-        <v>43</v>
+        <v>Employee_97</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K105" t="str">
-        <v>2025-06-29 16:30:00</v>
-      </c>
-      <c r="L105" s="1">
-        <v>45837</v>
-      </c>
-      <c r="M105" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L105" t="str">
+        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
+      </c>
+      <c r="M105">
+        <v>75</v>
       </c>
       <c r="N105" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:26:37</v>
+      </c>
+      <c r="O105" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P105" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="106">
@@ -5046,43 +5677,49 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="C106">
         <v>98</v>
       </c>
       <c r="D106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H106" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I106" t="str">
         <v>Employee_98</v>
       </c>
-      <c r="E106" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F106" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G106" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H106" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I106" t="str">
-        <v>Natural Language Processing training completion</v>
-      </c>
-      <c r="J106">
-        <v>47</v>
+      <c r="J106" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K106" t="str">
-        <v>2025-06-30 14:50:00</v>
-      </c>
-      <c r="L106" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M106" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L106" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
+      </c>
+      <c r="M106">
+        <v>94</v>
       </c>
       <c r="N106" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:41:43</v>
+      </c>
+      <c r="O106" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P106" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="107">
@@ -5090,43 +5727,49 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="C107">
         <v>98</v>
       </c>
       <c r="D107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H107" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I107" t="str">
         <v>Employee_98</v>
       </c>
-      <c r="E107" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F107" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G107" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H107" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I107" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
-      </c>
-      <c r="J107">
-        <v>91</v>
+      <c r="J107" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K107" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="L107" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M107" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L107" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
+      </c>
+      <c r="M107">
+        <v>94</v>
       </c>
       <c r="N107" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:41:43</v>
+      </c>
+      <c r="O107" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P107" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="108">
@@ -5134,43 +5777,49 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="C108">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D108" t="str">
-        <v>Employee_101</v>
+        <v>N/A</v>
       </c>
       <c r="E108" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F108" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G108" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H108" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I108" t="str">
-        <v>RAC - ACIMA Extended Aisle - Bench from 1st July</v>
-      </c>
-      <c r="J108">
-        <v>48</v>
+        <v>Employee_98</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K108" t="str">
-        <v>2025-07-01 09:00:00</v>
-      </c>
-      <c r="L108" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M108" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L108" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M108">
+        <v>109</v>
       </c>
       <c r="N108" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:43:19</v>
+      </c>
+      <c r="O108" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P108" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="109">
@@ -5178,43 +5827,49 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="C109">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D109" t="str">
-        <v>Employee_101</v>
+        <v>N/A</v>
       </c>
       <c r="E109" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F109" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G109" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H109" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I109" t="str">
-        <v>ACIMA project bench status tracking</v>
-      </c>
-      <c r="J109">
-        <v>35</v>
+        <v>Employee_98</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K109" t="str">
-        <v>2025-07-02 11:30:00</v>
-      </c>
-      <c r="L109" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M109" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L109" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M109">
+        <v>109</v>
       </c>
       <c r="N109" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 19:43:19</v>
+      </c>
+      <c r="O109" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P109" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="110">
@@ -5222,43 +5877,49 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="C110">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D110" t="str">
-        <v>Employee_105</v>
+        <v>N/A</v>
       </c>
       <c r="E110" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F110" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G110" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H110" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I110" t="str">
-        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
-      </c>
-      <c r="J110">
-        <v>66</v>
+        <v>Employee_98</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K110" t="str">
-        <v>2025-06-25 21:00:00</v>
-      </c>
-      <c r="L110" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M110" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L110" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M110">
+        <v>109</v>
       </c>
       <c r="N110" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-02 19:58:46</v>
+      </c>
+      <c r="O110" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P110" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="111">
@@ -5266,43 +5927,49 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>252</v>
+        <v>368</v>
       </c>
       <c r="C111">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D111" t="str">
-        <v>Employee_105</v>
+        <v>N/A</v>
       </c>
       <c r="E111" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F111" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G111" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H111" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I111" t="str">
-        <v>SAP S4 Hana certification progress</v>
-      </c>
-      <c r="J111">
-        <v>34</v>
+        <v>Employee_98</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K111" t="str">
-        <v>2025-06-26 17:30:00</v>
-      </c>
-      <c r="L111" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M111" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L111" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M111">
+        <v>109</v>
       </c>
       <c r="N111" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:22:30</v>
+      </c>
+      <c r="O111" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P111" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="112">
@@ -5310,43 +5977,49 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>253</v>
+        <v>369</v>
       </c>
       <c r="C112">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D112" t="str">
-        <v>Employee_106</v>
+        <v>N/A</v>
       </c>
       <c r="E112" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F112" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G112" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H112" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I112" t="str">
-        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
-      </c>
-      <c r="J112">
-        <v>66</v>
+        <v>Employee_98</v>
+      </c>
+      <c r="J112" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K112" t="str">
-        <v>2025-06-25 21:15:00</v>
-      </c>
-      <c r="L112" s="1">
-        <v>45833</v>
-      </c>
-      <c r="M112" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L112" t="str">
+        <v xml:space="preserve">Training on SAP S4 Hana -  Back up  Bench - Less cost  </v>
+      </c>
+      <c r="M112">
+        <v>55</v>
       </c>
       <c r="N112" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-07-03 13:31:46</v>
+      </c>
+      <c r="O112" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P112" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="113">
@@ -5354,43 +6027,49 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="C113">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D113" t="str">
-        <v>Employee_106</v>
+        <v>N/A</v>
       </c>
       <c r="E113" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F113" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G113" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H113" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I113" t="str">
-        <v>SAP S4 Hana backup resource training</v>
-      </c>
-      <c r="J113">
-        <v>36</v>
+        <v>Employee_101</v>
+      </c>
+      <c r="J113" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K113" t="str">
-        <v>2025-06-26 18:00:00</v>
-      </c>
-      <c r="L113" s="1">
-        <v>45834</v>
-      </c>
-      <c r="M113" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L113" t="str">
+        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
+      </c>
+      <c r="M113">
+        <v>48</v>
       </c>
       <c r="N113" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:09:21</v>
+      </c>
+      <c r="O113" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P113" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="114">
@@ -5398,43 +6077,49 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="C114">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D114" t="str">
-        <v>Employee_108</v>
+        <v>N/A</v>
       </c>
       <c r="E114" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F114" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G114" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H114" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I114" t="str">
-        <v>Managing - Mena bev, JBS - Like a account manager</v>
-      </c>
-      <c r="J114">
-        <v>49</v>
+        <v>Employee_101</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K114" t="str">
-        <v>2025-06-25 21:30:00</v>
-      </c>
-      <c r="L114" s="1">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L114" t="str">
+        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
+      </c>
+      <c r="M114">
+        <v>48</v>
+      </c>
+      <c r="N114" t="str">
+        <v>2025-06-25 20:09:21</v>
+      </c>
+      <c r="O114" s="1">
         <v>45833</v>
       </c>
-      <c r="M114" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N114" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P114" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="115">
@@ -5442,43 +6127,49 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="C115">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D115" t="str">
-        <v>Employee_108</v>
+        <v>N/A</v>
       </c>
       <c r="E115" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F115" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G115" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H115" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I115" t="str">
-        <v>Account management transition planning</v>
-      </c>
-      <c r="J115">
-        <v>38</v>
+        <v>Employee_105</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K115" t="str">
-        <v>2025-06-30 19:15:00</v>
-      </c>
-      <c r="L115" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M115" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L115" t="str">
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+      </c>
+      <c r="M115">
+        <v>55</v>
       </c>
       <c r="N115" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:05:46</v>
+      </c>
+      <c r="O115" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P115" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="116">
@@ -5486,43 +6177,49 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="C116">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D116" t="str">
-        <v>Employee_108</v>
+        <v>N/A</v>
       </c>
       <c r="E116" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F116" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G116" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H116" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I116" t="str">
-        <v>Moved to RAC project effective from 1st July</v>
-      </c>
-      <c r="J116">
-        <v>44</v>
+        <v>Employee_105</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K116" t="str">
-        <v>2025-07-01 18:30:00</v>
-      </c>
-      <c r="L116" s="1">
-        <v>45839</v>
-      </c>
-      <c r="M116" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L116" t="str">
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+      </c>
+      <c r="M116">
+        <v>55</v>
       </c>
       <c r="N116" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:05:47</v>
+      </c>
+      <c r="O116" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P116" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="117">
@@ -5530,43 +6227,49 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="C117">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D117" t="str">
-        <v>Employee_117</v>
+        <v>N/A</v>
       </c>
       <c r="E117" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F117" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G117" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>N/A</v>
       </c>
       <c r="H117" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>N/A</v>
       </c>
       <c r="I117" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
-      </c>
-      <c r="J117">
-        <v>91</v>
+        <v>Employee_106</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K117" t="str">
-        <v>2025-07-02 20:45:00</v>
-      </c>
-      <c r="L117" s="1">
-        <v>45840</v>
-      </c>
-      <c r="M117" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L117" t="str">
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+      </c>
+      <c r="M117">
+        <v>55</v>
       </c>
       <c r="N117" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:06:23</v>
+      </c>
+      <c r="O117" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P117" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="118">
@@ -5574,43 +6277,49 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="C118">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D118" t="str">
-        <v>Employee_119</v>
+        <v>N/A</v>
       </c>
       <c r="E118" t="str">
-        <v>TBD - See Note</v>
+        <v>Employee Not Found</v>
       </c>
       <c r="F118" t="str">
-        <v>TBD - See Note</v>
+        <v>N/A</v>
       </c>
       <c r="G118" t="str">
-        <v>Karthik Venkittu</v>
+        <v>N/A</v>
       </c>
       <c r="H118" t="str">
-        <v>Karthik V.</v>
+        <v>N/A</v>
       </c>
       <c r="I118" t="str">
-        <v>Offboarded on 30th June.</v>
-      </c>
-      <c r="J118">
-        <v>24</v>
+        <v>Employee_106</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="K118" t="str">
-        <v>2025-06-30 19:30:00</v>
-      </c>
-      <c r="L118" s="1">
-        <v>45838</v>
-      </c>
-      <c r="M118" t="str">
-        <v>Active</v>
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L118" t="str">
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+      </c>
+      <c r="M118">
+        <v>55</v>
       </c>
       <c r="N118" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+        <v>2025-06-25 20:06:23</v>
+      </c>
+      <c r="O118" s="1">
+        <v>45833</v>
+      </c>
+      <c r="P118" t="str">
+        <v>Active</v>
       </c>
     </row>
     <row r="119">
@@ -5618,48 +6327,304 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="C119">
+        <v>108</v>
+      </c>
+      <c r="D119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H119" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Employee_108</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L119" t="str">
+        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
+      </c>
+      <c r="M119">
+        <v>91</v>
+      </c>
+      <c r="N119" t="str">
+        <v>2025-07-02 20:23:32</v>
+      </c>
+      <c r="O119" s="1">
+        <v>45840</v>
+      </c>
+      <c r="P119" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>377</v>
+      </c>
+      <c r="C120">
+        <v>108</v>
+      </c>
+      <c r="D120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H120" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Employee_108</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Karthik Venkittu</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Karthik V.</v>
+      </c>
+      <c r="L120" t="str">
+        <v>Moved to RAC project effective from 1st July</v>
+      </c>
+      <c r="M120">
+        <v>44</v>
+      </c>
+      <c r="N120" t="str">
+        <v>2025-07-03 12:38:22</v>
+      </c>
+      <c r="O120" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P120" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>378</v>
+      </c>
+      <c r="C121">
+        <v>108</v>
+      </c>
+      <c r="D121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Employee_108</v>
+      </c>
+      <c r="J121" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L121" t="str">
+        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
+      </c>
+      <c r="M121">
+        <v>91</v>
+      </c>
+      <c r="N121" t="str">
+        <v>2025-07-03 13:25:26</v>
+      </c>
+      <c r="O121" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P121" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>379</v>
+      </c>
+      <c r="C122">
+        <v>117</v>
+      </c>
+      <c r="D122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Employee_117</v>
+      </c>
+      <c r="J122" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L122" t="str">
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
+      </c>
+      <c r="M122">
+        <v>109</v>
+      </c>
+      <c r="N122" t="str">
+        <v>2025-07-03 13:21:56</v>
+      </c>
+      <c r="O122" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P122" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>380</v>
+      </c>
+      <c r="C123">
+        <v>119</v>
+      </c>
+      <c r="D123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Employee_119</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Karthik Venkittu</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Karthik V.</v>
+      </c>
+      <c r="L123" t="str">
+        <v>Offboarded on 30th June.</v>
+      </c>
+      <c r="M123">
+        <v>24</v>
+      </c>
+      <c r="N123" t="str">
+        <v>2025-07-03 12:36:39</v>
+      </c>
+      <c r="O123" s="1">
+        <v>45841</v>
+      </c>
+      <c r="P123" t="str">
+        <v>Active</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>381</v>
+      </c>
+      <c r="C124">
         <v>137</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Employee Not Found</v>
+      </c>
+      <c r="F124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="H124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I124" t="str">
         <v>Employee_137</v>
       </c>
-      <c r="E119" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="F119" t="str">
-        <v>TBD - See Note</v>
-      </c>
-      <c r="G119" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="H119" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="I119" t="str">
+      <c r="J124" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="L124" t="str">
         <v>She will non billable for initial 3 months - Expecting billable from September 2025</v>
       </c>
-      <c r="J119">
+      <c r="M124">
         <v>83</v>
       </c>
-      <c r="K119" t="str">
-        <v>2025-07-02 18:45:00</v>
-      </c>
-      <c r="L119" s="1">
+      <c r="N124" t="str">
+        <v>2025-07-02 19:56:30</v>
+      </c>
+      <c r="O124" s="1">
         <v>45840</v>
       </c>
-      <c r="M119" t="str">
-        <v>Active</v>
-      </c>
-      <c r="N119" t="str">
-        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      <c r="P124" t="str">
+        <v>Active</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P124"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5692,7 +6657,7 @@
         <v>Total Chat Messages</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C2" t="str">
         <v>All messages restored from backup</v>
@@ -5703,7 +6668,7 @@
         <v>Unique Employees with Comments</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="str">
         <v>Employees with at least one comment</v>
@@ -5725,7 +6690,7 @@
         <v>Earliest Message Date</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-06-02</v>
+        <v>2025-06-04</v>
       </c>
       <c r="C5" t="str">
         <v>First recorded message</v>
@@ -5736,7 +6701,7 @@
         <v>Latest Message Date</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-07-25</v>
+        <v>2025-07-06</v>
       </c>
       <c r="C6" t="str">
         <v>Most recent message</v>
@@ -5773,7 +6738,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5820,10 +6785,10 @@
         <v>Kishore Kumar T., Farhan A., Muhammad Rehman S.</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F2" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
       </c>
     </row>
     <row r="3">
@@ -5840,10 +6805,10 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E3" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F3" t="str">
-        <v>Training on SAP S4 Hana - Back up Bench resource for SAP S4 Hana</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
       </c>
     </row>
     <row r="4">
@@ -5860,7 +6825,7 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E4" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F4" t="str">
         <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
@@ -5868,270 +6833,270 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B5" t="str">
-        <v>Employee_42</v>
+        <v>Employee_21</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Muhammad Rehman S., Kishore Kumar T., Karthik V.</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F5" t="str">
-        <v>Managing - Work Wear, Gallagher, Pet Barn - Cost covered in the Margin</v>
+        <v>Abdullah is Non Billable.</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B6" t="str">
-        <v>Employee_75</v>
+        <v>Employee_42</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>Kishore Kumar T., Mahaveer A.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F6" t="str">
-        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
+        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Employee_48</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <v>Employee_4</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="D7" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Karthik V.</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-06-27</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F7" t="str">
-        <v>Ignore the above comment - 25% Billable in Augusta</v>
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B8" t="str">
-        <v>Employee_21</v>
+        <v>Employee_75</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="str">
-        <v>Kishore Kumar T., Muhammad Rehman S.</v>
+        <v>Mahaveer A., Kishore Kumar T.</v>
       </c>
       <c r="E8" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F8" t="str">
-        <v>Abdullah is Non Billable.</v>
+        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried o...</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
-        <v>Employee_41</v>
+        <v>Employee_4</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="str">
-        <v>Mahaveer A., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E9" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F9" t="str">
-        <v>Practice .. just release from MARS</v>
+        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" t="str">
-        <v>Employee_48</v>
+        <v>Employee_39</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <v>Kishore Kumar T., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E10" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F10" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
+        <v>Keico (projection) -  (two and half month’s bench)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B11" t="str">
-        <v>Employee_71</v>
+        <v>Employee_41</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A., Karthik V.</v>
       </c>
       <c r="E11" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F11" t="str">
-        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
+        <v xml:space="preserve">Practice .. just release from MARS... </v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="str">
-        <v>Employee_73</v>
+        <v>Employee_71</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <v>Mahaveer A., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E12" t="str">
-        <v>2025-07-25</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F12" t="str">
-        <v>from June mapped into August Shopify Plus</v>
+        <v xml:space="preserve">Last working day - 30th June. </v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B13" t="str">
-        <v>Employee_97</v>
+        <v>Employee_73</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A., Kishore Kumar T.</v>
       </c>
       <c r="E13" t="str">
-        <v>2025-06-27</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F13" t="str">
-        <v>25% Billable in Augusta, From July we are planning to make him 75% billable</v>
+        <v>from June mapped into August Shopify Plugin</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B14" t="str">
-        <v>Employee_108</v>
+        <v>Employee_97</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="str">
-        <v>Karthik V., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E14" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F14" t="str">
-        <v>Managing - Mena bev, JBS - Like a account manager</v>
+        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B15" t="str">
-        <v>Employee_2</v>
+        <v>Employee_108</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Karthik V.</v>
       </c>
       <c r="E15" t="str">
-        <v>2025-06-26</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F15" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B16" t="str">
-        <v>Employee_10</v>
+        <v>Employee_1</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Muhammad Rehman S.</v>
       </c>
       <c r="E16" t="str">
-        <v>2025-06-26</v>
+        <v>2025-07-06</v>
       </c>
       <c r="F16" t="str">
-        <v>PM for Y design &amp; True religion, From August will be 100% Billable in Augusta</v>
+        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17" t="str">
-        <v>Employee_16</v>
+        <v>Employee_2</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="str">
-        <v>Farhan A.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E17" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F17" t="str">
-        <v>He is a Non-Billable PM at Richardson Sports</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" t="str">
-        <v>Employee_17</v>
+        <v>Employee_10</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6140,78 +7105,78 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E18" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F18" t="str">
-        <v>Billable under JE Dune, Richardson</v>
+        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="str">
-        <v>Employee_18</v>
+        <v>Employee_16</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="str">
-        <v>Kishore Kumar T., Muhammad Rehman S.</v>
+        <v>Farhan A.</v>
       </c>
       <c r="E19" t="str">
         <v>2025-06-26</v>
       </c>
       <c r="F19" t="str">
-        <v>Billable under JE Dune, Richardson</v>
+        <v>He is a Non-Billable PM at Richardson Sport</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" t="str">
-        <v>Employee_22</v>
+        <v>Employee_17</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <v>Kishore Kumar T., Muhammad Rehman S.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E20" t="str">
-        <v>2025-06-03</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F20" t="str">
-        <v>FMLA - it started from June 2nd for 12 weeks</v>
+        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B21" t="str">
-        <v>Employee_25</v>
+        <v>Employee_18</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Muhammad Rehman S., Kishore Kumar T.</v>
       </c>
       <c r="E21" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F21" t="str">
-        <v>T&amp;M work starting in Dimond+/Laminex NZ from 1st July</v>
+        <v xml:space="preserve">This employee is not filling the time sheet. </v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="str">
-        <v>Employee_27</v>
+        <v>Employee_22</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6220,38 +7185,38 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E22" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F22" t="str">
-        <v>Will be released from RAC by End of July</v>
+        <v>FMLA - it started from June 2nd for 12 weeks</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="str">
-        <v>Employee_28</v>
+        <v>Employee_25</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="str">
-        <v>Karthik V., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E23" t="str">
         <v>2025-07-02</v>
       </c>
       <c r="F23" t="str">
-        <v>Non billable from 23rd June</v>
+        <v>T&amp;M work starting in Dimond+/Laminex NZ project starting from July 14th for 2 months</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B24" t="str">
-        <v>Employee_34</v>
+        <v>Employee_27</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6260,38 +7225,38 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E24" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F24" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+        <v>Will be released from RAC by End of June.</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B25" t="str">
-        <v>Employee_39</v>
+        <v>Employee_28</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V., Kishore Kumar T.</v>
       </c>
       <c r="E25" t="str">
-        <v>2025-06-26</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F25" t="str">
-        <v>Keico (projection) - (two and half months)</v>
+        <v>Non billable from 23rd June</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B26" t="str">
-        <v>Employee_44</v>
+        <v>Employee_34</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6300,18 +7265,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E26" t="str">
-        <v>2025-06-29</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F26" t="str">
-        <v>One and only React bench resource. (Planning to add 2 more)</v>
+        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B27" t="str">
-        <v>Employee_52</v>
+        <v>Employee_44</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -6320,58 +7285,58 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E27" t="str">
-        <v>2025-07-04</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F27" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
+        <v>One and only React bench resource. (Plan for Training)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" t="str">
-        <v>Employee_55</v>
+        <v>Employee_52</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="str">
-        <v>Mahaveer A.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E28" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F28" t="str">
-        <v>Kids delivery</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="str">
-        <v>Employee_57</v>
+        <v>Employee_55</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="E29" t="str">
-        <v>2025-07-04</v>
+        <v>2025-06-23</v>
       </c>
       <c r="F29" t="str">
-        <v>He is currently working in maintenance and support - From 3rd July</v>
+        <v>Kids delivery</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30" t="str">
-        <v>Employee_61</v>
+        <v>Employee_57</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6380,18 +7345,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E30" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F30" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
+        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B31" t="str">
-        <v>Employee_70</v>
+        <v>Employee_61</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -6400,18 +7365,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E31" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F31" t="str">
-        <v>Managing MENA Bev and JBS accounts, actively involved in operational coordination</v>
+        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B32" t="str">
-        <v>Employee_74</v>
+        <v>Employee_70</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -6420,18 +7385,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E32" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F32" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—c...</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B33" t="str">
-        <v>Employee_84</v>
+        <v>Employee_74</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -6440,18 +7405,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E33" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F33" t="str">
-        <v>Shadow resource as per the SOW - Agreed with Sanjay</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B34" t="str">
-        <v>Employee_101</v>
+        <v>Employee_84</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -6460,18 +7425,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E34" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F34" t="str">
-        <v>RAC - ACIMA Extended Aisle - Bench from 1st July</v>
+        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" t="str">
-        <v>Employee_105</v>
+        <v>Employee_101</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -6480,18 +7445,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E35" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F35" t="str">
-        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
+        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" t="str">
-        <v>Employee_106</v>
+        <v>Employee_105</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -6500,21 +7465,21 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E36" t="str">
-        <v>2025-06-26</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F36" t="str">
-        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B37" t="str">
-        <v>Employee_1</v>
+        <v>Employee_106</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="str">
         <v>Kishore Kumar T.</v>
@@ -6523,7 +7488,7 @@
         <v>2025-06-25</v>
       </c>
       <c r="F37" t="str">
-        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
+        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
       </c>
     </row>
     <row r="38">
@@ -6540,7 +7505,7 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E38" t="str">
-        <v>2025-06-24</v>
+        <v>2025-06-27</v>
       </c>
       <c r="F38" t="str">
         <v>Was on leave entire last week</v>
@@ -6580,10 +7545,10 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E40" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-27</v>
       </c>
       <c r="F40" t="str">
-        <v>Was billable in Dimond Roofing - Fletcher Building</v>
+        <v>Was billable in Dimond Roofing - Fletcher Builder. Moved to bench from 23rd June</v>
       </c>
     </row>
     <row r="41">
@@ -6600,10 +7565,10 @@
         <v>Karthik V.</v>
       </c>
       <c r="E41" t="str">
-        <v>2025-07-25</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F41" t="str">
-        <v>She will be made billable from 1st August</v>
+        <v>She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the pr...</v>
       </c>
     </row>
     <row r="42">
@@ -6623,7 +7588,7 @@
         <v>2025-07-02</v>
       </c>
       <c r="F42" t="str">
-        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
       </c>
     </row>
     <row r="43">
@@ -6643,7 +7608,7 @@
         <v>2025-06-30</v>
       </c>
       <c r="F43" t="str">
-        <v>Last working day - 30th June.</v>
+        <v xml:space="preserve">Last working day - 30th June. </v>
       </c>
     </row>
     <row r="44">
@@ -6657,61 +7622,61 @@
         <v>1</v>
       </c>
       <c r="D44" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E44" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F44" t="str">
-        <v>Resigned. Will be supporting for 2 weeks during transition</v>
+        <v>Resigned. Will be supporting for Sourav or VPG client while serving her notice period of 2 months. D...</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="str">
-        <v>Employee_45</v>
+        <v>Employee_43</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E45" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F45" t="str">
-        <v>Working on AI solutions and will be mapped to AI Training</v>
+        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>Employee_46</v>
+        <v>Employee_45</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E46" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F46" t="str">
-        <v>Last working day - 30th June.</v>
+        <v>Working on AI solutions and will be mapped in MARS during 1st week of September</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>Employee_47</v>
+        <v>Employee_46</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -6720,18 +7685,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E47" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F47" t="str">
-        <v>one and only React bench resource. Will be 100% billable from JULY in Augusta</v>
+        <v xml:space="preserve">Last working day - 30th June. </v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>Employee_50</v>
+        <v>Employee_47</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -6740,18 +7705,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E48" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F48" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
+        <v xml:space="preserve">one and only React bench resource. Will Train the internal team in React </v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" t="str">
-        <v>Employee_53</v>
+        <v>Employee_50</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -6763,15 +7728,15 @@
         <v>2025-07-03</v>
       </c>
       <c r="F49" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
+        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B50" t="str">
-        <v>Employee_58</v>
+        <v>Employee_53</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -6780,175 +7745,195 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E50" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F50" t="str">
-        <v>He is working in maintenance - From 3rd July</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" t="str">
-        <v>Employee_60</v>
+        <v>Employee_58</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E51" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F51" t="str">
-        <v>Moved to Agriserv project effective from 1st July</v>
+        <v xml:space="preserve">He is working in maintance - From 3rd July he will be billable </v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B52" t="str">
-        <v>Employee_63</v>
+        <v>Employee_60</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E52" t="str">
-        <v>2025-07-01</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F52" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
+        <v>Moved to Agriserv project effective from 3rd July</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B53" t="str">
-        <v>Employee_68</v>
+        <v>Employee_63</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E53" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F53" t="str">
-        <v>He handles Proposal Management for entire DC BU</v>
+        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B54" t="str">
-        <v>Employee_76</v>
+        <v>Employee_68</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E54" t="str">
-        <v>2025-07-25</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F54" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
+        <v xml:space="preserve">He handles Proposal Management for entire BU and will be a non billable resource.  </v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B55" t="str">
-        <v>Employee_94</v>
+        <v>Employee_76</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E55" t="str">
         <v>2025-07-02</v>
       </c>
       <c r="F55" t="str">
-        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support</v>
+        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B56" t="str">
-        <v>Employee_117</v>
+        <v>Employee_94</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E56" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F56" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support. He is part of...</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" t="str">
-        <v>Employee_119</v>
+        <v>Employee_117</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E57" t="str">
-        <v>2025-06-30</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F57" t="str">
-        <v>Offboarded on 30th June.</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B58" t="str">
-        <v>Employee_137</v>
+        <v>Employee_119</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E58" t="str">
+        <v>2025-07-03</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Offboarded on 30th June.</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>137</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Employee_137</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="E59" t="str">
         <v>2025-07-02</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F59" t="str">
         <v>She will non billable for initial 3 months - Expecting billable from September 2025</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F59"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Employee_Chat_Analysis_Report_2025-07-06.xlsx
+++ b/Employee_Chat_Analysis_Report_2025-07-06.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,43 +432,37 @@
         <v>Employee ID (Internal)</v>
       </c>
       <c r="D1" t="str">
+        <v>Employee Reference</v>
+      </c>
+      <c r="E1" t="str">
         <v>Zoho ID</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Employee Name</v>
       </c>
-      <c r="F1" t="str">
-        <v>Department</v>
-      </c>
       <c r="G1" t="str">
-        <v>Business Unit</v>
+        <v>Chat Entered By</v>
       </c>
       <c r="H1" t="str">
-        <v>Client/Security</v>
+        <v>Chat Entered By (Short)</v>
       </c>
       <c r="I1" t="str">
-        <v>Employee Reference</v>
+        <v>Chat Content</v>
       </c>
       <c r="J1" t="str">
-        <v>Chat Entered By</v>
+        <v>Content Length</v>
       </c>
       <c r="K1" t="str">
-        <v>Chat Entered By (Short)</v>
+        <v>Chat Entered Date/Time</v>
       </c>
       <c r="L1" t="str">
-        <v>Chat Content</v>
+        <v>Chat Date</v>
       </c>
       <c r="M1" t="str">
-        <v>Content Length</v>
+        <v>Status</v>
       </c>
       <c r="N1" t="str">
-        <v>Chat Entered Date/Time</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Chat Date</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Status</v>
+        <v>Notes</v>
       </c>
     </row>
     <row r="2">
@@ -476,49 +470,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>N/A</v>
+        <v>Employee_1</v>
       </c>
       <c r="E2" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F2" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G2" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H2" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I2" t="str">
-        <v>Employee_1</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
+      </c>
+      <c r="J2">
+        <v>47</v>
       </c>
       <c r="K2" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L2" t="str">
-        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
-      </c>
-      <c r="M2">
-        <v>84</v>
+        <v>2025-06-25 09:30:00</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Active</v>
       </c>
       <c r="N2" t="str">
-        <v>2025-07-02 20:28:30</v>
-      </c>
-      <c r="O2" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="3">
@@ -526,49 +514,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>382</v>
+        <v>186</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
-        <v>N/A</v>
+        <v>Employee_2</v>
       </c>
       <c r="E3" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F3" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G3" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H3" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I3" t="str">
-        <v>Employee_1</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+      </c>
+      <c r="J3">
+        <v>91</v>
       </c>
       <c r="K3" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L3" t="str">
-        <v>This is test comments by Rehman on 6th July at 10:07 AM PK Time</v>
-      </c>
-      <c r="M3">
-        <v>63</v>
+        <v>2025-06-25 10:15:00</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Active</v>
       </c>
       <c r="N3" t="str">
-        <v>2025-07-06 05:08:01</v>
-      </c>
-      <c r="O3" s="1">
-        <v>45844</v>
-      </c>
-      <c r="P3" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="4">
@@ -576,49 +558,43 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="str">
-        <v>N/A</v>
+        <v>Employee_2</v>
       </c>
       <c r="E4" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F4" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G4" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H4" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I4" t="str">
-        <v>Employee_2</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Training on new technologies - backup resource</v>
+      </c>
+      <c r="J4">
+        <v>46</v>
       </c>
       <c r="K4" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L4" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M4">
-        <v>109</v>
+        <v>2025-06-26 11:20:00</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Active</v>
       </c>
       <c r="N4" t="str">
-        <v>2025-06-25 19:45:04</v>
-      </c>
-      <c r="O4" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P4" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="5">
@@ -626,49 +602,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>N/A</v>
+        <v>Employee_4</v>
       </c>
       <c r="E5" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F5" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G5" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H5" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I5" t="str">
-        <v>Employee_2</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Ignore the above comment - 25% Billable in Augusta</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
       </c>
       <c r="K5" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L5" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M5">
-        <v>109</v>
+        <v>2025-06-25 14:45:00</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Active</v>
       </c>
       <c r="N5" t="str">
-        <v>2025-06-25 19:45:04</v>
-      </c>
-      <c r="O5" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P5" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="6">
@@ -676,49 +646,43 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>N/A</v>
+        <v>Employee_4</v>
       </c>
       <c r="E6" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F6" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G6" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H6" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I6" t="str">
-        <v>Employee_4</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
+      </c>
+      <c r="J6">
+        <v>47</v>
       </c>
       <c r="K6" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L6" t="str">
-        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
-      </c>
-      <c r="M6">
-        <v>84</v>
+        <v>2025-06-26 09:30:00</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Active</v>
       </c>
       <c r="N6" t="str">
-        <v>2025-06-25 20:07:00</v>
-      </c>
-      <c r="O6" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P6" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="7">
@@ -726,49 +690,43 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <v>N/A</v>
+        <v>Employee_4</v>
       </c>
       <c r="E7" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F7" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G7" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H7" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I7" t="str">
-        <v>Employee_4</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Augusta project planning phase</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
       </c>
       <c r="K7" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L7" t="str">
-        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
-      </c>
-      <c r="M7">
-        <v>84</v>
+        <v>2025-06-27 13:15:00</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45835</v>
+      </c>
+      <c r="M7" t="str">
+        <v>Active</v>
       </c>
       <c r="N7" t="str">
-        <v>2025-06-25 20:07:00</v>
-      </c>
-      <c r="O7" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P7" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="8">
@@ -776,49 +734,43 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="str">
-        <v>N/A</v>
+        <v>Employee_10</v>
       </c>
       <c r="E8" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F8" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G8" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H8" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I8" t="str">
-        <v>Employee_4</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>PM for Y design &amp; True religion, From August will be 100% Billable in Augusta</v>
+      </c>
+      <c r="J8">
+        <v>77</v>
       </c>
       <c r="K8" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L8" t="str">
-        <v xml:space="preserve">Ignore the above comment - 25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
-      </c>
-      <c r="M8">
-        <v>102</v>
+        <v>2025-06-25 16:30:00</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Active</v>
       </c>
       <c r="N8" t="str">
-        <v>2025-07-02 20:25:06</v>
-      </c>
-      <c r="O8" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P8" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="9">
@@ -826,49 +778,43 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="str">
-        <v>N/A</v>
+        <v>Employee_10</v>
       </c>
       <c r="E9" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F9" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G9" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H9" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I9" t="str">
-        <v>Employee_10</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Y design project coordination</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
       </c>
       <c r="K9" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L9" t="str">
-        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
-      </c>
-      <c r="M9">
-        <v>94</v>
+        <v>2025-06-26 14:20:00</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Active</v>
       </c>
       <c r="N9" t="str">
-        <v>2025-06-25 20:02:51</v>
-      </c>
-      <c r="O9" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P9" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="10">
@@ -876,49 +822,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" t="str">
-        <v>N/A</v>
+        <v>Employee_14</v>
       </c>
       <c r="E10" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F10" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G10" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H10" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I10" t="str">
-        <v>Employee_10</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Was on leave entire last week</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
       </c>
       <c r="K10" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L10" t="str">
-        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
-      </c>
-      <c r="M10">
-        <v>94</v>
+        <v>2025-06-24 10:00:00</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45832</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Active</v>
       </c>
       <c r="N10" t="str">
-        <v>2025-06-25 20:02:51</v>
-      </c>
-      <c r="O10" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P10" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="11">
@@ -926,49 +866,43 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="str">
-        <v>N/A</v>
+        <v>Employee_16</v>
       </c>
       <c r="E11" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F11" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G11" t="str">
-        <v>N/A</v>
+        <v>Farhan Ahmed</v>
       </c>
       <c r="H11" t="str">
-        <v>N/A</v>
+        <v>Farhan A.</v>
       </c>
       <c r="I11" t="str">
-        <v>Employee_14</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>He is a Non-Billable PM at Richardson Sports</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
       </c>
       <c r="K11" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L11" t="str">
-        <v>Was on leave entire last week</v>
-      </c>
-      <c r="M11">
-        <v>29</v>
+        <v>2025-06-25 11:45:00</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Active</v>
       </c>
       <c r="N11" t="str">
-        <v>2025-06-27 17:17:32</v>
-      </c>
-      <c r="O11" s="1">
-        <v>45835</v>
-      </c>
-      <c r="P11" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="12">
@@ -976,49 +910,43 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="str">
-        <v>N/A</v>
+        <v>Employee_16</v>
       </c>
       <c r="E12" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F12" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G12" t="str">
-        <v>N/A</v>
+        <v>Farhan Ahmed</v>
       </c>
       <c r="H12" t="str">
-        <v>N/A</v>
+        <v>Farhan A.</v>
       </c>
       <c r="I12" t="str">
-        <v>Employee_16</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Farhan Ahmed</v>
+        <v>Richardson Sports project management role</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
       </c>
       <c r="K12" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L12" t="str">
-        <v>He is a Non-Billable PM at Richardson Sport</v>
-      </c>
-      <c r="M12">
-        <v>43</v>
+        <v>2025-06-26 15:30:00</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Active</v>
       </c>
       <c r="N12" t="str">
-        <v>2025-06-26 15:45:02</v>
-      </c>
-      <c r="O12" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P12" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="13">
@@ -1026,49 +954,43 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="str">
-        <v>N/A</v>
+        <v>Employee_17</v>
       </c>
       <c r="E13" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F13" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G13" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H13" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I13" t="str">
-        <v>Employee_16</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Farhan Ahmed</v>
+        <v>Billable under JE Dune, Richardson</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
       </c>
       <c r="K13" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L13" t="str">
-        <v>He is a Non-Billable PM at Richardson Sport</v>
-      </c>
-      <c r="M13">
-        <v>43</v>
+        <v>2025-06-25 12:30:00</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Active</v>
       </c>
       <c r="N13" t="str">
-        <v>2025-06-26 15:45:03</v>
-      </c>
-      <c r="O13" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P13" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="14">
@@ -1076,49 +998,43 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C14">
         <v>17</v>
       </c>
       <c r="D14" t="str">
-        <v>N/A</v>
+        <v>Employee_17</v>
       </c>
       <c r="E14" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F14" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G14" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H14" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I14" t="str">
-        <v>Employee_17</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>JE Dune project ongoing</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
       </c>
       <c r="K14" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L14" t="str">
-        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
-      </c>
-      <c r="M14">
-        <v>36</v>
+        <v>2025-06-26 16:45:00</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Active</v>
       </c>
       <c r="N14" t="str">
-        <v>2025-06-25 19:51:11</v>
-      </c>
-      <c r="O14" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P14" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="15">
@@ -1126,49 +1042,43 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
-        <v>N/A</v>
+        <v>Employee_18</v>
       </c>
       <c r="E15" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F15" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G15" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H15" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I15" t="str">
-        <v>Employee_17</v>
-      </c>
-      <c r="J15" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Billable under JE Dune, Richardson</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
       </c>
       <c r="K15" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L15" t="str">
-        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
-      </c>
-      <c r="M15">
-        <v>36</v>
+        <v>2025-06-25 13:15:00</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Active</v>
       </c>
       <c r="N15" t="str">
-        <v>2025-06-25 19:51:11</v>
-      </c>
-      <c r="O15" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P15" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="16">
@@ -1176,49 +1086,43 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="C16">
         <v>18</v>
       </c>
       <c r="D16" t="str">
-        <v>N/A</v>
+        <v>Employee_18</v>
       </c>
       <c r="E16" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F16" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G16" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H16" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I16" t="str">
-        <v>Employee_18</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>This employee is not filling the time sheet properly</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
       </c>
       <c r="K16" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L16" t="str">
-        <v xml:space="preserve">This employee is not filling the time sheet. </v>
-      </c>
-      <c r="M16">
-        <v>45</v>
+        <v>2025-06-26 10:30:00</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Active</v>
       </c>
       <c r="N16" t="str">
-        <v>2025-06-04 20:59:11</v>
-      </c>
-      <c r="O16" s="1">
-        <v>45812</v>
-      </c>
-      <c r="P16" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1130,43 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="str">
-        <v>N/A</v>
+        <v>Employee_20</v>
       </c>
       <c r="E17" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F17" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G17" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H17" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I17" t="str">
-        <v>Employee_18</v>
-      </c>
-      <c r="J17" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Resigned and LWD is 3rd July</v>
+      </c>
+      <c r="J17">
+        <v>28</v>
       </c>
       <c r="K17" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L17" t="str">
-        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
-      </c>
-      <c r="M17">
-        <v>36</v>
+        <v>2025-07-03 09:00:00</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M17" t="str">
+        <v>Active</v>
       </c>
       <c r="N17" t="str">
-        <v>2025-07-02 19:55:17</v>
-      </c>
-      <c r="O17" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P17" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="18">
@@ -1276,49 +1174,43 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="str">
-        <v>N/A</v>
+        <v>Employee_21</v>
       </c>
       <c r="E18" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F18" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G18" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H18" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I18" t="str">
-        <v>Employee_20</v>
-      </c>
-      <c r="J18" t="str">
-        <v>Karthik Venkittu</v>
+        <v>Abdullah is Non Billable.</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
       </c>
       <c r="K18" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L18" t="str">
-        <v>Resigned and LWD is 3rd July</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
+        <v>2025-06-25 10:00:00</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Active</v>
       </c>
       <c r="N18" t="str">
-        <v>2025-07-03 12:36:18</v>
-      </c>
-      <c r="O18" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P18" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="19">
@@ -1326,100 +1218,87 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C19">
         <v>21</v>
       </c>
       <c r="D19" t="str">
-        <v>N/A</v>
+        <v>Employee_21</v>
       </c>
       <c r="E19" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F19" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G19" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H19" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I19" t="str">
-        <v>Employee_21</v>
-      </c>
-      <c r="J19" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>Abdullah is Non Billable.</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
       </c>
       <c r="K19" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L19" t="str">
-        <v>Abdullah is Non Billable.</v>
-      </c>
-      <c r="M19">
-        <v>25</v>
+        <v>2025-06-25 10:01:00</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Active</v>
       </c>
       <c r="N19" t="str">
-        <v>2025-06-26 15:54:12</v>
-      </c>
-      <c r="O19" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P19" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" t="str">
-        <v>N/A</v>
+        <v>Employee_21</v>
       </c>
       <c r="E20" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F20" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G20" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H20" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I20" t="str">
-        <v>Employee_21</v>
-      </c>
-      <c r="J20" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>under the FMLA to take up to 26 weeks of leave</v>
+      </c>
+      <c r="J20">
+        <v>46</v>
       </c>
       <c r="K20" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L20" t="str" xml:space="preserve">
-        <v xml:space="preserve">Abdullah is Non Billable._x000d_
-</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
+        <v>2025-06-26 14:30:00</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Active</v>
       </c>
       <c r="N20" t="str">
-        <v>2025-06-26 17:31:48</v>
-      </c>
-      <c r="O20" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P20" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="21">
@@ -1427,49 +1306,43 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="str">
-        <v>N/A</v>
+        <v>Employee_22</v>
       </c>
       <c r="E21" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F21" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G21" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H21" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I21" t="str">
-        <v>Employee_21</v>
-      </c>
-      <c r="J21" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>FMLA - it started from June 2nd for 12 weeks</v>
+      </c>
+      <c r="J21">
+        <v>44</v>
       </c>
       <c r="K21" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L21" t="str">
-        <v>under the FMLA to take up to 26 weeks of unpaid, job-protected FMLA leave in a single 12-month period</v>
-      </c>
-      <c r="M21">
-        <v>101</v>
+        <v>2025-06-02 09:00:00</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45810</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Active</v>
       </c>
       <c r="N21" t="str">
-        <v>2025-06-27 17:21:45</v>
-      </c>
-      <c r="O21" s="1">
-        <v>45835</v>
-      </c>
-      <c r="P21" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="22">
@@ -1477,49 +1350,43 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="str">
-        <v>N/A</v>
+        <v>Employee_22</v>
       </c>
       <c r="E22" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F22" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G22" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H22" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I22" t="str">
-        <v>Employee_21</v>
-      </c>
-      <c r="J22" t="str">
-        <v>Karthik Venkittu</v>
+        <v>FMLA documentation in progress</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
       </c>
       <c r="K22" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L22" t="str">
-        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
-      </c>
-      <c r="M22">
-        <v>107</v>
+        <v>2025-06-03 14:20:00</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45811</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Active</v>
       </c>
       <c r="N22" t="str">
-        <v>2025-07-03 12:56:44</v>
-      </c>
-      <c r="O22" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P22" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="23">
@@ -1527,49 +1394,43 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="str">
-        <v>N/A</v>
+        <v>Employee_24</v>
       </c>
       <c r="E23" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F23" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G23" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H23" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I23" t="str">
-        <v>Employee_22</v>
-      </c>
-      <c r="J23" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Was billable in Dimond Roofing - Fletcher Building</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
       </c>
       <c r="K23" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L23" t="str">
-        <v>FMLA - it started from June 2nd for 12 weeks</v>
-      </c>
-      <c r="M23">
-        <v>44</v>
+        <v>2025-06-25 10:45:00</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Active</v>
       </c>
       <c r="N23" t="str">
-        <v>2025-06-30 18:52:26</v>
-      </c>
-      <c r="O23" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P23" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="24">
@@ -1577,49 +1438,43 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="str">
-        <v>N/A</v>
+        <v>Employee_25</v>
       </c>
       <c r="E24" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F24" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G24" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H24" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I24" t="str">
-        <v>Employee_22</v>
-      </c>
-      <c r="J24" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>T&amp;M work starting in Dimond+/Laminex NZ from 1st July</v>
+      </c>
+      <c r="J24">
+        <v>53</v>
       </c>
       <c r="K24" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L24" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M24">
-        <v>109</v>
+        <v>2025-06-30 16:30:00</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Active</v>
       </c>
       <c r="N24" t="str">
-        <v>2025-07-02 19:58:21</v>
-      </c>
-      <c r="O24" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P24" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="25">
@@ -1627,49 +1482,43 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="str">
-        <v>N/A</v>
+        <v>Employee_25</v>
       </c>
       <c r="E25" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F25" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G25" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H25" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I25" t="str">
-        <v>Employee_24</v>
-      </c>
-      <c r="J25" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Will be released from RAC by End of July</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
       </c>
       <c r="K25" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L25" t="str">
-        <v>Was billable in Dimond Roofing - Fletcher Builder. Moved to bench from 23rd June</v>
-      </c>
-      <c r="M25">
-        <v>80</v>
+        <v>2025-07-01 11:15:00</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Active</v>
       </c>
       <c r="N25" t="str">
-        <v>2025-06-27 17:24:09</v>
-      </c>
-      <c r="O25" s="1">
-        <v>45835</v>
-      </c>
-      <c r="P25" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="26">
@@ -1677,49 +1526,43 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" t="str">
-        <v>N/A</v>
+        <v>Employee_27</v>
       </c>
       <c r="E26" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F26" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G26" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H26" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I26" t="str">
-        <v>Employee_25</v>
-      </c>
-      <c r="J26" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Will be released from RAC by End of July</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
       </c>
       <c r="K26" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L26" t="str">
-        <v>T&amp;M work starting in Dimond+/Laminex NZ project starting from July 14th for 2 months</v>
-      </c>
-      <c r="M26">
-        <v>84</v>
+        <v>2025-07-01 12:00:00</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Active</v>
       </c>
       <c r="N26" t="str">
-        <v>2025-06-30 17:55:18</v>
-      </c>
-      <c r="O26" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P26" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="27">
@@ -1727,49 +1570,43 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="str">
-        <v>N/A</v>
+        <v>Employee_27</v>
       </c>
       <c r="E27" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F27" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G27" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H27" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I27" t="str">
-        <v>Employee_25</v>
-      </c>
-      <c r="J27" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Will be released from RAC by End of July - backup planning</v>
+      </c>
+      <c r="J27">
+        <v>58</v>
       </c>
       <c r="K27" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L27" t="str">
-        <v>Will be released from RAC by End of June. Nandha &amp;. Rama  will come back to us on or before 4th July</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
+        <v>2025-07-01 12:01:00</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Active</v>
       </c>
       <c r="N27" t="str">
-        <v>2025-07-02 20:41:25</v>
-      </c>
-      <c r="O27" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P27" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="28">
@@ -1777,49 +1614,43 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Employee_28</v>
+      </c>
+      <c r="E28" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="F28" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Karthik Venkittu</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Karthik V.</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Non billable from 23rd June</v>
+      </c>
+      <c r="J28">
         <v>27</v>
       </c>
-      <c r="D28" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E28" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F28" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G28" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H28" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I28" t="str">
-        <v>Employee_27</v>
-      </c>
-      <c r="J28" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
       <c r="K28" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L28" t="str">
-        <v>Will be released from RAC by End of June.</v>
-      </c>
-      <c r="M28">
-        <v>41</v>
+        <v>2025-06-23 10:00:00</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45831</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Active</v>
       </c>
       <c r="N28" t="str">
-        <v>2025-06-25 20:10:45</v>
-      </c>
-      <c r="O28" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P28" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="29">
@@ -1827,49 +1658,43 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="str">
-        <v>N/A</v>
+        <v>Employee_28</v>
       </c>
       <c r="E29" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F29" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G29" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H29" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I29" t="str">
-        <v>Employee_27</v>
-      </c>
-      <c r="J29" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="J29">
+        <v>53</v>
       </c>
       <c r="K29" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L29" t="str">
-        <v>Will be released from RAC by End of June.</v>
-      </c>
-      <c r="M29">
-        <v>41</v>
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Active</v>
       </c>
       <c r="N29" t="str">
-        <v>2025-06-25 20:10:45</v>
-      </c>
-      <c r="O29" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P29" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="30">
@@ -1877,49 +1702,43 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30" t="str">
-        <v>N/A</v>
+        <v>Employee_31</v>
       </c>
       <c r="E30" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F30" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G30" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H30" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I30" t="str">
-        <v>Employee_28</v>
-      </c>
-      <c r="J30" t="str">
-        <v>Karthik Venkittu</v>
+        <v>She will be made billable from 1st August</v>
+      </c>
+      <c r="J30">
+        <v>41</v>
       </c>
       <c r="K30" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L30" t="str">
-        <v>Non billable from 23rd June</v>
-      </c>
-      <c r="M30">
-        <v>27</v>
+        <v>2025-07-25 14:30:00</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45863</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Active</v>
       </c>
       <c r="N30" t="str">
-        <v>2025-07-03 12:57:37</v>
-      </c>
-      <c r="O30" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P30" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="31">
@@ -1927,49 +1746,43 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" t="str">
-        <v>N/A</v>
+        <v>Employee_33</v>
       </c>
       <c r="E31" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F31" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G31" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H31" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I31" t="str">
-        <v>Employee_28</v>
-      </c>
-      <c r="J31" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="J31">
+        <v>53</v>
       </c>
       <c r="K31" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L31" t="str">
-        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
-      </c>
-      <c r="M31">
-        <v>54</v>
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Active</v>
       </c>
       <c r="N31" t="str">
-        <v>2025-07-03 13:23:03</v>
-      </c>
-      <c r="O31" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P31" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="32">
@@ -1977,49 +1790,43 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D32" t="str">
-        <v>N/A</v>
+        <v>Employee_34</v>
       </c>
       <c r="E32" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F32" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G32" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H32" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I32" t="str">
-        <v>Employee_31</v>
-      </c>
-      <c r="J32" t="str">
-        <v>Karthik Venkittu</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="J32">
+        <v>53</v>
       </c>
       <c r="K32" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L32" t="str">
-        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
-      </c>
-      <c r="M32">
-        <v>107</v>
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Active</v>
       </c>
       <c r="N32" t="str">
-        <v>2025-07-03 12:56:14</v>
-      </c>
-      <c r="O32" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P32" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="33">
@@ -2027,49 +1834,43 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="str">
-        <v>N/A</v>
+        <v>Employee_34</v>
       </c>
       <c r="E33" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F33" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G33" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H33" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I33" t="str">
-        <v>Employee_33</v>
-      </c>
-      <c r="J33" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
+      </c>
+      <c r="J33">
+        <v>53</v>
       </c>
       <c r="K33" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L33" t="str">
-        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
-      </c>
-      <c r="M33">
-        <v>54</v>
+        <v>2025-07-02 20:17:20</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M33" t="str">
+        <v>Active</v>
       </c>
       <c r="N33" t="str">
-        <v>2025-07-02 20:17:19</v>
-      </c>
-      <c r="O33" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P33" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="34">
@@ -2077,49 +1878,43 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" t="str">
-        <v>N/A</v>
+        <v>Employee_36</v>
       </c>
       <c r="E34" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F34" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G34" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H34" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I34" t="str">
-        <v>Employee_34</v>
-      </c>
-      <c r="J34" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Last working day - 30th June.</v>
+      </c>
+      <c r="J34">
+        <v>29</v>
       </c>
       <c r="K34" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L34" t="str">
-        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="M34">
-        <v>54</v>
+        <v>2025-06-30 17:00:00</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Active</v>
       </c>
       <c r="N34" t="str">
-        <v>2025-06-25 19:52:38</v>
-      </c>
-      <c r="O34" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P34" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="35">
@@ -2127,49 +1922,43 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" t="str">
-        <v>N/A</v>
+        <v>Employee_39</v>
       </c>
       <c r="E35" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F35" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G35" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H35" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I35" t="str">
-        <v>Employee_34</v>
-      </c>
-      <c r="J35" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Keico (projection) - (two and half months)</v>
+      </c>
+      <c r="J35">
+        <v>42</v>
       </c>
       <c r="K35" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L35" t="str">
-        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
-      </c>
-      <c r="M35">
-        <v>54</v>
+        <v>2025-06-25 15:45:00</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M35" t="str">
+        <v>Active</v>
       </c>
       <c r="N35" t="str">
-        <v>2025-06-25 19:52:38</v>
-      </c>
-      <c r="O35" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P35" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="36">
@@ -2177,49 +1966,43 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D36" t="str">
-        <v>N/A</v>
+        <v>Employee_39</v>
       </c>
       <c r="E36" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F36" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G36" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H36" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I36" t="str">
-        <v>Employee_36</v>
-      </c>
-      <c r="J36" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Keico projection planning</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
       </c>
       <c r="K36" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L36" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
-      </c>
-      <c r="M36">
-        <v>30</v>
+        <v>2025-06-26 11:30:00</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M36" t="str">
+        <v>Active</v>
       </c>
       <c r="N36" t="str">
-        <v>2025-06-30 17:07:34</v>
-      </c>
-      <c r="O36" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P36" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="37">
@@ -2227,49 +2010,43 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" t="str">
-        <v>N/A</v>
+        <v>Employee_40</v>
       </c>
       <c r="E37" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F37" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G37" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H37" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I37" t="str">
-        <v>Employee_39</v>
-      </c>
-      <c r="J37" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Resigned. Will be supporting for 2 weeks during transition</v>
+      </c>
+      <c r="J37">
+        <v>58</v>
       </c>
       <c r="K37" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L37" t="str">
-        <v>Keico (projection) -  (two and half month’s bench)</v>
-      </c>
-      <c r="M37">
-        <v>50</v>
+        <v>2025-06-30 16:00:00</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Active</v>
       </c>
       <c r="N37" t="str">
-        <v>2025-06-25 20:07:32</v>
-      </c>
-      <c r="O37" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P37" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="38">
@@ -2277,49 +2054,43 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" t="str">
-        <v>N/A</v>
+        <v>Employee_41</v>
       </c>
       <c r="E38" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F38" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G38" t="str">
-        <v>N/A</v>
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="H38" t="str">
-        <v>N/A</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="I38" t="str">
-        <v>Employee_39</v>
-      </c>
-      <c r="J38" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Practice .. just release from MARS</v>
+      </c>
+      <c r="J38">
+        <v>34</v>
       </c>
       <c r="K38" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L38" t="str">
-        <v>Keico (projection) -  (two and half month’s bench)</v>
-      </c>
-      <c r="M38">
-        <v>50</v>
+        <v>2025-06-29 14:20:00</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Active</v>
       </c>
       <c r="N38" t="str">
-        <v>2025-06-25 20:07:33</v>
-      </c>
-      <c r="O38" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P38" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="39">
@@ -2327,49 +2098,43 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D39" t="str">
-        <v>N/A</v>
+        <v>Employee_41</v>
       </c>
       <c r="E39" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F39" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G39" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H39" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I39" t="str">
-        <v>Employee_39</v>
-      </c>
-      <c r="J39" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Offboarded on 30th June</v>
+      </c>
+      <c r="J39">
+        <v>23</v>
       </c>
       <c r="K39" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L39" t="str">
-        <v>Managing - Work Wear, Gallagher, Pet Barn</v>
-      </c>
-      <c r="M39">
-        <v>41</v>
+        <v>2025-06-30 16:30:00</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Active</v>
       </c>
       <c r="N39" t="str">
-        <v>2025-07-02 20:17:44</v>
-      </c>
-      <c r="O39" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P39" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="40">
@@ -2377,49 +2142,43 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" t="str">
-        <v>N/A</v>
+        <v>Employee_41</v>
       </c>
       <c r="E40" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F40" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G40" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H40" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I40" t="str">
-        <v>Employee_40</v>
-      </c>
-      <c r="J40" t="str">
-        <v>Karthik Venkittu</v>
+        <v>Final documentation handover</v>
+      </c>
+      <c r="J40">
+        <v>28</v>
       </c>
       <c r="K40" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L40" t="str">
-        <v>Resigned. Will be supporting for Sourav or VPG client while serving her notice period of 2 months. Date of Resignation is 25-Jun.</v>
-      </c>
-      <c r="M40">
-        <v>129</v>
+        <v>2025-06-30 16:45:00</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Active</v>
       </c>
       <c r="N40" t="str">
-        <v>2025-07-03 12:35:48</v>
-      </c>
-      <c r="O40" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P40" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="41">
@@ -2427,49 +2186,43 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" t="str">
-        <v>N/A</v>
+        <v>Employee_42</v>
       </c>
       <c r="E41" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F41" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G41" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H41" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I41" t="str">
-        <v>Employee_41</v>
-      </c>
-      <c r="J41" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Managing - Work Wear, Gallagher, Pet Barn - Cost covered in the Margin</v>
+      </c>
+      <c r="J41">
+        <v>70</v>
       </c>
       <c r="K41" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L41" t="str">
-        <v xml:space="preserve">Practice .. just release from MARS... </v>
-      </c>
-      <c r="M41">
-        <v>38</v>
+        <v>2025-06-25 13:30:00</v>
+      </c>
+      <c r="L41" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Active</v>
       </c>
       <c r="N41" t="str">
-        <v>2025-06-23 18:49:38</v>
-      </c>
-      <c r="O41" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P41" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="42">
@@ -2477,49 +2230,43 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" t="str">
-        <v>N/A</v>
+        <v>Employee_42</v>
       </c>
       <c r="E42" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F42" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G42" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H42" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I42" t="str">
-        <v>Employee_41</v>
-      </c>
-      <c r="J42" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>One and only React bench resource. (Planning to add 2 more)</v>
+      </c>
+      <c r="J42">
+        <v>59</v>
       </c>
       <c r="K42" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L42" t="str">
-        <v xml:space="preserve">Practice .. just release from MARS... </v>
-      </c>
-      <c r="M42">
-        <v>38</v>
+        <v>2025-06-28 10:15:00</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Active</v>
       </c>
       <c r="N42" t="str">
-        <v>2025-06-23 18:49:38</v>
-      </c>
-      <c r="O42" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P42" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="43">
@@ -2527,49 +2274,43 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" t="str">
-        <v>N/A</v>
+        <v>Employee_42</v>
       </c>
       <c r="E43" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F43" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G43" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H43" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I43" t="str">
-        <v>Employee_41</v>
-      </c>
-      <c r="J43" t="str">
-        <v>Karthik Venkittu</v>
+        <v>React development leadership role</v>
+      </c>
+      <c r="J43">
+        <v>33</v>
       </c>
       <c r="K43" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L43" t="str">
-        <v>Offboarded on 30th June</v>
-      </c>
-      <c r="M43">
-        <v>23</v>
+        <v>2025-06-29 12:45:00</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Active</v>
       </c>
       <c r="N43" t="str">
-        <v>2025-07-03 12:43:05</v>
-      </c>
-      <c r="O43" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P43" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="44">
@@ -2577,49 +2318,43 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44" t="str">
-        <v>N/A</v>
+        <v>Employee_42</v>
       </c>
       <c r="E44" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F44" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G44" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H44" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I44" t="str">
-        <v>Employee_42</v>
-      </c>
-      <c r="J44" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Off boarded - 30-Jun-2025</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
       </c>
       <c r="K44" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L44" t="str">
-        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
-      </c>
-      <c r="M44">
-        <v>41</v>
+        <v>2025-06-30 17:30:00</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Active</v>
       </c>
       <c r="N44" t="str">
-        <v>2025-06-25 19:52:59</v>
-      </c>
-      <c r="O44" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P44" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="45">
@@ -2627,49 +2362,43 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" t="str">
-        <v>N/A</v>
+        <v>Employee_44</v>
       </c>
       <c r="E45" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F45" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G45" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H45" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I45" t="str">
-        <v>Employee_42</v>
-      </c>
-      <c r="J45" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>One and only React bench resource. (Planning to add 2 more)</v>
+      </c>
+      <c r="J45">
+        <v>59</v>
       </c>
       <c r="K45" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L45" t="str">
-        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
-      </c>
-      <c r="M45">
-        <v>41</v>
+        <v>2025-06-28 11:30:00</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Active</v>
       </c>
       <c r="N45" t="str">
-        <v>2025-06-25 19:52:59</v>
-      </c>
-      <c r="O45" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P45" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="46">
@@ -2677,49 +2406,43 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Employee_44</v>
+      </c>
+      <c r="E46" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="F46" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="I46" t="str">
+        <v>React specialist - team expansion planning</v>
+      </c>
+      <c r="J46">
         <v>42</v>
       </c>
-      <c r="D46" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E46" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F46" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G46" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H46" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I46" t="str">
-        <v>Employee_42</v>
-      </c>
-      <c r="J46" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
       <c r="K46" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L46" t="str">
-        <v>One and only React bench resource. (Plan for Training)</v>
-      </c>
-      <c r="M46">
-        <v>54</v>
+        <v>2025-06-29 13:20:00</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Active</v>
       </c>
       <c r="N46" t="str">
-        <v>2025-06-30 17:54:43</v>
-      </c>
-      <c r="O46" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P46" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="47">
@@ -2727,49 +2450,43 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D47" t="str">
-        <v>N/A</v>
+        <v>Employee_45</v>
       </c>
       <c r="E47" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F47" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G47" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H47" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I47" t="str">
-        <v>Employee_42</v>
-      </c>
-      <c r="J47" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Working on AI solutions and will be mapped to AI Training</v>
+      </c>
+      <c r="J47">
+        <v>57</v>
       </c>
       <c r="K47" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L47" t="str">
-        <v>Off boarded - 30-Jun-2025</v>
-      </c>
-      <c r="M47">
-        <v>25</v>
+        <v>2025-06-25 14:20:00</v>
+      </c>
+      <c r="L47" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Active</v>
       </c>
       <c r="N47" t="str">
-        <v>2025-07-02 20:51:20</v>
-      </c>
-      <c r="O47" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P47" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="48">
@@ -2777,49 +2494,43 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D48" t="str">
-        <v>N/A</v>
+        <v>Employee_46</v>
       </c>
       <c r="E48" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F48" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G48" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H48" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I48" t="str">
-        <v>Employee_43</v>
-      </c>
-      <c r="J48" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Last working day - 30th June.</v>
+      </c>
+      <c r="J48">
+        <v>29</v>
       </c>
       <c r="K48" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L48" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="M48">
-        <v>69</v>
+        <v>2025-06-30 17:15:00</v>
+      </c>
+      <c r="L48" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Active</v>
       </c>
       <c r="N48" t="str">
-        <v>2025-07-03 13:24:11</v>
-      </c>
-      <c r="O48" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P48" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="49">
@@ -2827,49 +2538,43 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D49" t="str">
-        <v>N/A</v>
+        <v>Employee_47</v>
       </c>
       <c r="E49" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F49" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G49" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H49" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I49" t="str">
-        <v>Employee_44</v>
-      </c>
-      <c r="J49" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>one and only React bench resource. Will be 100% billable from JULY in Augusta</v>
+      </c>
+      <c r="J49">
+        <v>77</v>
       </c>
       <c r="K49" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L49" t="str">
-        <v>One and only React bench resource. (Plan for Training)</v>
-      </c>
-      <c r="M49">
-        <v>54</v>
+        <v>2025-06-25 16:45:00</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M49" t="str">
+        <v>Active</v>
       </c>
       <c r="N49" t="str">
-        <v>2025-06-25 20:07:56</v>
-      </c>
-      <c r="O49" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P49" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="50">
@@ -2877,49 +2582,43 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D50" t="str">
-        <v>N/A</v>
+        <v>Employee_48</v>
       </c>
       <c r="E50" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F50" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G50" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H50" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I50" t="str">
-        <v>Employee_44</v>
-      </c>
-      <c r="J50" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="J50">
+        <v>68</v>
       </c>
       <c r="K50" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L50" t="str">
-        <v>One and only React bench resource. (Plan for Training)</v>
-      </c>
-      <c r="M50">
-        <v>54</v>
+        <v>2025-06-25 19:56:10</v>
+      </c>
+      <c r="L50" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Active</v>
       </c>
       <c r="N50" t="str">
-        <v>2025-06-25 20:07:57</v>
-      </c>
-      <c r="O50" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P50" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="51">
@@ -2927,49 +2626,43 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D51" t="str">
-        <v>N/A</v>
+        <v>Employee_48</v>
       </c>
       <c r="E51" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F51" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G51" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H51" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I51" t="str">
-        <v>Employee_45</v>
-      </c>
-      <c r="J51" t="str">
-        <v>Karthik Venkittu</v>
+        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
+      </c>
+      <c r="J51">
+        <v>68</v>
       </c>
       <c r="K51" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L51" t="str">
-        <v>Working on AI solutions and will be mapped in MARS during 1st week of September</v>
-      </c>
-      <c r="M51">
-        <v>79</v>
+        <v>2025-07-02 20:22:55</v>
+      </c>
+      <c r="L51" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M51" t="str">
+        <v>Active</v>
       </c>
       <c r="N51" t="str">
-        <v>2025-07-03 13:04:13</v>
-      </c>
-      <c r="O51" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P51" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="52">
@@ -2977,49 +2670,43 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D52" t="str">
-        <v>N/A</v>
+        <v>Employee_48</v>
       </c>
       <c r="E52" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F52" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G52" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H52" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I52" t="str">
-        <v>Employee_46</v>
-      </c>
-      <c r="J52" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process.</v>
+      </c>
+      <c r="J52">
+        <v>106</v>
       </c>
       <c r="K52" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L52" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
-      </c>
-      <c r="M52">
-        <v>30</v>
+        <v>2025-07-03 12:56:23</v>
+      </c>
+      <c r="L52" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M52" t="str">
+        <v>Active</v>
       </c>
       <c r="N52" t="str">
-        <v>2025-06-30 17:07:20</v>
-      </c>
-      <c r="O52" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P52" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="53">
@@ -3027,49 +2714,43 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E53" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F53" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G53" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H53" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I53" t="str">
-        <v>Employee_47</v>
-      </c>
-      <c r="J53" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+      </c>
+      <c r="J53">
+        <v>91</v>
       </c>
       <c r="K53" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L53" t="str">
-        <v xml:space="preserve">one and only React bench resource. Will Train the internal team in React </v>
-      </c>
-      <c r="M53">
-        <v>73</v>
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="L53" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Active</v>
       </c>
       <c r="N53" t="str">
-        <v>2025-07-02 20:39:11</v>
-      </c>
-      <c r="O53" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P53" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="54">
@@ -3077,49 +2758,43 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E54" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F54" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G54" t="str">
-        <v>N/A</v>
+        <v>Farhan Ahmed</v>
       </c>
       <c r="H54" t="str">
-        <v>N/A</v>
+        <v>Farhan A.</v>
       </c>
       <c r="I54" t="str">
-        <v>Employee_48</v>
-      </c>
-      <c r="J54" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Test Comment</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
       </c>
       <c r="K54" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L54" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="M54">
-        <v>69</v>
+        <v>2025-07-03 10:30:00</v>
+      </c>
+      <c r="L54" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Active</v>
       </c>
       <c r="N54" t="str">
-        <v>2025-06-25 19:56:10</v>
-      </c>
-      <c r="O54" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P54" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="55">
@@ -3127,49 +2802,43 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>311</v>
+        <v>144</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E55" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F55" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G55" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H55" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I55" t="str">
-        <v>Employee_48</v>
-      </c>
-      <c r="J55" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Test comment 2</v>
+      </c>
+      <c r="J55">
+        <v>14</v>
       </c>
       <c r="K55" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L55" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="M55">
-        <v>69</v>
+        <v>2025-07-03 10:31:00</v>
+      </c>
+      <c r="L55" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Active</v>
       </c>
       <c r="N55" t="str">
-        <v>2025-06-25 19:56:10</v>
-      </c>
-      <c r="O55" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P55" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="56">
@@ -3177,49 +2846,43 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="C56">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E56" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F56" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G56" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H56" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I56" t="str">
-        <v>Employee_48</v>
-      </c>
-      <c r="J56" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>This is 3rd test comments added by Rehman</v>
+      </c>
+      <c r="J56">
+        <v>41</v>
       </c>
       <c r="K56" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L56" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
-      </c>
-      <c r="M56">
-        <v>69</v>
+        <v>2025-07-03 10:32:00</v>
+      </c>
+      <c r="L56" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M56" t="str">
+        <v>Active</v>
       </c>
       <c r="N56" t="str">
-        <v>2025-07-02 20:22:55</v>
-      </c>
-      <c r="O56" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P56" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="57">
@@ -3227,49 +2890,43 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>314</v>
+        <v>146</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D57" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E57" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F57" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G57" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H57" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I57" t="str">
-        <v>Employee_48</v>
-      </c>
-      <c r="J57" t="str">
-        <v>Karthik Venkittu</v>
+        <v>This is 4th test comments added by Rehman</v>
+      </c>
+      <c r="J57">
+        <v>41</v>
       </c>
       <c r="K57" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L57" t="str">
-        <v xml:space="preserve">She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the process. </v>
-      </c>
-      <c r="M57">
-        <v>107</v>
+        <v>2025-07-03 10:33:00</v>
+      </c>
+      <c r="L57" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M57" t="str">
+        <v>Active</v>
       </c>
       <c r="N57" t="str">
-        <v>2025-07-03 12:56:23</v>
-      </c>
-      <c r="O57" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P57" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="58">
@@ -3277,49 +2934,43 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>315</v>
+        <v>147</v>
       </c>
       <c r="C58">
         <v>49</v>
       </c>
       <c r="D58" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E58" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F58" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G58" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H58" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I58" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J58" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>This is 5th test comments added by Rehman</v>
+      </c>
+      <c r="J58">
+        <v>41</v>
       </c>
       <c r="K58" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L58" t="str">
-        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
-      </c>
-      <c r="M58">
-        <v>93</v>
+        <v>2025-07-03 10:34:00</v>
+      </c>
+      <c r="L58" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Active</v>
       </c>
       <c r="N58" t="str">
-        <v>2025-06-25 19:42:31</v>
-      </c>
-      <c r="O58" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P58" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="59">
@@ -3327,49 +2978,43 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="C59">
         <v>49</v>
       </c>
       <c r="D59" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E59" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F59" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G59" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H59" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I59" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J59" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>This is 6th test comments added by Rehman</v>
+      </c>
+      <c r="J59">
+        <v>41</v>
       </c>
       <c r="K59" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L59" t="str">
-        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
-      </c>
-      <c r="M59">
-        <v>93</v>
+        <v>2025-07-03 10:35:00</v>
+      </c>
+      <c r="L59" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M59" t="str">
+        <v>Active</v>
       </c>
       <c r="N59" t="str">
-        <v>2025-06-25 19:42:31</v>
-      </c>
-      <c r="O59" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P59" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="60">
@@ -3377,49 +3022,43 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="C60">
         <v>49</v>
       </c>
       <c r="D60" t="str">
-        <v>N/A</v>
+        <v>Employee_49</v>
       </c>
       <c r="E60" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F60" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G60" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman Shahid</v>
       </c>
       <c r="H60" t="str">
-        <v>N/A</v>
+        <v>Muhammad Rehman S.</v>
       </c>
       <c r="I60" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J60" t="str">
-        <v>Farhan Ahmed</v>
+        <v>This is 7th test comments added by Rehman</v>
+      </c>
+      <c r="J60">
+        <v>41</v>
       </c>
       <c r="K60" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L60" t="str">
-        <v>Test Comment</v>
-      </c>
-      <c r="M60">
-        <v>12</v>
+        <v>2025-07-03 10:36:00</v>
+      </c>
+      <c r="L60" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Active</v>
       </c>
       <c r="N60" t="str">
-        <v>2025-06-26 15:36:48</v>
-      </c>
-      <c r="O60" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P60" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="61">
@@ -3427,49 +3066,43 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="C61">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D61" t="str">
-        <v>N/A</v>
+        <v>Employee_50</v>
       </c>
       <c r="E61" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F61" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G61" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H61" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I61" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J61" t="str">
-        <v>Farhan Ahmed</v>
+        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="J61">
+        <v>78</v>
       </c>
       <c r="K61" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L61" t="str">
-        <v>Test Comment</v>
-      </c>
-      <c r="M61">
-        <v>12</v>
+        <v>2025-07-03 13:24:52</v>
+      </c>
+      <c r="L61" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Active</v>
       </c>
       <c r="N61" t="str">
-        <v>2025-06-26 15:36:49</v>
-      </c>
-      <c r="O61" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P61" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="62">
@@ -3477,49 +3110,43 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D62" t="str">
-        <v>N/A</v>
+        <v>Employee_52</v>
       </c>
       <c r="E62" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F62" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G62" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H62" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I62" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J62" t="str">
-        <v>Farhan Ahmed</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
+      </c>
+      <c r="J62">
+        <v>51</v>
       </c>
       <c r="K62" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L62" t="str">
-        <v>Test comment 2</v>
-      </c>
-      <c r="M62">
-        <v>14</v>
+        <v>2025-07-03 09:30:00</v>
+      </c>
+      <c r="L62" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M62" t="str">
+        <v>Active</v>
       </c>
       <c r="N62" t="str">
-        <v>2025-06-26 15:37:05</v>
-      </c>
-      <c r="O62" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P62" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="63">
@@ -3527,49 +3154,43 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="C63">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D63" t="str">
-        <v>N/A</v>
+        <v>Employee_52</v>
       </c>
       <c r="E63" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F63" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G63" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H63" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I63" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J63" t="str">
-        <v>Farhan Ahmed</v>
+        <v>JE Dunn ongoing maintenance support</v>
+      </c>
+      <c r="J63">
+        <v>35</v>
       </c>
       <c r="K63" t="str">
-        <v>Farhan A.</v>
-      </c>
-      <c r="L63" t="str">
-        <v>Test comment 2</v>
-      </c>
-      <c r="M63">
-        <v>14</v>
+        <v>2025-07-04 10:15:00</v>
+      </c>
+      <c r="L63" s="1">
+        <v>45842</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Active</v>
       </c>
       <c r="N63" t="str">
-        <v>2025-06-26 15:37:06</v>
-      </c>
-      <c r="O63" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P63" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="64">
@@ -3577,49 +3198,43 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="C64">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D64" t="str">
-        <v>N/A</v>
+        <v>Employee_53</v>
       </c>
       <c r="E64" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F64" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G64" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H64" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I64" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J64" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
+      </c>
+      <c r="J64">
+        <v>51</v>
       </c>
       <c r="K64" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L64" t="str">
-        <v>This is 3rd test comments added by Rehman</v>
-      </c>
-      <c r="M64">
-        <v>41</v>
+        <v>2025-07-03 09:45:00</v>
+      </c>
+      <c r="L64" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M64" t="str">
+        <v>Active</v>
       </c>
       <c r="N64" t="str">
-        <v>2025-06-26 15:38:39</v>
-      </c>
-      <c r="O64" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P64" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="65">
@@ -3627,49 +3242,43 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="C65">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D65" t="str">
-        <v>N/A</v>
+        <v>Employee_55</v>
       </c>
       <c r="E65" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F65" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G65" t="str">
-        <v>N/A</v>
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="H65" t="str">
-        <v>N/A</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="I65" t="str">
-        <v>Employee_49</v>
-      </c>
-      <c r="J65" t="str">
-        <v>Muhammad Rehman Shahid</v>
+        <v>Kids delivery</v>
+      </c>
+      <c r="J65">
+        <v>13</v>
       </c>
       <c r="K65" t="str">
-        <v>Muhammad Rehman S.</v>
-      </c>
-      <c r="L65" t="str">
-        <v>This is 3rd test comments added by Rehman</v>
-      </c>
-      <c r="M65">
-        <v>41</v>
+        <v>2025-07-02 14:30:00</v>
+      </c>
+      <c r="L65" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M65" t="str">
+        <v>Active</v>
       </c>
       <c r="N65" t="str">
-        <v>2025-06-26 15:38:40</v>
-      </c>
-      <c r="O65" s="1">
-        <v>45834</v>
-      </c>
-      <c r="P65" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="66">
@@ -3677,49 +3286,43 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D66" t="str">
-        <v>N/A</v>
+        <v>Employee_55</v>
       </c>
       <c r="E66" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F66" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G66" t="str">
-        <v>N/A</v>
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="H66" t="str">
-        <v>N/A</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="I66" t="str">
-        <v>Employee_50</v>
-      </c>
-      <c r="J66" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Kids delivery - ongoing project</v>
+      </c>
+      <c r="J66">
+        <v>31</v>
       </c>
       <c r="K66" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L66" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="M66">
-        <v>79</v>
+        <v>2025-07-02 14:31:00</v>
+      </c>
+      <c r="L66" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M66" t="str">
+        <v>Active</v>
       </c>
       <c r="N66" t="str">
-        <v>2025-07-03 13:24:52</v>
-      </c>
-      <c r="O66" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P66" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="67">
@@ -3727,49 +3330,43 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="C67">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D67" t="str">
-        <v>N/A</v>
+        <v>Employee_57</v>
       </c>
       <c r="E67" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F67" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G67" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H67" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I67" t="str">
-        <v>Employee_52</v>
-      </c>
-      <c r="J67" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>He is currently working in maintenance and support - From 3rd July</v>
+      </c>
+      <c r="J67">
+        <v>66</v>
       </c>
       <c r="K67" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L67" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
-      </c>
-      <c r="M67">
-        <v>52</v>
+        <v>2025-07-03 10:30:00</v>
+      </c>
+      <c r="L67" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M67" t="str">
+        <v>Active</v>
       </c>
       <c r="N67" t="str">
-        <v>2025-06-25 20:08:16</v>
-      </c>
-      <c r="O67" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P67" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="68">
@@ -3777,49 +3374,43 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="C68">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D68" t="str">
-        <v>N/A</v>
+        <v>Employee_57</v>
       </c>
       <c r="E68" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F68" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G68" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H68" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I68" t="str">
-        <v>Employee_52</v>
-      </c>
-      <c r="J68" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Maintenance support role continuation</v>
+      </c>
+      <c r="J68">
+        <v>37</v>
       </c>
       <c r="K68" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L68" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
-      </c>
-      <c r="M68">
-        <v>52</v>
+        <v>2025-07-04 11:20:00</v>
+      </c>
+      <c r="L68" s="1">
+        <v>45842</v>
+      </c>
+      <c r="M68" t="str">
+        <v>Active</v>
       </c>
       <c r="N68" t="str">
-        <v>2025-06-25 20:08:16</v>
-      </c>
-      <c r="O68" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P68" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="69">
@@ -3827,49 +3418,43 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="C69">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D69" t="str">
-        <v>N/A</v>
+        <v>Employee_58</v>
       </c>
       <c r="E69" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F69" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G69" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H69" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I69" t="str">
-        <v>Employee_53</v>
-      </c>
-      <c r="J69" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>He is working in maintenance - From 3rd July</v>
+      </c>
+      <c r="J69">
+        <v>44</v>
       </c>
       <c r="K69" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L69" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
-      </c>
-      <c r="M69">
-        <v>52</v>
+        <v>2025-07-03 11:00:00</v>
+      </c>
+      <c r="L69" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Active</v>
       </c>
       <c r="N69" t="str">
-        <v>2025-07-02 20:39:36</v>
-      </c>
-      <c r="O69" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P69" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="70">
@@ -3877,49 +3462,43 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D70" t="str">
-        <v>N/A</v>
+        <v>Employee_60</v>
       </c>
       <c r="E70" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F70" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G70" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H70" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I70" t="str">
-        <v>Employee_55</v>
-      </c>
-      <c r="J70" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Moved to Agriserv project effective from 1st July</v>
+      </c>
+      <c r="J70">
+        <v>49</v>
       </c>
       <c r="K70" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L70" t="str">
-        <v>Kids delivery</v>
-      </c>
-      <c r="M70">
-        <v>13</v>
+        <v>2025-07-01 14:30:00</v>
+      </c>
+      <c r="L70" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Active</v>
       </c>
       <c r="N70" t="str">
-        <v>2025-06-23 18:47:45</v>
-      </c>
-      <c r="O70" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P70" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="71">
@@ -3927,49 +3506,43 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="C71">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D71" t="str">
-        <v>N/A</v>
+        <v>Employee_61</v>
       </c>
       <c r="E71" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F71" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G71" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H71" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I71" t="str">
-        <v>Employee_55</v>
-      </c>
-      <c r="J71" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
+      </c>
+      <c r="J71">
+        <v>52</v>
       </c>
       <c r="K71" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L71" t="str">
-        <v>Kids delivery</v>
-      </c>
-      <c r="M71">
-        <v>13</v>
+        <v>2025-07-01 15:45:00</v>
+      </c>
+      <c r="L71" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Active</v>
       </c>
       <c r="N71" t="str">
-        <v>2025-06-23 18:47:45</v>
-      </c>
-      <c r="O71" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P71" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="72">
@@ -3977,49 +3550,43 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="C72">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D72" t="str">
-        <v>N/A</v>
+        <v>Employee_61</v>
       </c>
       <c r="E72" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F72" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G72" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H72" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I72" t="str">
-        <v>Employee_57</v>
-      </c>
-      <c r="J72" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>KO Requirements analysis ongoing</v>
+      </c>
+      <c r="J72">
+        <v>32</v>
       </c>
       <c r="K72" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L72" t="str">
-        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
-      </c>
-      <c r="M72">
-        <v>86</v>
+        <v>2025-07-02 16:20:00</v>
+      </c>
+      <c r="L72" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M72" t="str">
+        <v>Active</v>
       </c>
       <c r="N72" t="str">
-        <v>2025-06-25 20:03:58</v>
-      </c>
-      <c r="O72" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P72" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="73">
@@ -4027,49 +3594,43 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="C73">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D73" t="str">
-        <v>N/A</v>
+        <v>Employee_63</v>
       </c>
       <c r="E73" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F73" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G73" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H73" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I73" t="str">
-        <v>Employee_57</v>
-      </c>
-      <c r="J73" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
+      </c>
+      <c r="J73">
+        <v>52</v>
       </c>
       <c r="K73" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L73" t="str">
-        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
-      </c>
-      <c r="M73">
-        <v>86</v>
+        <v>2025-07-01 16:00:00</v>
+      </c>
+      <c r="L73" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Active</v>
       </c>
       <c r="N73" t="str">
-        <v>2025-06-25 20:03:59</v>
-      </c>
-      <c r="O73" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P73" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="74">
@@ -4077,49 +3638,43 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="C74">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D74" t="str">
-        <v>N/A</v>
+        <v>Employee_68</v>
       </c>
       <c r="E74" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F74" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G74" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H74" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I74" t="str">
-        <v>Employee_58</v>
-      </c>
-      <c r="J74" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>He handles Proposal Management for entire DC BU</v>
+      </c>
+      <c r="J74">
+        <v>47</v>
       </c>
       <c r="K74" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L74" t="str">
-        <v xml:space="preserve">He is working in maintance - From 3rd July he will be billable </v>
-      </c>
-      <c r="M74">
-        <v>63</v>
+        <v>2025-06-25 17:30:00</v>
+      </c>
+      <c r="L74" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Active</v>
       </c>
       <c r="N74" t="str">
-        <v>2025-07-02 20:27:11</v>
-      </c>
-      <c r="O74" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P74" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="75">
@@ -4127,49 +3682,43 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>332</v>
+        <v>164</v>
       </c>
       <c r="C75">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D75" t="str">
-        <v>N/A</v>
+        <v>Employee_70</v>
       </c>
       <c r="E75" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F75" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G75" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H75" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I75" t="str">
-        <v>Employee_60</v>
-      </c>
-      <c r="J75" t="str">
-        <v>Karthik Venkittu</v>
+        <v>Managing MENA Bev and JBS accounts, actively involved in operational coordination</v>
+      </c>
+      <c r="J75">
+        <v>81</v>
       </c>
       <c r="K75" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L75" t="str">
-        <v>Moved to Agriserv project effective from 3rd July</v>
-      </c>
-      <c r="M75">
-        <v>49</v>
+        <v>2025-06-25 12:30:00</v>
+      </c>
+      <c r="L75" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Active</v>
       </c>
       <c r="N75" t="str">
-        <v>2025-07-03 12:39:31</v>
-      </c>
-      <c r="O75" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P75" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="76">
@@ -4177,49 +3726,43 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="C76">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D76" t="str">
-        <v>N/A</v>
+        <v>Employee_70</v>
       </c>
       <c r="E76" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F76" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G76" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H76" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I76" t="str">
-        <v>Employee_61</v>
-      </c>
-      <c r="J76" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>JBS Pakistan operations management - ongoing project coordination</v>
+      </c>
+      <c r="J76">
+        <v>65</v>
       </c>
       <c r="K76" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L76" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
-      </c>
-      <c r="M76">
-        <v>83</v>
+        <v>2025-06-26 14:45:00</v>
+      </c>
+      <c r="L76" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Active</v>
       </c>
       <c r="N76" t="str">
-        <v>2025-06-25 20:08:38</v>
-      </c>
-      <c r="O76" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P76" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="77">
@@ -4227,49 +3770,43 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D77" t="str">
-        <v>N/A</v>
+        <v>Employee_71</v>
       </c>
       <c r="E77" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F77" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G77" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H77" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I77" t="str">
-        <v>Employee_61</v>
-      </c>
-      <c r="J77" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
+      </c>
+      <c r="J77">
+        <v>73</v>
       </c>
       <c r="K77" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L77" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
-      </c>
-      <c r="M77">
-        <v>83</v>
+        <v>2025-06-25 18:30:00</v>
+      </c>
+      <c r="L77" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M77" t="str">
+        <v>Active</v>
       </c>
       <c r="N77" t="str">
-        <v>2025-06-25 20:08:38</v>
-      </c>
-      <c r="O77" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P77" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="78">
@@ -4277,49 +3814,43 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="C78">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D78" t="str">
-        <v>N/A</v>
+        <v>Employee_71</v>
       </c>
       <c r="E78" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F78" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G78" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H78" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I78" t="str">
-        <v>Employee_63</v>
-      </c>
-      <c r="J78" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Transition planning for Arcelik projects</v>
+      </c>
+      <c r="J78">
+        <v>40</v>
       </c>
       <c r="K78" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L78" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
-      </c>
-      <c r="M78">
-        <v>83</v>
+        <v>2025-06-29 16:45:00</v>
+      </c>
+      <c r="L78" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M78" t="str">
+        <v>Active</v>
       </c>
       <c r="N78" t="str">
-        <v>2025-07-02 20:40:00</v>
-      </c>
-      <c r="O78" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P78" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="79">
@@ -4327,49 +3858,43 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="C79">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D79" t="str">
-        <v>N/A</v>
+        <v>Employee_71</v>
       </c>
       <c r="E79" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F79" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G79" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H79" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I79" t="str">
-        <v>Employee_68</v>
-      </c>
-      <c r="J79" t="str">
-        <v>Karthik Venkittu</v>
+        <v>Last working day - 30th June.</v>
+      </c>
+      <c r="J79">
+        <v>29</v>
       </c>
       <c r="K79" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L79" t="str">
-        <v xml:space="preserve">He handles Proposal Management for entire BU and will be a non billable resource.  </v>
-      </c>
-      <c r="M79">
-        <v>83</v>
+        <v>2025-06-30 18:00:00</v>
+      </c>
+      <c r="L79" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M79" t="str">
+        <v>Active</v>
       </c>
       <c r="N79" t="str">
-        <v>2025-07-03 12:33:37</v>
-      </c>
-      <c r="O79" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P79" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="80">
@@ -4377,49 +3902,43 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D80" t="str">
-        <v>N/A</v>
+        <v>Employee_73</v>
       </c>
       <c r="E80" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F80" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G80" t="str">
-        <v>N/A</v>
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="H80" t="str">
-        <v>N/A</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="I80" t="str">
-        <v>Employee_70</v>
-      </c>
-      <c r="J80" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>from June mapped into August Shopify Plus</v>
+      </c>
+      <c r="J80">
+        <v>41</v>
       </c>
       <c r="K80" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L80" t="str">
-        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—currently covered under MENA Bev.</v>
-      </c>
-      <c r="M80">
-        <v>132</v>
+        <v>2025-06-30 17:45:00</v>
+      </c>
+      <c r="L80" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M80" t="str">
+        <v>Active</v>
       </c>
       <c r="N80" t="str">
-        <v>2025-06-25 19:58:06</v>
-      </c>
-      <c r="O80" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P80" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="81">
@@ -4427,49 +3946,43 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="C81">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D81" t="str">
-        <v>N/A</v>
+        <v>Employee_73</v>
       </c>
       <c r="E81" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F81" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G81" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H81" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I81" t="str">
-        <v>Employee_70</v>
-      </c>
-      <c r="J81" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Shopify Plus migration planning</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
       </c>
       <c r="K81" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L81" t="str">
-        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—currently covered under MENA Bev.</v>
-      </c>
-      <c r="M81">
-        <v>132</v>
+        <v>2025-07-01 14:20:00</v>
+      </c>
+      <c r="L81" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M81" t="str">
+        <v>Active</v>
       </c>
       <c r="N81" t="str">
-        <v>2025-06-25 19:58:06</v>
-      </c>
-      <c r="O81" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P81" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="82">
@@ -4477,49 +3990,43 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="C82">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D82" t="str">
-        <v>N/A</v>
+        <v>Employee_73</v>
       </c>
       <c r="E82" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F82" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G82" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H82" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I82" t="str">
-        <v>Employee_71</v>
-      </c>
-      <c r="J82" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
+      </c>
+      <c r="J82">
+        <v>69</v>
       </c>
       <c r="K82" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L82" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
-      </c>
-      <c r="M82">
-        <v>30</v>
+        <v>2025-07-25 16:30:00</v>
+      </c>
+      <c r="L82" s="1">
+        <v>45863</v>
+      </c>
+      <c r="M82" t="str">
+        <v>Active</v>
       </c>
       <c r="N82" t="str">
-        <v>2025-06-30 17:07:52</v>
-      </c>
-      <c r="O82" s="1">
-        <v>45838</v>
-      </c>
-      <c r="P82" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="83">
@@ -4527,49 +4034,43 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="C83">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D83" t="str">
-        <v>N/A</v>
+        <v>Employee_74</v>
       </c>
       <c r="E83" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F83" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G83" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H83" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I83" t="str">
-        <v>Employee_71</v>
-      </c>
-      <c r="J83" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+      </c>
+      <c r="J83">
+        <v>91</v>
       </c>
       <c r="K83" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L83" t="str">
-        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
-      </c>
-      <c r="M83">
-        <v>75</v>
+        <v>2025-07-02 19:30:00</v>
+      </c>
+      <c r="L83" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M83" t="str">
+        <v>Active</v>
       </c>
       <c r="N83" t="str">
-        <v>2025-07-02 20:23:53</v>
-      </c>
-      <c r="O83" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P83" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="84">
@@ -4577,49 +4078,43 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="C84">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D84" t="str">
-        <v>N/A</v>
+        <v>Employee_74</v>
       </c>
       <c r="E84" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F84" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G84" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H84" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I84" t="str">
-        <v>Employee_71</v>
-      </c>
-      <c r="J84" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Optimizely training preparation</v>
+      </c>
+      <c r="J84">
+        <v>31</v>
       </c>
       <c r="K84" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L84" t="str">
-        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
-      </c>
-      <c r="M84">
-        <v>75</v>
+        <v>2025-07-03 10:45:00</v>
+      </c>
+      <c r="L84" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M84" t="str">
+        <v>Active</v>
       </c>
       <c r="N84" t="str">
-        <v>2025-07-03 13:26:09</v>
-      </c>
-      <c r="O84" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P84" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="85">
@@ -4627,49 +4122,43 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Employee_75</v>
+      </c>
+      <c r="E85" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="F85" t="str">
+        <v>TBD - See Note</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Kishore Kumar Thirupuraanandan</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Kishore Kumar T.</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
+      </c>
+      <c r="J85">
         <v>73</v>
       </c>
-      <c r="D85" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E85" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F85" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G85" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H85" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I85" t="str">
-        <v>Employee_73</v>
-      </c>
-      <c r="J85" t="str">
-        <v>Mahaveer Amudhachandran</v>
-      </c>
       <c r="K85" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L85" t="str">
-        <v>from June mapped into August Shopify Plugin</v>
-      </c>
-      <c r="M85">
-        <v>43</v>
+        <v>2025-06-25 19:56:10</v>
+      </c>
+      <c r="L85" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M85" t="str">
+        <v>Active</v>
       </c>
       <c r="N85" t="str">
-        <v>2025-06-23 18:49:00</v>
-      </c>
-      <c r="O85" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P85" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="86">
@@ -4677,49 +4166,43 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D86" t="str">
-        <v>N/A</v>
+        <v>Employee_75</v>
       </c>
       <c r="E86" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F86" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G86" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H86" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I86" t="str">
-        <v>Employee_73</v>
-      </c>
-      <c r="J86" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Arcelik project cost margin coverage analysis</v>
+      </c>
+      <c r="J86">
+        <v>45</v>
       </c>
       <c r="K86" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L86" t="str">
-        <v>from June mapped into August Shopify Plugin</v>
-      </c>
-      <c r="M86">
-        <v>43</v>
+        <v>2025-06-28 11:30:00</v>
+      </c>
+      <c r="L86" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M86" t="str">
+        <v>Active</v>
       </c>
       <c r="N86" t="str">
-        <v>2025-06-23 18:49:00</v>
-      </c>
-      <c r="O86" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P86" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="87">
@@ -4727,49 +4210,43 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C87">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D87" t="str">
-        <v>N/A</v>
+        <v>Employee_75</v>
       </c>
       <c r="E87" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F87" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G87" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H87" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I87" t="str">
-        <v>Employee_73</v>
-      </c>
-      <c r="J87" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Dollance integration planning phase</v>
+      </c>
+      <c r="J87">
+        <v>35</v>
       </c>
       <c r="K87" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L87" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
-      </c>
-      <c r="M87">
-        <v>55</v>
+        <v>2025-06-29 13:15:00</v>
+      </c>
+      <c r="L87" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Active</v>
       </c>
       <c r="N87" t="str">
-        <v>2025-07-03 13:28:51</v>
-      </c>
-      <c r="O87" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P87" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="88">
@@ -4777,49 +4254,43 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="C88">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D88" t="str">
-        <v>N/A</v>
+        <v>Employee_75</v>
       </c>
       <c r="E88" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F88" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G88" t="str">
-        <v>N/A</v>
+        <v>Mahaveer Amudhachandran</v>
       </c>
       <c r="H88" t="str">
-        <v>N/A</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="I88" t="str">
-        <v>Employee_74</v>
-      </c>
-      <c r="J88" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Released from Wildfork and can't find another opportunity for his skills</v>
+      </c>
+      <c r="J88">
+        <v>72</v>
       </c>
       <c r="K88" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L88" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case - Wild fork use case</v>
-      </c>
-      <c r="M88">
-        <v>130</v>
+        <v>2025-07-01 16:20:00</v>
+      </c>
+      <c r="L88" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Active</v>
       </c>
       <c r="N88" t="str">
-        <v>2025-06-25 19:44:15</v>
-      </c>
-      <c r="O88" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P88" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="89">
@@ -4827,49 +4298,43 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="C89">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D89" t="str">
-        <v>N/A</v>
+        <v>Employee_76</v>
       </c>
       <c r="E89" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F89" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G89" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H89" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I89" t="str">
-        <v>Employee_74</v>
-      </c>
-      <c r="J89" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
+      </c>
+      <c r="J89">
+        <v>69</v>
       </c>
       <c r="K89" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L89" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case - Wild fork use case</v>
-      </c>
-      <c r="M89">
-        <v>130</v>
+        <v>2025-07-25 17:00:00</v>
+      </c>
+      <c r="L89" s="1">
+        <v>45863</v>
+      </c>
+      <c r="M89" t="str">
+        <v>Active</v>
       </c>
       <c r="N89" t="str">
-        <v>2025-06-25 19:44:15</v>
-      </c>
-      <c r="O89" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P89" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="90">
@@ -4877,49 +4342,43 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="C90">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D90" t="str">
-        <v>N/A</v>
+        <v>Employee_80</v>
       </c>
       <c r="E90" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F90" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G90" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H90" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I90" t="str">
-        <v>Employee_75</v>
-      </c>
-      <c r="J90" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
+      </c>
+      <c r="J90">
+        <v>86</v>
       </c>
       <c r="K90" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L90" t="str">
-        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried one month for AI training but she cant able to pickup.</v>
-      </c>
-      <c r="M90">
-        <v>153</v>
+        <v>2025-06-25 15:30:00</v>
+      </c>
+      <c r="L90" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M90" t="str">
+        <v>Active</v>
       </c>
       <c r="N90" t="str">
-        <v>2025-06-23 18:53:03</v>
-      </c>
-      <c r="O90" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P90" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="91">
@@ -4927,49 +4386,43 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="C91">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D91" t="str">
-        <v>N/A</v>
+        <v>Employee_80</v>
       </c>
       <c r="E91" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F91" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G91" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H91" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I91" t="str">
-        <v>Employee_75</v>
-      </c>
-      <c r="J91" t="str">
-        <v>Mahaveer Amudhachandran</v>
+        <v>Petbarn project management - ongoing training phase</v>
+      </c>
+      <c r="J91">
+        <v>51</v>
       </c>
       <c r="K91" t="str">
-        <v>Mahaveer A.</v>
-      </c>
-      <c r="L91" t="str">
-        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried one month for AI training but she cant able to pickup.</v>
-      </c>
-      <c r="M91">
-        <v>153</v>
+        <v>2025-06-28 14:20:00</v>
+      </c>
+      <c r="L91" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M91" t="str">
+        <v>Active</v>
       </c>
       <c r="N91" t="str">
-        <v>2025-06-23 18:53:03</v>
-      </c>
-      <c r="O91" s="1">
-        <v>45831</v>
-      </c>
-      <c r="P91" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="92">
@@ -4977,49 +4430,43 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D92" t="str">
-        <v>N/A</v>
+        <v>Employee_80</v>
       </c>
       <c r="E92" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F92" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G92" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H92" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I92" t="str">
-        <v>Employee_75</v>
-      </c>
-      <c r="J92" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Shopify integration development in progress</v>
+      </c>
+      <c r="J92">
+        <v>43</v>
       </c>
       <c r="K92" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L92" t="str">
-        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
-      </c>
-      <c r="M92">
-        <v>75</v>
+        <v>2025-06-30 16:15:00</v>
+      </c>
+      <c r="L92" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M92" t="str">
+        <v>Active</v>
       </c>
       <c r="N92" t="str">
-        <v>2025-06-25 19:58:34</v>
-      </c>
-      <c r="O92" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P92" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="93">
@@ -5027,49 +4474,43 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="C93">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D93" t="str">
-        <v>N/A</v>
+        <v>Employee_80</v>
       </c>
       <c r="E93" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F93" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G93" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H93" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I93" t="str">
-        <v>Employee_75</v>
-      </c>
-      <c r="J93" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Barns and Noble project coordination</v>
+      </c>
+      <c r="J93">
+        <v>36</v>
       </c>
       <c r="K93" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L93" t="str">
-        <v xml:space="preserve">Managing - Arcelik, Dollance , Arceli Hitachi - Cost Covered in the Margin </v>
-      </c>
-      <c r="M93">
-        <v>75</v>
+        <v>2025-07-01 10:45:00</v>
+      </c>
+      <c r="L93" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M93" t="str">
+        <v>Active</v>
       </c>
       <c r="N93" t="str">
-        <v>2025-06-25 19:58:34</v>
-      </c>
-      <c r="O93" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P93" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="94">
@@ -5077,49 +4518,43 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>351</v>
+        <v>153</v>
       </c>
       <c r="C94">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D94" t="str">
-        <v>N/A</v>
+        <v>Employee_80</v>
       </c>
       <c r="E94" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F94" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G94" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H94" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I94" t="str">
-        <v>Employee_76</v>
-      </c>
-      <c r="J94" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
+      </c>
+      <c r="J94">
+        <v>78</v>
       </c>
       <c r="K94" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L94" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
-      </c>
-      <c r="M94">
-        <v>55</v>
+        <v>2025-07-03 13:24:52</v>
+      </c>
+      <c r="L94" s="1">
+        <v>45841</v>
+      </c>
+      <c r="M94" t="str">
+        <v>Active</v>
       </c>
       <c r="N94" t="str">
-        <v>2025-07-02 20:27:34</v>
-      </c>
-      <c r="O94" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P94" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="95">
@@ -5127,49 +4562,43 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="C95">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D95" t="str">
-        <v>N/A</v>
+        <v>Employee_84</v>
       </c>
       <c r="E95" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F95" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G95" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H95" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I95" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="J95" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Shadow resource as per the SOW - Agreed with Sanjay</v>
+      </c>
+      <c r="J95">
+        <v>51</v>
       </c>
       <c r="K95" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L95" t="str">
-        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
-      </c>
-      <c r="M95">
-        <v>86</v>
+        <v>2025-06-25 19:15:00</v>
+      </c>
+      <c r="L95" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M95" t="str">
+        <v>Active</v>
       </c>
       <c r="N95" t="str">
-        <v>2025-06-25 19:39:31</v>
-      </c>
-      <c r="O95" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P95" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="96">
@@ -5177,49 +4606,43 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="C96">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D96" t="str">
-        <v>N/A</v>
+        <v>Employee_84</v>
       </c>
       <c r="E96" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F96" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G96" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H96" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I96" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="J96" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>SOW compliance and shadow resource coordination</v>
+      </c>
+      <c r="J96">
+        <v>47</v>
       </c>
       <c r="K96" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L96" t="str">
-        <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
-      </c>
-      <c r="M96">
-        <v>86</v>
+        <v>2025-06-26 15:45:00</v>
+      </c>
+      <c r="L96" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M96" t="str">
+        <v>Active</v>
       </c>
       <c r="N96" t="str">
-        <v>2025-06-25 19:39:31</v>
-      </c>
-      <c r="O96" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P96" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="97">
@@ -5227,49 +4650,43 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>354</v>
+        <v>151</v>
       </c>
       <c r="C97">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D97" t="str">
-        <v>N/A</v>
+        <v>Employee_94</v>
       </c>
       <c r="E97" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F97" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G97" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H97" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I97" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="J97" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support</v>
+      </c>
+      <c r="J97">
+        <v>85</v>
       </c>
       <c r="K97" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L97" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="M97">
-        <v>79</v>
+        <v>2025-07-02 19:20:00</v>
+      </c>
+      <c r="L97" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M97" t="str">
+        <v>Active</v>
       </c>
       <c r="N97" t="str">
-        <v>2025-06-25 19:56:23</v>
-      </c>
-      <c r="O97" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P97" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="98">
@@ -5277,49 +4694,43 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="C98">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D98" t="str">
-        <v>N/A</v>
+        <v>Employee_97</v>
       </c>
       <c r="E98" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F98" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G98" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H98" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I98" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="J98" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>25% Billable in Augusta, From July we are planning to make him 75% billable</v>
+      </c>
+      <c r="J98">
+        <v>75</v>
       </c>
       <c r="K98" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L98" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="M98">
-        <v>79</v>
+        <v>2025-06-25 20:30:00</v>
+      </c>
+      <c r="L98" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M98" t="str">
+        <v>Active</v>
       </c>
       <c r="N98" t="str">
-        <v>2025-06-25 19:56:23</v>
-      </c>
-      <c r="O98" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P98" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="99">
@@ -5327,49 +4738,43 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="C99">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D99" t="str">
-        <v>N/A</v>
+        <v>Employee_97</v>
       </c>
       <c r="E99" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F99" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G99" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H99" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I99" t="str">
-        <v>Employee_80</v>
-      </c>
-      <c r="J99" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Augusta project billing escalation plan</v>
+      </c>
+      <c r="J99">
+        <v>39</v>
       </c>
       <c r="K99" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L99" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
-      </c>
-      <c r="M99">
-        <v>79</v>
+        <v>2025-06-26 16:20:00</v>
+      </c>
+      <c r="L99" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M99" t="str">
+        <v>Active</v>
       </c>
       <c r="N99" t="str">
-        <v>2025-07-02 20:23:15</v>
-      </c>
-      <c r="O99" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P99" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="100">
@@ -5377,49 +4782,43 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>357</v>
+        <v>250</v>
       </c>
       <c r="C100">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D100" t="str">
-        <v>N/A</v>
+        <v>Employee_97</v>
       </c>
       <c r="E100" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F100" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G100" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H100" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I100" t="str">
-        <v>Employee_84</v>
-      </c>
-      <c r="J100" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Billable percentage optimization strategy</v>
+      </c>
+      <c r="J100">
+        <v>41</v>
       </c>
       <c r="K100" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L100" t="str">
-        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
-      </c>
-      <c r="M100">
-        <v>63</v>
+        <v>2025-06-27 14:45:00</v>
+      </c>
+      <c r="L100" s="1">
+        <v>45835</v>
+      </c>
+      <c r="M100" t="str">
+        <v>Active</v>
       </c>
       <c r="N100" t="str">
-        <v>2025-06-25 20:11:13</v>
-      </c>
-      <c r="O100" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P100" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="101">
@@ -5427,49 +4826,43 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="C101">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D101" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E101" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F101" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G101" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H101" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I101" t="str">
-        <v>Employee_84</v>
-      </c>
-      <c r="J101" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Training on SAP S4 Hana - Back up Bench resource for SAP S4 Hana</v>
+      </c>
+      <c r="J101">
+        <v>64</v>
       </c>
       <c r="K101" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L101" t="str">
-        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
-      </c>
-      <c r="M101">
-        <v>63</v>
+        <v>2025-06-25 14:30:00</v>
+      </c>
+      <c r="L101" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M101" t="str">
+        <v>Active</v>
       </c>
       <c r="N101" t="str">
-        <v>2025-06-25 20:11:13</v>
-      </c>
-      <c r="O101" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P101" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="102">
@@ -5477,49 +4870,43 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>359</v>
+        <v>159</v>
       </c>
       <c r="C102">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D102" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E102" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F102" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G102" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H102" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I102" t="str">
-        <v>Employee_94</v>
-      </c>
-      <c r="J102" t="str">
-        <v>Karthik Venkittu</v>
+        <v>AI training program - Machine Learning fundamentals</v>
+      </c>
+      <c r="J102">
+        <v>51</v>
       </c>
       <c r="K102" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L102" t="str">
-        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support. He is part of the signed SOW.</v>
-      </c>
-      <c r="M102">
-        <v>116</v>
+        <v>2025-06-26 09:15:00</v>
+      </c>
+      <c r="L102" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M102" t="str">
+        <v>Active</v>
       </c>
       <c r="N102" t="str">
-        <v>2025-07-03 12:31:52</v>
-      </c>
-      <c r="O102" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P102" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="103">
@@ -5527,49 +4914,43 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="C103">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D103" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E103" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F103" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G103" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H103" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I103" t="str">
-        <v>Employee_97</v>
-      </c>
-      <c r="J103" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Python for AI development - ongoing certification</v>
+      </c>
+      <c r="J103">
+        <v>49</v>
       </c>
       <c r="K103" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L103" t="str">
-        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
-      </c>
-      <c r="M103">
-        <v>75</v>
+        <v>2025-06-27 11:20:00</v>
+      </c>
+      <c r="L103" s="1">
+        <v>45835</v>
+      </c>
+      <c r="M103" t="str">
+        <v>Active</v>
       </c>
       <c r="N103" t="str">
-        <v>2025-06-25 20:01:27</v>
-      </c>
-      <c r="O103" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P103" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="104">
@@ -5577,49 +4958,43 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="C104">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D104" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E104" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F104" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G104" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H104" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I104" t="str">
-        <v>Employee_97</v>
-      </c>
-      <c r="J104" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Deep Learning frameworks training - TensorFlow</v>
+      </c>
+      <c r="J104">
+        <v>46</v>
       </c>
       <c r="K104" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L104" t="str">
-        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
-      </c>
-      <c r="M104">
-        <v>75</v>
+        <v>2025-06-28 13:45:00</v>
+      </c>
+      <c r="L104" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M104" t="str">
+        <v>Active</v>
       </c>
       <c r="N104" t="str">
-        <v>2025-06-25 20:01:28</v>
-      </c>
-      <c r="O104" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P104" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="105">
@@ -5627,49 +5002,43 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="C105">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D105" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E105" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F105" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G105" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H105" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I105" t="str">
-        <v>Employee_97</v>
-      </c>
-      <c r="J105" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Neural Networks and Computer Vision modules</v>
+      </c>
+      <c r="J105">
+        <v>43</v>
       </c>
       <c r="K105" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L105" t="str">
-        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
-      </c>
-      <c r="M105">
-        <v>75</v>
+        <v>2025-06-29 16:30:00</v>
+      </c>
+      <c r="L105" s="1">
+        <v>45837</v>
+      </c>
+      <c r="M105" t="str">
+        <v>Active</v>
       </c>
       <c r="N105" t="str">
-        <v>2025-07-03 13:26:37</v>
-      </c>
-      <c r="O105" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P105" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="106">
@@ -5677,49 +5046,43 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>363</v>
+        <v>163</v>
       </c>
       <c r="C106">
         <v>98</v>
       </c>
       <c r="D106" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E106" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F106" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G106" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H106" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I106" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J106" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Natural Language Processing training completion</v>
+      </c>
+      <c r="J106">
+        <v>47</v>
       </c>
       <c r="K106" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L106" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
-      </c>
-      <c r="M106">
-        <v>94</v>
+        <v>2025-06-30 14:50:00</v>
+      </c>
+      <c r="L106" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M106" t="str">
+        <v>Active</v>
       </c>
       <c r="N106" t="str">
-        <v>2025-06-25 19:41:43</v>
-      </c>
-      <c r="O106" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P106" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="107">
@@ -5727,49 +5090,43 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="C107">
         <v>98</v>
       </c>
       <c r="D107" t="str">
-        <v>N/A</v>
+        <v>Employee_98</v>
       </c>
       <c r="E107" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F107" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G107" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H107" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I107" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J107" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+      </c>
+      <c r="J107">
+        <v>91</v>
       </c>
       <c r="K107" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L107" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
-      </c>
-      <c r="M107">
-        <v>94</v>
+        <v>2025-07-02 20:17:19</v>
+      </c>
+      <c r="L107" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M107" t="str">
+        <v>Active</v>
       </c>
       <c r="N107" t="str">
-        <v>2025-06-25 19:41:43</v>
-      </c>
-      <c r="O107" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P107" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="108">
@@ -5777,49 +5134,43 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>366</v>
+        <v>178</v>
       </c>
       <c r="C108">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D108" t="str">
-        <v>N/A</v>
+        <v>Employee_101</v>
       </c>
       <c r="E108" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F108" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G108" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H108" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I108" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J108" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>RAC - ACIMA Extended Aisle - Bench from 1st July</v>
+      </c>
+      <c r="J108">
+        <v>48</v>
       </c>
       <c r="K108" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L108" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M108">
-        <v>109</v>
+        <v>2025-07-01 09:00:00</v>
+      </c>
+      <c r="L108" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M108" t="str">
+        <v>Active</v>
       </c>
       <c r="N108" t="str">
-        <v>2025-06-25 19:43:19</v>
-      </c>
-      <c r="O108" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P108" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="109">
@@ -5827,49 +5178,43 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="C109">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D109" t="str">
-        <v>N/A</v>
+        <v>Employee_101</v>
       </c>
       <c r="E109" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F109" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G109" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H109" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I109" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J109" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>ACIMA project bench status tracking</v>
+      </c>
+      <c r="J109">
+        <v>35</v>
       </c>
       <c r="K109" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L109" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M109">
-        <v>109</v>
+        <v>2025-07-02 11:30:00</v>
+      </c>
+      <c r="L109" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M109" t="str">
+        <v>Active</v>
       </c>
       <c r="N109" t="str">
-        <v>2025-06-25 19:43:19</v>
-      </c>
-      <c r="O109" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P109" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="110">
@@ -5877,49 +5222,43 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="C110">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D110" t="str">
-        <v>N/A</v>
+        <v>Employee_105</v>
       </c>
       <c r="E110" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F110" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G110" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H110" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I110" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J110" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
+      </c>
+      <c r="J110">
+        <v>66</v>
       </c>
       <c r="K110" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L110" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M110">
-        <v>109</v>
+        <v>2025-06-25 21:00:00</v>
+      </c>
+      <c r="L110" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M110" t="str">
+        <v>Active</v>
       </c>
       <c r="N110" t="str">
-        <v>2025-07-02 19:58:46</v>
-      </c>
-      <c r="O110" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P110" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="111">
@@ -5927,49 +5266,43 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="C111">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D111" t="str">
-        <v>N/A</v>
+        <v>Employee_105</v>
       </c>
       <c r="E111" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F111" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G111" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H111" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I111" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J111" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>SAP S4 Hana certification progress</v>
+      </c>
+      <c r="J111">
+        <v>34</v>
       </c>
       <c r="K111" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L111" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M111">
-        <v>109</v>
+        <v>2025-06-26 17:30:00</v>
+      </c>
+      <c r="L111" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M111" t="str">
+        <v>Active</v>
       </c>
       <c r="N111" t="str">
-        <v>2025-07-03 13:22:30</v>
-      </c>
-      <c r="O111" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P111" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="112">
@@ -5977,49 +5310,43 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="C112">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D112" t="str">
-        <v>N/A</v>
+        <v>Employee_106</v>
       </c>
       <c r="E112" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F112" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G112" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H112" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I112" t="str">
-        <v>Employee_98</v>
-      </c>
-      <c r="J112" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
+      </c>
+      <c r="J112">
+        <v>66</v>
       </c>
       <c r="K112" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L112" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana -  Back up  Bench - Less cost  </v>
-      </c>
-      <c r="M112">
-        <v>55</v>
+        <v>2025-06-25 21:15:00</v>
+      </c>
+      <c r="L112" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M112" t="str">
+        <v>Active</v>
       </c>
       <c r="N112" t="str">
-        <v>2025-07-03 13:31:46</v>
-      </c>
-      <c r="O112" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P112" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="113">
@@ -6027,49 +5354,43 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="C113">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D113" t="str">
-        <v>N/A</v>
+        <v>Employee_106</v>
       </c>
       <c r="E113" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F113" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G113" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H113" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I113" t="str">
-        <v>Employee_101</v>
-      </c>
-      <c r="J113" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>SAP S4 Hana backup resource training</v>
+      </c>
+      <c r="J113">
+        <v>36</v>
       </c>
       <c r="K113" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L113" t="str">
-        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
-      </c>
-      <c r="M113">
-        <v>48</v>
+        <v>2025-06-26 18:00:00</v>
+      </c>
+      <c r="L113" s="1">
+        <v>45834</v>
+      </c>
+      <c r="M113" t="str">
+        <v>Active</v>
       </c>
       <c r="N113" t="str">
-        <v>2025-06-25 20:09:21</v>
-      </c>
-      <c r="O113" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P113" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="114">
@@ -6077,49 +5398,43 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="C114">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D114" t="str">
-        <v>N/A</v>
+        <v>Employee_108</v>
       </c>
       <c r="E114" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F114" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G114" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H114" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I114" t="str">
-        <v>Employee_101</v>
-      </c>
-      <c r="J114" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Managing - Mena bev, JBS - Like a account manager</v>
+      </c>
+      <c r="J114">
+        <v>49</v>
       </c>
       <c r="K114" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L114" t="str">
-        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
-      </c>
-      <c r="M114">
-        <v>48</v>
+        <v>2025-06-25 21:30:00</v>
+      </c>
+      <c r="L114" s="1">
+        <v>45833</v>
+      </c>
+      <c r="M114" t="str">
+        <v>Active</v>
       </c>
       <c r="N114" t="str">
-        <v>2025-06-25 20:09:21</v>
-      </c>
-      <c r="O114" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P114" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="115">
@@ -6127,49 +5442,43 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="C115">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D115" t="str">
-        <v>N/A</v>
+        <v>Employee_108</v>
       </c>
       <c r="E115" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F115" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G115" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H115" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I115" t="str">
-        <v>Employee_105</v>
-      </c>
-      <c r="J115" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Account management transition planning</v>
+      </c>
+      <c r="J115">
+        <v>38</v>
       </c>
       <c r="K115" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L115" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
-      </c>
-      <c r="M115">
-        <v>55</v>
+        <v>2025-06-30 19:15:00</v>
+      </c>
+      <c r="L115" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M115" t="str">
+        <v>Active</v>
       </c>
       <c r="N115" t="str">
-        <v>2025-06-25 20:05:46</v>
-      </c>
-      <c r="O115" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P115" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="116">
@@ -6177,49 +5486,43 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>373</v>
+        <v>256</v>
       </c>
       <c r="C116">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D116" t="str">
-        <v>N/A</v>
+        <v>Employee_108</v>
       </c>
       <c r="E116" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F116" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G116" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H116" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I116" t="str">
-        <v>Employee_105</v>
-      </c>
-      <c r="J116" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Moved to RAC project effective from 1st July</v>
+      </c>
+      <c r="J116">
+        <v>44</v>
       </c>
       <c r="K116" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L116" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
-      </c>
-      <c r="M116">
-        <v>55</v>
+        <v>2025-07-01 18:30:00</v>
+      </c>
+      <c r="L116" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M116" t="str">
+        <v>Active</v>
       </c>
       <c r="N116" t="str">
-        <v>2025-06-25 20:05:47</v>
-      </c>
-      <c r="O116" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P116" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="117">
@@ -6227,49 +5530,43 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="C117">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D117" t="str">
-        <v>N/A</v>
+        <v>Employee_117</v>
       </c>
       <c r="E117" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F117" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G117" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H117" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I117" t="str">
-        <v>Employee_106</v>
-      </c>
-      <c r="J117" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
+      </c>
+      <c r="J117">
+        <v>91</v>
       </c>
       <c r="K117" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L117" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
-      </c>
-      <c r="M117">
-        <v>55</v>
+        <v>2025-07-02 20:45:00</v>
+      </c>
+      <c r="L117" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M117" t="str">
+        <v>Active</v>
       </c>
       <c r="N117" t="str">
-        <v>2025-06-25 20:06:23</v>
-      </c>
-      <c r="O117" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P117" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="118">
@@ -6277,49 +5574,43 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="C118">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D118" t="str">
-        <v>N/A</v>
+        <v>Employee_119</v>
       </c>
       <c r="E118" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F118" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G118" t="str">
-        <v>N/A</v>
+        <v>Karthik Venkittu</v>
       </c>
       <c r="H118" t="str">
-        <v>N/A</v>
+        <v>Karthik V.</v>
       </c>
       <c r="I118" t="str">
-        <v>Employee_106</v>
-      </c>
-      <c r="J118" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>Offboarded on 30th June.</v>
+      </c>
+      <c r="J118">
+        <v>24</v>
       </c>
       <c r="K118" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L118" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
-      </c>
-      <c r="M118">
-        <v>55</v>
+        <v>2025-06-30 19:30:00</v>
+      </c>
+      <c r="L118" s="1">
+        <v>45838</v>
+      </c>
+      <c r="M118" t="str">
+        <v>Active</v>
       </c>
       <c r="N118" t="str">
-        <v>2025-06-25 20:06:23</v>
-      </c>
-      <c r="O118" s="1">
-        <v>45833</v>
-      </c>
-      <c r="P118" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
     <row r="119">
@@ -6327,304 +5618,48 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="C119">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D119" t="str">
-        <v>N/A</v>
+        <v>Employee_137</v>
       </c>
       <c r="E119" t="str">
-        <v>Employee Not Found</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="F119" t="str">
-        <v>N/A</v>
+        <v>TBD - See Note</v>
       </c>
       <c r="G119" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar Thirupuraanandan</v>
       </c>
       <c r="H119" t="str">
-        <v>N/A</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="I119" t="str">
-        <v>Employee_108</v>
-      </c>
-      <c r="J119" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
+        <v>She will non billable for initial 3 months - Expecting billable from September 2025</v>
+      </c>
+      <c r="J119">
+        <v>83</v>
       </c>
       <c r="K119" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L119" t="str">
-        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
-      </c>
-      <c r="M119">
-        <v>91</v>
+        <v>2025-07-02 18:45:00</v>
+      </c>
+      <c r="L119" s="1">
+        <v>45840</v>
+      </c>
+      <c r="M119" t="str">
+        <v>Active</v>
       </c>
       <c r="N119" t="str">
-        <v>2025-07-02 20:23:32</v>
-      </c>
-      <c r="O119" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P119" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>377</v>
-      </c>
-      <c r="C120">
-        <v>108</v>
-      </c>
-      <c r="D120" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E120" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F120" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G120" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H120" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I120" t="str">
-        <v>Employee_108</v>
-      </c>
-      <c r="J120" t="str">
-        <v>Karthik Venkittu</v>
-      </c>
-      <c r="K120" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L120" t="str">
-        <v>Moved to RAC project effective from 1st July</v>
-      </c>
-      <c r="M120">
-        <v>44</v>
-      </c>
-      <c r="N120" t="str">
-        <v>2025-07-03 12:38:22</v>
-      </c>
-      <c r="O120" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P120" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>378</v>
-      </c>
-      <c r="C121">
-        <v>108</v>
-      </c>
-      <c r="D121" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E121" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F121" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G121" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H121" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I121" t="str">
-        <v>Employee_108</v>
-      </c>
-      <c r="J121" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="K121" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L121" t="str">
-        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
-      </c>
-      <c r="M121">
-        <v>91</v>
-      </c>
-      <c r="N121" t="str">
-        <v>2025-07-03 13:25:26</v>
-      </c>
-      <c r="O121" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P121" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>379</v>
-      </c>
-      <c r="C122">
-        <v>117</v>
-      </c>
-      <c r="D122" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E122" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F122" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G122" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H122" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I122" t="str">
-        <v>Employee_117</v>
-      </c>
-      <c r="J122" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="K122" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L122" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA Use case</v>
-      </c>
-      <c r="M122">
-        <v>109</v>
-      </c>
-      <c r="N122" t="str">
-        <v>2025-07-03 13:21:56</v>
-      </c>
-      <c r="O122" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P122" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>380</v>
-      </c>
-      <c r="C123">
-        <v>119</v>
-      </c>
-      <c r="D123" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E123" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F123" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G123" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H123" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I123" t="str">
-        <v>Employee_119</v>
-      </c>
-      <c r="J123" t="str">
-        <v>Karthik Venkittu</v>
-      </c>
-      <c r="K123" t="str">
-        <v>Karthik V.</v>
-      </c>
-      <c r="L123" t="str">
-        <v>Offboarded on 30th June.</v>
-      </c>
-      <c r="M123">
-        <v>24</v>
-      </c>
-      <c r="N123" t="str">
-        <v>2025-07-03 12:36:39</v>
-      </c>
-      <c r="O123" s="1">
-        <v>45841</v>
-      </c>
-      <c r="P123" t="str">
-        <v>Active</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>381</v>
-      </c>
-      <c r="C124">
-        <v>137</v>
-      </c>
-      <c r="D124" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E124" t="str">
-        <v>Employee Not Found</v>
-      </c>
-      <c r="F124" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="G124" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="H124" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I124" t="str">
-        <v>Employee_137</v>
-      </c>
-      <c r="J124" t="str">
-        <v>Kishore Kumar Thirupuraanandan</v>
-      </c>
-      <c r="K124" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="L124" t="str">
-        <v>She will non billable for initial 3 months - Expecting billable from September 2025</v>
-      </c>
-      <c r="M124">
-        <v>83</v>
-      </c>
-      <c r="N124" t="str">
-        <v>2025-07-02 19:56:30</v>
-      </c>
-      <c r="O124" s="1">
-        <v>45840</v>
-      </c>
-      <c r="P124" t="str">
-        <v>Active</v>
+        <v>Zoho ID and Employee Name require Azure SQL Database access</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P124"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N119"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6657,7 +5692,7 @@
         <v>Total Chat Messages</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" t="str">
         <v>All messages restored from backup</v>
@@ -6668,7 +5703,7 @@
         <v>Unique Employees with Comments</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="str">
         <v>Employees with at least one comment</v>
@@ -6690,7 +5725,7 @@
         <v>Earliest Message Date</v>
       </c>
       <c r="B5" t="str">
-        <v>2025-06-04</v>
+        <v>2025-06-02</v>
       </c>
       <c r="C5" t="str">
         <v>First recorded message</v>
@@ -6701,7 +5736,7 @@
         <v>Latest Message Date</v>
       </c>
       <c r="B6" t="str">
-        <v>2025-07-06</v>
+        <v>2025-07-25</v>
       </c>
       <c r="C6" t="str">
         <v>Most recent message</v>
@@ -6738,7 +5773,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6785,10 +5820,10 @@
         <v>Kishore Kumar T., Farhan A., Muhammad Rehman S.</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-06-26</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve">There is no active opportunity at the moment. Mahaveer intends to provide him  in Optimizely </v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
       </c>
     </row>
     <row r="3">
@@ -6805,10 +5840,10 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E3" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F3" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training</v>
+        <v>Training on SAP S4 Hana - Back up Bench resource for SAP S4 Hana</v>
       </c>
     </row>
     <row r="4">
@@ -6825,7 +5860,7 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E4" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F4" t="str">
         <v>Currently partially billable on the Petbarn project and undergoing training in Shopify</v>
@@ -6833,270 +5868,270 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B5" t="str">
-        <v>Employee_21</v>
+        <v>Employee_42</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>Muhammad Rehman S., Kishore Kumar T., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F5" t="str">
-        <v>Abdullah is Non Billable.</v>
+        <v>Managing - Work Wear, Gallagher, Pet Barn - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B6" t="str">
-        <v>Employee_42</v>
+        <v>Employee_75</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Mahaveer A.</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F6" t="str">
-        <v>Managing - Woek Wear, Gallagher, Pet Barn</v>
+        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B7" t="str">
-        <v>Employee_48</v>
+        <v>Employee_4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
-        <v>Kishore Kumar T., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-27</v>
       </c>
       <c r="F7" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+        <v>Ignore the above comment - 25% Billable in Augusta</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B8" t="str">
-        <v>Employee_75</v>
+        <v>Employee_21</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="str">
-        <v>Mahaveer A., Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Muhammad Rehman S.</v>
       </c>
       <c r="E8" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F8" t="str">
-        <v>Released from Wildfork and can't find any billable oppurnitiny. So, releasing from the org. &gt;tried o...</v>
+        <v>Abdullah is Non Billable.</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B9" t="str">
-        <v>Employee_4</v>
+        <v>Employee_41</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A., Karthik V.</v>
       </c>
       <c r="E9" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F9" t="str">
-        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
+        <v>Practice .. just release from MARS</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10" t="str">
-        <v>Employee_39</v>
+        <v>Employee_48</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Karthik V.</v>
       </c>
       <c r="E10" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F10" t="str">
-        <v>Keico (projection) -  (two and half month’s bench)</v>
+        <v>Managing - PlaceMaker &amp; Pet Barn (AREN) - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B11" t="str">
-        <v>Employee_41</v>
+        <v>Employee_71</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <v>Mahaveer A., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E11" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve">Practice .. just release from MARS... </v>
+        <v>Managing - Arcelik, Dollance, Arceli Hitachi - Cost covered in the Margin</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" t="str">
-        <v>Employee_71</v>
+        <v>Employee_73</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A., Kishore Kumar T.</v>
       </c>
       <c r="E12" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-25</v>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
+        <v>from June mapped into August Shopify Plus</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B13" t="str">
-        <v>Employee_73</v>
+        <v>Employee_97</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="str">
-        <v>Mahaveer A., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E13" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-27</v>
       </c>
       <c r="F13" t="str">
-        <v>from June mapped into August Shopify Plugin</v>
+        <v>25% Billable in Augusta, From July we are planning to make him 75% billable</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B14" t="str">
-        <v>Employee_97</v>
+        <v>Employee_108</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V., Kishore Kumar T.</v>
       </c>
       <c r="E14" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve">25% Billable in Augusta, From July we are expecting it to conver up to 50% </v>
+        <v>Managing - Mena bev, JBS - Like a account manager</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B15" t="str">
-        <v>Employee_108</v>
+        <v>Employee_2</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="str">
-        <v>Kishore Kumar T., Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E15" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F15" t="str">
-        <v>Managing - Mena bev, JBS - Like a account manager for Pakistan base- Covered under Mena bev</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16" t="str">
-        <v>Employee_1</v>
+        <v>Employee_10</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="str">
-        <v>Kishore Kumar T., Muhammad Rehman S.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E16" t="str">
-        <v>2025-07-06</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F16" t="str">
-        <v xml:space="preserve">No billable SOW - 7 Billable and 1 Non Billable to cover -  24X 7 Project &amp; Back Up </v>
+        <v>PM for Y design &amp; True religion, From August will be 100% Billable in Augusta</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>Employee_2</v>
+        <v>Employee_16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Farhan A.</v>
       </c>
       <c r="E17" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F17" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
+        <v>He is a Non-Billable PM at Richardson Sports</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>Employee_10</v>
+        <v>Employee_17</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -7105,78 +6140,78 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E18" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F18" t="str">
-        <v xml:space="preserve">PM for Y design &amp; True religion, From Aug Bellacor - 50 % billable - SOW is under preparation </v>
+        <v>Billable under JE Dune, Richardson</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>Employee_16</v>
+        <v>Employee_18</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="str">
-        <v>Farhan A.</v>
+        <v>Kishore Kumar T., Muhammad Rehman S.</v>
       </c>
       <c r="E19" t="str">
         <v>2025-06-26</v>
       </c>
       <c r="F19" t="str">
-        <v>He is a Non-Billable PM at Richardson Sport</v>
+        <v>Billable under JE Dune, Richardson</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
-        <v>Employee_17</v>
+        <v>Employee_22</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Kishore Kumar T., Muhammad Rehman S.</v>
       </c>
       <c r="E20" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-03</v>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve">Billable under  JE Dune , Richarson </v>
+        <v>FMLA - it started from June 2nd for 12 weeks</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B21" t="str">
-        <v>Employee_18</v>
+        <v>Employee_25</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <v>Muhammad Rehman S., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E21" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve">This employee is not filling the time sheet. </v>
+        <v>T&amp;M work starting in Dimond+/Laminex NZ from 1st July</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="str">
-        <v>Employee_22</v>
+        <v>Employee_27</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -7185,38 +6220,38 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E22" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F22" t="str">
-        <v>FMLA - it started from June 2nd for 12 weeks</v>
+        <v>Will be released from RAC by End of July</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" t="str">
-        <v>Employee_25</v>
+        <v>Employee_28</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V., Kishore Kumar T.</v>
       </c>
       <c r="E23" t="str">
         <v>2025-07-02</v>
       </c>
       <c r="F23" t="str">
-        <v>T&amp;M work starting in Dimond+/Laminex NZ project starting from July 14th for 2 months</v>
+        <v>Non billable from 23rd June</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B24" t="str">
-        <v>Employee_27</v>
+        <v>Employee_34</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -7225,38 +6260,38 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E24" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F24" t="str">
-        <v>Will be released from RAC by End of June.</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" t="str">
-        <v>Employee_28</v>
+        <v>Employee_39</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="str">
-        <v>Karthik V., Kishore Kumar T.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E25" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F25" t="str">
-        <v>Non billable from 23rd June</v>
+        <v>Keico (projection) - (two and half months)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B26" t="str">
-        <v>Employee_34</v>
+        <v>Employee_44</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -7265,18 +6300,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E26" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-29</v>
       </c>
       <c r="F26" t="str">
-        <v>50% Billable in Whilecap . Also PM for - Rockwest, UFA</v>
+        <v>One and only React bench resource. (Planning to add 2 more)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B27" t="str">
-        <v>Employee_44</v>
+        <v>Employee_52</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -7285,58 +6320,58 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E27" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-04</v>
       </c>
       <c r="F27" t="str">
-        <v>One and only React bench resource. (Plan for Training)</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" t="str">
-        <v>Employee_52</v>
+        <v>Employee_55</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Mahaveer A.</v>
       </c>
       <c r="E28" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F28" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
+        <v>Kids delivery</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" t="str">
-        <v>Employee_55</v>
+        <v>Employee_57</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="str">
-        <v>Mahaveer A.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E29" t="str">
-        <v>2025-06-23</v>
+        <v>2025-07-04</v>
       </c>
       <c r="F29" t="str">
-        <v>Kids delivery</v>
+        <v>He is currently working in maintenance and support - From 3rd July</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B30" t="str">
-        <v>Employee_57</v>
+        <v>Employee_61</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -7345,18 +6380,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E30" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F30" t="str">
-        <v>He is currently working in maintenance and will become billable starting from July 3rd</v>
+        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B31" t="str">
-        <v>Employee_61</v>
+        <v>Employee_70</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -7365,18 +6400,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E31" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F31" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
+        <v>Managing MENA Bev and JBS accounts, actively involved in operational coordination</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" t="str">
-        <v>Employee_70</v>
+        <v>Employee_74</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -7385,18 +6420,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E32" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F32" t="str">
-        <v>Managing MENA Bev and JBS accounts, acting as an account manager for the Pakistan-based operations—c...</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B33" t="str">
-        <v>Employee_74</v>
+        <v>Employee_84</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -7405,18 +6440,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E33" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F33" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
+        <v>Shadow resource as per the SOW - Agreed with Sanjay</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B34" t="str">
-        <v>Employee_84</v>
+        <v>Employee_101</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -7425,18 +6460,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E34" t="str">
-        <v>2025-06-25</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F34" t="str">
-        <v>Shadow resource as per the SOW - Agreed and approved by Finance</v>
+        <v>RAC - ACIMA Extended Aisle - Bench from 1st July</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B35" t="str">
-        <v>Employee_101</v>
+        <v>Employee_105</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -7445,18 +6480,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E35" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F35" t="str">
-        <v>RAC - ACIMA Extended Aisle - Bench from 1st June</v>
+        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" t="str">
-        <v>Employee_105</v>
+        <v>Employee_106</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -7465,21 +6500,21 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E36" t="str">
-        <v>2025-06-25</v>
+        <v>2025-06-26</v>
       </c>
       <c r="F36" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+        <v>Training on SAP S4 Hana - Also back Bench resource for SAP S4 Hana</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>Employee_106</v>
+        <v>Employee_1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="str">
         <v>Kishore Kumar T.</v>
@@ -7488,7 +6523,7 @@
         <v>2025-06-25</v>
       </c>
       <c r="F37" t="str">
-        <v xml:space="preserve">Training on SAP S4 Hana - Also back Bench - Less cost  </v>
+        <v>No billable SOW - 7 Billable and 1 Non Billable</v>
       </c>
     </row>
     <row r="38">
@@ -7505,7 +6540,7 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E38" t="str">
-        <v>2025-06-27</v>
+        <v>2025-06-24</v>
       </c>
       <c r="F38" t="str">
         <v>Was on leave entire last week</v>
@@ -7545,10 +6580,10 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E40" t="str">
-        <v>2025-06-27</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F40" t="str">
-        <v>Was billable in Dimond Roofing - Fletcher Builder. Moved to bench from 23rd June</v>
+        <v>Was billable in Dimond Roofing - Fletcher Building</v>
       </c>
     </row>
     <row r="41">
@@ -7565,10 +6600,10 @@
         <v>Karthik V.</v>
       </c>
       <c r="E41" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-25</v>
       </c>
       <c r="F41" t="str">
-        <v>She will be made billable from 1st August in RAC SFB2CComposable Migration project. SOW is in the pr...</v>
+        <v>She will be made billable from 1st August</v>
       </c>
     </row>
     <row r="42">
@@ -7588,7 +6623,7 @@
         <v>2025-07-02</v>
       </c>
       <c r="F42" t="str">
-        <v>50% Billable in Whilecap . Aslo PM for - Rockwest, UFA</v>
+        <v>50% Billable in Whilecap. Also PM for - Rockwest, UFA</v>
       </c>
     </row>
     <row r="43">
@@ -7608,7 +6643,7 @@
         <v>2025-06-30</v>
       </c>
       <c r="F43" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
+        <v>Last working day - 30th June.</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +6657,61 @@
         <v>1</v>
       </c>
       <c r="D44" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E44" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F44" t="str">
-        <v>Resigned. Will be supporting for Sourav or VPG client while serving her notice period of 2 months. D...</v>
+        <v>Resigned. Will be supporting for 2 weeks during transition</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="str">
-        <v>Employee_43</v>
+        <v>Employee_45</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E45" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F45" t="str">
-        <v>Managing - PlaceMaker &amp; Pet Barn ( AREN) - Cost covered in the Margin</v>
+        <v>Working on AI solutions and will be mapped to AI Training</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="str">
-        <v>Employee_45</v>
+        <v>Employee_46</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E46" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F46" t="str">
-        <v>Working on AI solutions and will be mapped in MARS during 1st week of September</v>
+        <v>Last working day - 30th June.</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="str">
-        <v>Employee_46</v>
+        <v>Employee_47</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7685,18 +6720,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E47" t="str">
-        <v>2025-06-30</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F47" t="str">
-        <v xml:space="preserve">Last working day - 30th June. </v>
+        <v>one and only React bench resource. Will be 100% billable from JULY in Augusta</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" t="str">
-        <v>Employee_47</v>
+        <v>Employee_50</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7705,18 +6740,18 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E48" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F48" t="str">
-        <v xml:space="preserve">one and only React bench resource. Will Train the internal team in React </v>
+        <v>Managing - Barns and Noble, CEGB, JSW - Will be billable 100% in MOS from JULY</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49" t="str">
-        <v>Employee_50</v>
+        <v>Employee_53</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7728,15 +6763,15 @@
         <v>2025-07-03</v>
       </c>
       <c r="F49" t="str">
-        <v>Managing - Barns and Noble, CEGB, JSW -  Will be billable 100% in MOS from JULY</v>
+        <v>JE Dunn Maintenance &amp; Support - Bench from 3rd July</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50" t="str">
-        <v>Employee_53</v>
+        <v>Employee_58</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7745,195 +6780,175 @@
         <v>Kishore Kumar T.</v>
       </c>
       <c r="E50" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-03</v>
       </c>
       <c r="F50" t="str">
-        <v>JE Dunn Maintenance &amp; Support - Bench from 10th June</v>
+        <v>He is working in maintenance - From 3rd July</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="str">
-        <v>Employee_58</v>
+        <v>Employee_60</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E51" t="str">
-        <v>2025-07-02</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F51" t="str">
-        <v xml:space="preserve">He is working in maintance - From 3rd July he will be billable </v>
+        <v>Moved to Agriserv project effective from 1st July</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52" t="str">
-        <v>Employee_60</v>
+        <v>Employee_63</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E52" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-01</v>
       </c>
       <c r="F52" t="str">
-        <v>Moved to Agriserv project effective from 3rd July</v>
+        <v>Dimond Roofing + KO Requirements Phase 1 - From July</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B53" t="str">
-        <v>Employee_63</v>
+        <v>Employee_68</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E53" t="str">
-        <v>2025-07-02</v>
+        <v>2025-06-25</v>
       </c>
       <c r="F53" t="str">
-        <v>Dimond Roofing + KO Requirements Phase 1.Fletcher Builder - From 16th June on bench</v>
+        <v>He handles Proposal Management for entire DC BU</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B54" t="str">
-        <v>Employee_68</v>
+        <v>Employee_76</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E54" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-25</v>
       </c>
       <c r="F54" t="str">
-        <v xml:space="preserve">He handles Proposal Management for entire BU and will be a non billable resource.  </v>
+        <v>Placemaker Buffer - Will be 100% billable from August in Shopify Plus</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B55" t="str">
-        <v>Employee_76</v>
+        <v>Employee_94</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E55" t="str">
         <v>2025-07-02</v>
       </c>
       <c r="F55" t="str">
-        <v>Placemaker Buffer - Will be 100% billable from Mid July</v>
+        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B56" t="str">
-        <v>Employee_94</v>
+        <v>Employee_117</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E56" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F56" t="str">
-        <v>He is working for Client HD Supply. Non-billable shadow resource for the 24*7 support. He is part of...</v>
+        <v>There is no active opportunity at the moment. Mahaveer intends to provide him in Optimizely</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" t="str">
-        <v>Employee_117</v>
+        <v>Employee_119</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="str">
-        <v>Kishore Kumar T.</v>
+        <v>Karthik V.</v>
       </c>
       <c r="E57" t="str">
-        <v>2025-07-03</v>
+        <v>2025-06-30</v>
       </c>
       <c r="F57" t="str">
-        <v>There is no active opportunity at the moment. Mahaveer intends to provide him with AI training - GWA...</v>
+        <v>Offboarded on 30th June.</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B58" t="str">
-        <v>Employee_119</v>
+        <v>Employee_137</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="str">
-        <v>Karthik V.</v>
+        <v>Kishore Kumar T.</v>
       </c>
       <c r="E58" t="str">
-        <v>2025-07-03</v>
+        <v>2025-07-02</v>
       </c>
       <c r="F58" t="str">
-        <v>Offboarded on 30th June.</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>137</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Employee_137</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="str">
-        <v>Kishore Kumar T.</v>
-      </c>
-      <c r="E59" t="str">
-        <v>2025-07-02</v>
-      </c>
-      <c r="F59" t="str">
         <v>She will non billable for initial 3 months - Expecting billable from September 2025</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F58"/>
   </ignoredErrors>
 </worksheet>
 </file>